--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE7749C-AB9F-4D7E-AA90-28E1C5067F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF267867-15F5-44EE-81F6-F40D6465C8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="24456" yWindow="1080" windowWidth="21624" windowHeight="11304" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>鸡饭</t>
+  </si>
+  <si>
+    <t>姐姐</t>
   </si>
 </sst>
 </file>
@@ -210,14 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -240,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -386,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -528,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:J25"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +558,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -585,7 +587,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -594,7 +596,7 @@
       <c r="D4" s="4">
         <v>11.5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="4">
@@ -610,10 +612,9 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
@@ -625,10 +626,9 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -640,203 +640,51 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4">
-        <v>1000</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="2">
-        <f>SUM(J4:J7,F4)</f>
-        <v>2350</v>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="2">
+        <f>SUM(J4:J8,F4)</f>
+        <v>2478.3000000000002</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF267867-15F5-44EE-81F6-F40D6465C8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09674D7D-E763-4490-A3A8-ED1B7FFABE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24456" yWindow="1080" windowWidth="21624" windowHeight="11304" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>姐姐</t>
+  </si>
+  <si>
+    <t>炒饭</t>
+  </si>
+  <si>
+    <t>水</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -209,11 +215,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -224,6 +256,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +721,79 @@
       <c r="H10" s="5"/>
       <c r="J10" s="5"/>
     </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>45504</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="12">
+        <f>SUM(J12:J13,F12)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09674D7D-E763-4490-A3A8-ED1B7FFABE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B53AB7-1AF6-4FF9-9E00-4598A4C63803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24456" yWindow="1080" windowWidth="21624" windowHeight="11304" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="5295" yWindow="1560" windowWidth="21630" windowHeight="11310" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Food(大概）</t>
   </si>
   <si>
-    <t>30/7</t>
-  </si>
-  <si>
     <t>给谁家用</t>
   </si>
   <si>
@@ -85,6 +82,15 @@
   </si>
   <si>
     <t>水</t>
+  </si>
+  <si>
+    <t>CurryRice</t>
+  </si>
+  <si>
+    <t>米浴(订金）</t>
+  </si>
+  <si>
+    <t>海梦(订金)</t>
   </si>
 </sst>
 </file>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,14 +591,15 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -600,39 +607,39 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>45503</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>11.5</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4">
         <v>50</v>
@@ -640,13 +647,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -654,13 +661,13 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -668,13 +675,13 @@
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -682,13 +689,13 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="4">
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -696,13 +703,13 @@
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8"/>
@@ -716,12 +723,12 @@
         <v>2478.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="H10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -729,33 +736,33 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>45504</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -766,10 +773,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4">
         <v>3.4</v>
@@ -780,7 +787,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="11"/>
       <c r="D14" s="8"/>
@@ -794,6 +801,98 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>45505</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="12">
+        <f>SUM(J17:J18,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12">
+        <f>SUM(M17,M18)</f>
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B53AB7-1AF6-4FF9-9E00-4598A4C63803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC7468-778C-4427-8A65-560349C16428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="1560" windowWidth="21630" windowHeight="11310" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>海梦(订金)</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>burger lab</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -247,11 +253,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -265,6 +293,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,7 +353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -429,7 +459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M19"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +876,12 @@
       <c r="D17" s="4">
         <v>15.7</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4">
+        <v>29.8</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
@@ -859,8 +894,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="10"/>
       <c r="D18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
@@ -875,22 +909,38 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="12">
-        <f>SUM(J17:J18,F17)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12">
-        <f>SUM(M17,M18)</f>
-        <v>295</v>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="L19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="14">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="12">
+        <f>SUM(J17:J19,F17)</f>
+        <v>29.8</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12">
+        <f>SUM(M17:M19)</f>
+        <v>297.95</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC7468-778C-4427-8A65-560349C16428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B29683-48B6-4065-8E08-A951A38B0149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>burger lab</t>
+  </si>
+  <si>
+    <t>电话费</t>
+  </si>
+  <si>
+    <t>TNG卡</t>
   </si>
 </sst>
 </file>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,6 +949,89 @@
         <v>297.95</v>
       </c>
     </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>45506</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="12">
+        <f>SUM(J23:J25,F23)</f>
+        <v>130.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B29683-48B6-4065-8E08-A951A38B0149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463DFF26-0081-4C9C-8B02-CD533C498511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>TNG卡</t>
+  </si>
+  <si>
+    <t>youtube P</t>
+  </si>
+  <si>
+    <t>Mamak</t>
+  </si>
+  <si>
+    <t>麻辣烫</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>赛马娘月卡</t>
+  </si>
+  <si>
+    <t>ZZZ月卡</t>
   </si>
 </sst>
 </file>
@@ -615,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +644,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -984,8 +1003,12 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4">
+        <v>23.85</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
@@ -1029,7 +1052,103 @@
       <c r="I26" s="8"/>
       <c r="J26" s="12">
         <f>SUM(J23:J25,F23)</f>
-        <v>130.6</v>
+        <v>154.44999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>45507</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="4">
+        <v>33.9</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="D30" s="4"/>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="4">
+        <v>13.91</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="4">
+        <v>38.67</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="4">
+        <v>19.47</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="12">
+        <f>SUM(F29,F30,H29:H31)</f>
+        <v>116.45</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463DFF26-0081-4C9C-8B02-CD533C498511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B0959-0465-4303-AA32-7456129B2581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>ZZZ月卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNG </t>
   </si>
 </sst>
 </file>
@@ -337,9 +340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +380,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,6 +1154,89 @@
         <v>116.45</v>
       </c>
     </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>45508</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="4">
+        <v>50</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="12">
+        <f>SUM(F35,F36,H35:H37)</f>
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B0959-0465-4303-AA32-7456129B2581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AEC8FF-EC82-4AB7-ADAB-B66DDCF7FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t xml:space="preserve">TNG </t>
+  </si>
+  <si>
+    <t>familyMart</t>
   </si>
 </sst>
 </file>
@@ -340,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,7 +383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -486,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -628,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
   <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1188,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
-        <v>45508</v>
+        <v>45509</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -1206,7 +1209,12 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
-      <c r="D36" s="4"/>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3.9</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AEC8FF-EC82-4AB7-ADAB-B66DDCF7FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28ECD04-1854-49CE-A5DE-A2921CD8C7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>familyMart</t>
+  </si>
+  <si>
+    <t>咖哩面</t>
+  </si>
+  <si>
+    <t>战双(储值)</t>
   </si>
 </sst>
 </file>
@@ -343,9 +349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -383,7 +389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -489,7 +495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M38"/>
+  <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1163,7 @@
         <v>116.45</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -1185,8 +1191,14 @@
       <c r="J34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>45509</v>
       </c>
@@ -1206,8 +1218,14 @@
       <c r="H35" s="4"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="4">
+        <v>95.83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>30</v>
@@ -1220,8 +1238,14 @@
       <c r="H36" s="4"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="4">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -1230,8 +1254,10 @@
       <c r="H37" s="4"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="11"/>
       <c r="D38" s="8"/>
@@ -1244,6 +1270,95 @@
         <f>SUM(F35,F36,H35:H37)</f>
         <v>50</v>
       </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12">
+        <f>SUM(M35:M37)</f>
+        <v>143.03</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>45510</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="4">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="12">
+        <f>SUM(F41,F42,H41:H43)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28ECD04-1854-49CE-A5DE-A2921CD8C7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C80FF7-38C1-45C2-A8F2-02533B856E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>战双(储值)</t>
+  </si>
+  <si>
+    <t>韩国餐</t>
   </si>
 </sst>
 </file>
@@ -645,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M44"/>
+  <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,8 +1341,12 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3.5</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
@@ -1360,6 +1367,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>45511</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="4">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="4">
+        <v>50</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="D49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="12">
+        <f>SUM(F47,F48,H47:H49)</f>
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C80FF7-38C1-45C2-A8F2-02533B856E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F724E52-D66F-406F-85F9-2CDDE7FA445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>韩国餐</t>
+  </si>
+  <si>
+    <t>DSX Control</t>
+  </si>
+  <si>
+    <t>Saman</t>
+  </si>
+  <si>
+    <t>Sarawak Mee</t>
   </si>
 </sst>
 </file>
@@ -648,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M50"/>
+  <dimension ref="B1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +791,10 @@
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <f>SUM(D4)</f>
+        <v>11.5</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -860,7 +872,10 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <f>SUM(D12:D13)</f>
+        <v>13.4</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -967,7 +982,10 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8">
+        <f>SUM(D17)</f>
+        <v>15.7</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1263,7 +1281,10 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="8">
+        <f>SUM(D35:D37)</f>
+        <v>15.4</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -1356,7 +1377,10 @@
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8">
+        <f>SUM(D41:D43)</f>
+        <v>15.5</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -1438,7 +1462,10 @@
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="8">
+        <f>SUM(D47)</f>
+        <v>19</v>
+      </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -1449,6 +1476,95 @@
         <v>50</v>
       </c>
     </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
+        <v>45512</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="4">
+        <v>12</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="4">
+        <v>21.75</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8">
+        <f>SUM(D53)</f>
+        <v>12</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="12">
+        <f>SUM(F53,F54,H53:H55, J53:J55)</f>
+        <v>41.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F724E52-D66F-406F-85F9-2CDDE7FA445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C824BA6C-98CB-499B-8955-545EBBE2502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Sarawak Mee</t>
+  </si>
+  <si>
+    <t>麻7水</t>
+  </si>
+  <si>
+    <t>vspo立牌</t>
+  </si>
+  <si>
+    <t>zrush</t>
   </si>
 </sst>
 </file>
@@ -361,9 +370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +410,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +516,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M56"/>
+  <dimension ref="B1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,6 +1574,175 @@
         <v>41.75</v>
       </c>
     </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>45513</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="4">
+        <v>185</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="8">
+        <f>SUM(D59)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="12">
+        <f>SUM(F60,H59:H61, J59:J61)</f>
+        <v>193.63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="10">
+        <v>45514</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65">
+        <v>18</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="D66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+      <c r="D67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8">
+        <f>SUM(D65)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="12">
+        <f>SUM(F65:F67,H65:H67, J65:J67)</f>
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C824BA6C-98CB-499B-8955-545EBBE2502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FEF2C5-6181-47F1-8D2C-4D26C5BF7406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>zrush</t>
+  </si>
+  <si>
+    <t>ZZZ大月卡</t>
+  </si>
+  <si>
+    <t>SushiM</t>
   </si>
 </sst>
 </file>
@@ -370,9 +376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -410,7 +416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -516,7 +522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -658,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M68"/>
+  <dimension ref="B1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O66" sqref="O66"/>
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,6 +1749,176 @@
         <v>18</v>
       </c>
     </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="10">
+        <v>45515</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71">
+        <v>14.95</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="D72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+      <c r="D73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="8">
+        <f>SUM(D71)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="12">
+        <f>SUM(F71:F73,H71:H73, J71:J73)</f>
+        <v>54.849999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="10">
+        <v>45516</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="8">
+        <f>SUM(D77)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="12">
+        <f>SUM(F77:F79,H77:H79, J77:J79)</f>
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FEF2C5-6181-47F1-8D2C-4D26C5BF7406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1811B09A-D776-425A-A36C-35D840CBFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>SushiM</t>
+  </si>
+  <si>
+    <t>yipoh mee</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -672,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M80"/>
+  <dimension ref="B1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,6 +1925,89 @@
         <v>50</v>
       </c>
     </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="10">
+        <v>45517</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="D84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="D85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="8">
+        <f>SUM(D83)</f>
+        <v>14.4</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="12">
+        <f>SUM(F83:F85,H83:H85, J83:J85)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1811B09A-D776-425A-A36C-35D840CBFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DCAA9C-61AA-47D4-89A6-29E15FF4CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -165,7 +165,7 @@
     <t>yipoh mee</t>
   </si>
   <si>
-    <t>s</t>
+    <t>鸡排</t>
   </si>
 </sst>
 </file>
@@ -382,9 +382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,7 +422,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -528,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
   <dimension ref="B1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -1953,11 +1953,8 @@
       <c r="J82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>45517</v>
       </c>
@@ -1970,19 +1967,28 @@
       <c r="E83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
-      <c r="D84" s="4"/>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="4">
+        <v>4.75</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="D85" s="4"/>
       <c r="F85" s="4"/>
@@ -1991,12 +1997,12 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="11"/>
       <c r="D86" s="8">
-        <f>SUM(D83)</f>
-        <v>14.4</v>
+        <f>SUM(D83:D85)</f>
+        <v>19.149999999999999</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -2005,7 +2011,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="12">
         <f>SUM(F83:F85,H83:H85, J83:J85)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DCAA9C-61AA-47D4-89A6-29E15FF4CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAFB84E-409D-47AD-A91D-4B5C7D3C7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>鸡排</t>
+  </si>
+  <si>
+    <t>The Ice</t>
   </si>
 </sst>
 </file>
@@ -382,9 +385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,7 +425,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -528,7 +531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M86"/>
+  <dimension ref="B1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+      <selection activeCell="R83" sqref="R83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,6 +2017,91 @@
         <v>50</v>
       </c>
     </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="10">
+        <v>45518</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="4">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="7"/>
+      <c r="D91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="8">
+        <f>SUM(D89:D91)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="12">
+        <f>SUM(F89:F91,H89:H91, J89:J91)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAFB84E-409D-47AD-A91D-4B5C7D3C7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED894378-D9F9-4869-A3BA-0BB2E596FCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="47">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>The Ice</t>
+  </si>
+  <si>
+    <t>油钱</t>
+  </si>
+  <si>
+    <t>burger</t>
   </si>
 </sst>
 </file>
@@ -681,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M92"/>
+  <dimension ref="B1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+      <selection activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,6 +2108,95 @@
         <v>0</v>
       </c>
     </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="10">
+        <v>45519</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="4">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95">
+        <v>50</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="10"/>
+      <c r="D96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="7"/>
+      <c r="D97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="6"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="8">
+        <f>SUM(D95:D97)</f>
+        <v>19.489999999999998</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="12">
+        <f>SUM(F95:F97,H95:H97, J95:J97)</f>
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED894378-D9F9-4869-A3BA-0BB2E596FCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA732E41-AEDC-49B2-9CEA-E53778DAAD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="31215" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="51">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>burger</t>
+  </si>
+  <si>
+    <t>Family Mart</t>
+  </si>
+  <si>
+    <t>Xbox</t>
+  </si>
+  <si>
+    <t>崩铁</t>
+  </si>
+  <si>
+    <t>Burger</t>
   </si>
 </sst>
 </file>
@@ -391,9 +403,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -431,7 +443,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -537,7 +549,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -679,7 +691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M98"/>
+  <dimension ref="B1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="P93" sqref="P93"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2176,12 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="10"/>
-      <c r="D96" s="4"/>
+      <c r="C96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="4">
+        <v>3.5</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
@@ -2185,7 +2202,7 @@
       <c r="C98" s="11"/>
       <c r="D98" s="8">
         <f>SUM(D95:D97)</f>
-        <v>19.489999999999998</v>
+        <v>22.99</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -2197,6 +2214,174 @@
         <v>130</v>
       </c>
     </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="10">
+        <v>45520</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="G101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H101" s="4">
+        <v>15</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="10"/>
+      <c r="D102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="D103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="8">
+        <f>SUM(D101:D103)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="12">
+        <f>SUM(F101:F103,H101:H103, J101:J103)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="10">
+        <v>45521</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H107" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
+      <c r="D108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="D109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="6"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="8">
+        <f>SUM(D107:D109)</f>
+        <v>16.5</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="12">
+        <f>SUM(F107:F109,H107:H109, J107:J109)</f>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA732E41-AEDC-49B2-9CEA-E53778DAAD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D01DB-D65D-4BBA-93E8-122E8BF0428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31215" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="53">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Burger</t>
+  </si>
+  <si>
+    <t>牛肉面</t>
+  </si>
+  <si>
+    <t>糕点</t>
   </si>
 </sst>
 </file>
@@ -699,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M110"/>
+  <dimension ref="B1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,6 +2388,91 @@
         <v>18.899999999999999</v>
       </c>
     </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="10">
+        <v>45522</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F113">
+        <v>42.65</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="10"/>
+      <c r="D114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="7"/>
+      <c r="D115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="6"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="8">
+        <f>SUM(D113:D115)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="12">
+        <f>SUM(F113:F115,H113:H115, J113:J115)</f>
+        <v>42.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D01DB-D65D-4BBA-93E8-122E8BF0428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42720F-19CD-4C95-B839-8F6C7873A4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="56">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>糕点</t>
+  </si>
+  <si>
+    <t>youtube M</t>
+  </si>
+  <si>
+    <t>sarawak mee</t>
+  </si>
+  <si>
+    <t>战双</t>
   </si>
 </sst>
 </file>
@@ -409,9 +418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -449,7 +458,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -555,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -697,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -705,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M116"/>
+  <dimension ref="B1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="R115" sqref="R115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2203,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="D97" s="4"/>
       <c r="F97" s="4"/>
@@ -2203,7 +2212,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="11"/>
       <c r="D98" s="8">
@@ -2220,7 +2229,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
         <v>2</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="10">
         <v>45520</v>
       </c>
@@ -2269,7 +2278,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="D102" s="4"/>
       <c r="F102" s="4"/>
@@ -2278,7 +2287,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="D103" s="4"/>
       <c r="F103" s="4"/>
@@ -2287,7 +2296,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -2304,7 +2313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
         <v>45521</v>
       </c>
@@ -2353,7 +2362,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="D108" s="4"/>
       <c r="F108" s="4"/>
@@ -2362,7 +2371,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="D109" s="4"/>
       <c r="F109" s="4"/>
@@ -2371,7 +2380,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="11"/>
       <c r="D110" s="8">
@@ -2388,7 +2397,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
         <v>2</v>
       </c>
@@ -2416,8 +2425,14 @@
       <c r="J112" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="10">
         <v>45522</v>
       </c>
@@ -2437,8 +2452,14 @@
       <c r="H113" s="4"/>
       <c r="I113" s="3"/>
       <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L113" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M113" s="4">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="10"/>
       <c r="D114" s="4"/>
       <c r="F114" s="4"/>
@@ -2446,8 +2467,10 @@
       <c r="H114" s="4"/>
       <c r="I114" s="3"/>
       <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L114" s="3"/>
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
       <c r="D115" s="4"/>
       <c r="F115" s="4"/>
@@ -2455,8 +2478,10 @@
       <c r="H115" s="4"/>
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L115" s="13"/>
+      <c r="M115" s="14"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="11"/>
       <c r="D116" s="8">
@@ -2472,6 +2497,180 @@
         <f>SUM(F113:F115,H113:H115, J113:J115)</f>
         <v>42.65</v>
       </c>
+      <c r="L116" s="11"/>
+      <c r="M116" s="12">
+        <f>SUM(M113:M115)</f>
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="10">
+        <v>45523</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="4">
+        <v>13.78</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119">
+        <v>50</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H119" s="4">
+        <v>10</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="10"/>
+      <c r="D120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="7"/>
+      <c r="D121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="8">
+        <f>SUM(D119:D121)</f>
+        <v>13.78</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="12">
+        <f>SUM(F119:F121,H119:H121, J119:J121)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="10">
+        <v>45524</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="10"/>
+      <c r="D126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="7"/>
+      <c r="D127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="8">
+        <f>SUM(D125:D127)</f>
+        <v>15.7</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="12">
+        <f>SUM(F125:F127,H125:H127, J125:J127)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42720F-19CD-4C95-B839-8F6C7873A4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805D3F2-B9FB-4228-8815-1AA1843EE037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="56">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -418,9 +418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -458,7 +458,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -564,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -706,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M128"/>
+  <dimension ref="B1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="R115" sqref="R115"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="Q131" sqref="Q131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,6 +2672,95 @@
         <v>0</v>
       </c>
     </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="10">
+        <v>45525</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131">
+        <v>50</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J131" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="10"/>
+      <c r="D132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="7"/>
+      <c r="D133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="8">
+        <f>SUM(D131:D133)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="12">
+        <f>SUM(F131:F133,H131:H133, J131:J133)</f>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805D3F2-B9FB-4228-8815-1AA1843EE037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20735D54-276B-4C6F-886B-3D44AAE77C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="59">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>战双</t>
+  </si>
+  <si>
+    <t>原神月卡</t>
+  </si>
+  <si>
+    <t>原神大月</t>
+  </si>
+  <si>
+    <t>sukiya</t>
   </si>
 </sst>
 </file>
@@ -714,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M134"/>
+  <dimension ref="B1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="Q131" sqref="Q131"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,6 +2770,94 @@
         <v>100</v>
       </c>
     </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="10">
+        <v>45526</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="G137" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H137" s="4">
+        <v>20.38</v>
+      </c>
+      <c r="I137" s="3"/>
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="10"/>
+      <c r="D138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H138" s="4">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="7"/>
+      <c r="D139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="6"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="8">
+        <f>SUM(D137:D139)</f>
+        <v>13.9</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="12">
+        <f>SUM(F137:F139,H137:H139, J137:J139)</f>
+        <v>60.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20735D54-276B-4C6F-886B-3D44AAE77C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE1CD6D-9865-49D1-90AD-47C2AB29CDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="62">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>sukiya</t>
+  </si>
+  <si>
+    <t>小说</t>
+  </si>
+  <si>
+    <t>mamak</t>
+  </si>
+  <si>
+    <t>Iphone</t>
   </si>
 </sst>
 </file>
@@ -723,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M140"/>
+  <dimension ref="B1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="R132" sqref="R132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -2710,7 +2719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="10">
         <v>45525</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
       <c r="D132" s="4"/>
       <c r="F132" s="4"/>
@@ -2744,7 +2753,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="D133" s="4"/>
       <c r="F133" s="4"/>
@@ -2753,7 +2762,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="11"/>
       <c r="D134" s="8">
@@ -2770,7 +2779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
@@ -2798,8 +2807,14 @@
       <c r="J136" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="10">
         <v>45526</v>
       </c>
@@ -2818,8 +2833,14 @@
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="4"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L137" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M137" s="4">
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="10"/>
       <c r="D138" s="4"/>
       <c r="F138" s="4"/>
@@ -2831,8 +2852,10 @@
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="4"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L138" s="3"/>
+      <c r="M138" s="4"/>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="D139" s="4"/>
       <c r="F139" s="4"/>
@@ -2840,8 +2863,10 @@
       <c r="H139" s="4"/>
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L139" s="13"/>
+      <c r="M139" s="14"/>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="11"/>
       <c r="D140" s="8">
@@ -2857,6 +2882,176 @@
         <f>SUM(F137:F139,H137:H139, J137:J139)</f>
         <v>60.11</v>
       </c>
+      <c r="L140" s="11"/>
+      <c r="M140" s="12">
+        <f>SUM(M137:M139)</f>
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B142" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="10">
+        <v>45527</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3"/>
+      <c r="G143" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H143" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I143" s="3"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="10"/>
+      <c r="D144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="4"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="7"/>
+      <c r="D145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="4"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="6"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="8">
+        <f>SUM(D143:D145)</f>
+        <v>0</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="12">
+        <f>SUM(F143:F145,H143:H145, J143:J145)</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="10">
+        <v>45529</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149" s="4">
+        <v>20</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149">
+        <v>17.05</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="10"/>
+      <c r="D150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="7"/>
+      <c r="D151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="6"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="8">
+        <f>SUM(D149:D151)</f>
+        <v>20</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="12">
+        <f>SUM(F149:F151,H149:H151, J149:J151)</f>
+        <v>17.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE1CD6D-9865-49D1-90AD-47C2AB29CDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C6AF3-DF17-4D2D-A500-36417D7132CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="68">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>Iphone</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>白咖啡</t>
+  </si>
+  <si>
+    <t>板面</t>
+  </si>
+  <si>
+    <t>youtube m</t>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>Pivix</t>
   </si>
 </sst>
 </file>
@@ -436,9 +454,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,7 +494,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -582,7 +600,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
-  <dimension ref="B1:M152"/>
+  <dimension ref="B1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="R132" sqref="R132"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,7 +2960,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="D145" s="4"/>
       <c r="F145" s="4"/>
@@ -2951,7 +2969,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="11"/>
       <c r="D146" s="8">
@@ -2968,7 +2986,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
         <v>2</v>
       </c>
@@ -2996,8 +3014,14 @@
       <c r="J148" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="10">
         <v>45529</v>
       </c>
@@ -3017,8 +3041,14 @@
       <c r="H149" s="4"/>
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M149" s="4">
+        <v>426.91</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="10"/>
       <c r="D150" s="4"/>
       <c r="F150" s="4"/>
@@ -3026,8 +3056,10 @@
       <c r="H150" s="4"/>
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L150" s="3"/>
+      <c r="M150" s="4"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="D151" s="4"/>
       <c r="F151" s="4"/>
@@ -3035,8 +3067,10 @@
       <c r="H151" s="4"/>
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L151" s="13"/>
+      <c r="M151" s="14"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -3052,6 +3086,206 @@
         <f>SUM(F149:F151,H149:H151, J149:J151)</f>
         <v>17.05</v>
       </c>
+      <c r="L152" s="11"/>
+      <c r="M152" s="12">
+        <f>SUM(M149:M151)</f>
+        <v>426.91</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B154" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B155" s="10">
+        <v>45530</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" s="4">
+        <v>4</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="4"/>
+      <c r="L155" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M155" s="4">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B156" s="10"/>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" s="4">
+        <v>11</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="4"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="4"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B157" s="7"/>
+      <c r="D157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+      <c r="L157" s="13"/>
+      <c r="M157" s="14"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="8">
+        <f>SUM(D155:D157)</f>
+        <v>15</v>
+      </c>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="12">
+        <f>SUM(F155:F157,H155:H157, J155:J157)</f>
+        <v>50</v>
+      </c>
+      <c r="L158" s="11"/>
+      <c r="M158" s="12">
+        <f>SUM(M155:M157)</f>
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B160" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="10">
+        <v>45531</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="G161" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H161" s="4">
+        <v>10</v>
+      </c>
+      <c r="I161" s="3"/>
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="10"/>
+      <c r="D162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="7"/>
+      <c r="D163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="6"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="8">
+        <f>SUM(D161:D163)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="12">
+        <f>SUM(F161:F163,H161:H163, J161:J163)</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C6AF3-DF17-4D2D-A500-36417D7132CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A4C4E-B36C-4EC6-B192-EE03328B7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="69">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -238,6 +239,9 @@
   </si>
   <si>
     <t>Pivix</t>
+  </si>
+  <si>
+    <t>nasi lemak</t>
   </si>
 </sst>
 </file>
@@ -752,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
   <dimension ref="B1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="S151" sqref="S151"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3290,4 +3294,138 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>45532</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8">
+        <f>SUM(D3)</f>
+        <v>10.5</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12">
+        <f>SUM(J3:J7,F3)</f>
+        <v>2100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A4C4E-B36C-4EC6-B192-EE03328B7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C94855-AADC-426F-8B70-B4955174A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>nasi lemak</t>
+  </si>
+  <si>
+    <t>Akua</t>
+  </si>
+  <si>
+    <t>咋饭</t>
+  </si>
+  <si>
+    <t>sushi</t>
   </si>
 </sst>
 </file>
@@ -458,9 +467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,7 +507,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -604,7 +613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -746,7 +755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3298,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,8 +3360,12 @@
       <c r="F3" s="4">
         <v>50</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9.9</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
@@ -3421,8 +3434,126 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="12">
-        <f>SUM(J3:J7,F3)</f>
-        <v>2100</v>
+        <f>SUM(J3:J7,F3,H3)</f>
+        <v>2109.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>45533</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8">
+        <f>SUM(D11:D15)</f>
+        <v>35</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12">
+        <f>SUM(J11:J15,F11,H11,H11:H15,F11:F15)</f>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C94855-AADC-426F-8B70-B4955174A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A7F3C7-DF16-4ECF-9E94-33A4237D1E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="75">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>sushi</t>
+  </si>
+  <si>
+    <t>麦片+icecream</t>
+  </si>
+  <si>
+    <t>洗脸</t>
+  </si>
+  <si>
+    <t>姐姐狐狸</t>
   </si>
 </sst>
 </file>
@@ -765,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
   <dimension ref="B1:M164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:J9"/>
     </sheetView>
   </sheetViews>
@@ -3307,13 +3316,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:J16"/>
+  <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -3556,6 +3568,321 @@
         <v>300</v>
       </c>
     </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>45534</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="4">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8">
+        <f>SUM(D19:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="12">
+        <f>SUM(J19:J23,H19:H23,F19:F23)</f>
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>45535</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8">
+        <f>SUM(D27:D31)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="12">
+        <f>SUM(J27:J31,F27,H27,H27:H31,F27:F31)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>45536</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8">
+        <f>SUM(D35:D39)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="12">
+        <f>SUM(J35:J39,H35:H39,F35:F39)</f>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A7F3C7-DF16-4ECF-9E94-33A4237D1E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E710C3-7958-4CB4-A07E-3D2F3A032895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="76">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>姐姐狐狸</t>
+  </si>
+  <si>
+    <t>Parking</t>
   </si>
 </sst>
 </file>
@@ -476,9 +479,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -516,7 +519,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -622,7 +625,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3316,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:J40"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,6 +3886,126 @@
         <v>16.100000000000001</v>
       </c>
     </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>45537</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="4">
+        <v>15</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8">
+        <f>SUM(D43:D47)</f>
+        <v>14.4</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="12">
+        <f>SUM(J43:J47,H43:H47,F43:F47)</f>
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E710C3-7958-4CB4-A07E-3D2F3A032895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19376FE-FB76-4B40-9BE8-615D57C22584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="78">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>Parking</t>
+  </si>
+  <si>
+    <t>FunFries</t>
+  </si>
+  <si>
+    <t>youtube p</t>
   </si>
 </sst>
 </file>
@@ -777,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
   <dimension ref="B1:M164"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,10 +3325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:J48"/>
+  <dimension ref="B2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,8 +3937,12 @@
       <c r="F43" s="4">
         <v>15</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="4">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="I43" s="3" t="s">
         <v>75</v>
       </c>
@@ -3961,8 +3971,12 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="4">
+        <v>9.9</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
@@ -3994,7 +4008,7 @@
       <c r="C48" s="11"/>
       <c r="D48" s="8">
         <f>SUM(D43:D47)</f>
-        <v>14.4</v>
+        <v>24.3</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -4003,7 +4017,117 @@
       <c r="I48" s="8"/>
       <c r="J48" s="12">
         <f>SUM(J43:J47,H43:H47,F43:F47)</f>
-        <v>125</v>
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>45538</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="4">
+        <v>33.9</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8">
+        <f>SUM(D51:D55)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="12">
+        <f>SUM(J51:J55,H51:H55,F51:F55)</f>
+        <v>33.9</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19376FE-FB76-4B40-9BE8-615D57C22584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DF86D-D5CA-4AF2-AE7F-B96F3CF08D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="83">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -269,6 +269,21 @@
   </si>
   <si>
     <t>youtube p</t>
+  </si>
+  <si>
+    <t>拖鞋</t>
+  </si>
+  <si>
+    <t>肉骨茶</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>马娘</t>
+  </si>
+  <si>
+    <t>马娘游戏</t>
   </si>
 </sst>
 </file>
@@ -485,9 +500,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -525,7 +540,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -631,7 +646,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6240F38-3FFE-4E0D-A4A2-C603FF33EC98}">
   <dimension ref="B1:M164"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:J56"/>
+  <dimension ref="B2:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -3817,8 +3832,14 @@
       <c r="J34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>45536</v>
       </c>
@@ -3834,8 +3855,14 @@
       <c r="H35" s="4"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M35" s="4">
+        <v>37.270000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -3844,8 +3871,14 @@
       <c r="H36" s="4"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M36" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -3854,8 +3887,10 @@
       <c r="H37" s="4"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -3864,8 +3899,13 @@
       <c r="H38" s="4"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L38" s="11"/>
+      <c r="M38" s="12">
+        <f>SUM(M35:M37)</f>
+        <v>167.27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -3875,7 +3915,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -3892,7 +3932,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -3921,7 +3961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>45537</v>
       </c>
@@ -3950,7 +3990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="3" t="s">
         <v>15</v>
@@ -3969,7 +4009,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="3" t="s">
         <v>76</v>
@@ -3983,7 +4023,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -3993,7 +4033,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -4003,7 +4043,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -4059,7 +4099,12 @@
       <c r="D51" s="4">
         <v>10</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4">
+        <v>100</v>
+      </c>
       <c r="G51" s="3" t="s">
         <v>77</v>
       </c>
@@ -4078,8 +4123,12 @@
         <v>3.4</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="4"/>
+      <c r="G52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="4">
+        <v>119.8</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
@@ -4088,8 +4137,12 @@
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="4"/>
+      <c r="G53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="4">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
@@ -4127,7 +4180,113 @@
       <c r="I56" s="8"/>
       <c r="J56" s="12">
         <f>SUM(J51:J55,H51:H55,F51:F55)</f>
-        <v>33.9</v>
+        <v>258.60000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>45539</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J59" s="4">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="8">
+        <f>SUM(D59:D63)</f>
+        <v>21.8</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="12">
+        <f>SUM(J59:J63,H59:H63,F59:F63)</f>
+        <v>17.899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DF86D-D5CA-4AF2-AE7F-B96F3CF08D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3FF40-D7D5-46F7-9A6F-305D5EB2D88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="85">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>马娘游戏</t>
+  </si>
+  <si>
+    <t>Sarawak</t>
+  </si>
+  <si>
+    <t>海梦模型</t>
   </si>
 </sst>
 </file>
@@ -500,9 +506,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -540,7 +546,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -646,7 +652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3340,10 +3346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M64"/>
+  <dimension ref="B2:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,6 +4295,129 @@
         <v>17.899999999999999</v>
       </c>
     </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
+        <v>45540</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+      <c r="L67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="12">
+        <f>SUM(M67:M69)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="8">
+        <f>SUM(D67:D71)</f>
+        <v>16.2</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="12">
+        <f>SUM(J67:J71,H67:H71,F67:F71)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3FF40-D7D5-46F7-9A6F-305D5EB2D88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E71C39-E7FE-49E3-A76F-8BEE2AC8291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="86">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>海梦模型</t>
+  </si>
+  <si>
+    <t>茶档</t>
   </si>
 </sst>
 </file>
@@ -506,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -546,7 +549,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -652,7 +655,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -794,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3346,10 +3349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M72"/>
+  <dimension ref="B2:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="T63" sqref="T63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77:R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,7 +4352,7 @@
         <v>84</v>
       </c>
       <c r="M67" s="4">
-        <v>450</v>
+        <v>454.5</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4388,7 +4391,7 @@
       <c r="L70" s="11"/>
       <c r="M70" s="12">
         <f>SUM(M67:M69)</f>
-        <v>450</v>
+        <v>454.5</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4418,6 +4421,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="10">
+        <v>45541</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="4">
+        <v>25.19</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="8">
+        <f>SUM(D76:D80)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="12">
+        <f>SUM(J76:J80,H76:H80,F76:F80)</f>
+        <v>25.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E71C39-E7FE-49E3-A76F-8BEE2AC8291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA358503-0614-4774-B3FF-F6D3810A6775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="87">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>茶档</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
 </sst>
 </file>
@@ -3349,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M81"/>
+  <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77:R77"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4524,6 +4527,219 @@
         <v>25.19</v>
       </c>
     </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="10">
+        <v>45542</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="4">
+        <v>18</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="7"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="8">
+        <f>SUM(D84:D88)</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="12">
+        <f>SUM(J84:J88,H84:H88,F84:F88)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="10">
+        <v>45544</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H92" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="7"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="8">
+        <f>SUM(D92:D96)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="12">
+        <f>SUM(J92:J96,H92:H96,F92:F96)</f>
+        <v>13.530000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA358503-0614-4774-B3FF-F6D3810A6775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1085FAA-88F0-4E31-AD0D-4370707E2A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="87">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -512,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -552,7 +552,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -658,7 +658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,7 +800,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3352,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M97"/>
+  <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="S98" sqref="S98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,6 +4740,112 @@
         <v>13.530000000000001</v>
       </c>
     </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="10">
+        <v>45545</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="7"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="6"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="8">
+        <f>SUM(D100:D104)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="12">
+        <f>SUM(J100:J104,H100:H104,F100:F104)</f>
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1085FAA-88F0-4E31-AD0D-4370707E2A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E307F1B-214A-4FB4-8BD6-B01EDAE18613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="88">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>coffee</t>
+  </si>
+  <si>
+    <t>cham</t>
   </si>
 </sst>
 </file>
@@ -3352,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M105"/>
+  <dimension ref="B2:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="S98" sqref="S98"/>
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,6 +4849,112 @@
         <v>50</v>
       </c>
     </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="10">
+        <v>45546</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="4">
+        <v>10</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="6"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="8">
+        <f>SUM(D108:D112)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="12">
+        <f>SUM(J108:J112,H108:H112,F108:F112)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E307F1B-214A-4FB4-8BD6-B01EDAE18613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F7D7F-054A-477E-B21D-466E227DCCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="88">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -515,9 +515,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +555,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,7 +661,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,7 +803,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3355,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M113"/>
+  <dimension ref="B2:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4955,6 +4955,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="10">
+        <v>45547</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" t="s">
+        <v>83</v>
+      </c>
+      <c r="F116" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="4">
+        <v>18</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="7"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="7"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="8">
+        <f>SUM(D116:D120)</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="12">
+        <f>SUM(J116:J120,H116:H120,F116:F120)</f>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F7D7F-054A-477E-B21D-466E227DCCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2665E-024E-4B2B-9AC2-06B203085FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="94">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -299,6 +299,24 @@
   </si>
   <si>
     <t>cham</t>
+  </si>
+  <si>
+    <t>抓蟑螂棍</t>
+  </si>
+  <si>
+    <t>电影晚餐</t>
+  </si>
+  <si>
+    <t>黑鲸</t>
+  </si>
+  <si>
+    <t>坐垫</t>
+  </si>
+  <si>
+    <t>午餐</t>
+  </si>
+  <si>
+    <t>崩铁大月卡</t>
   </si>
 </sst>
 </file>
@@ -3355,10 +3373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M121"/>
+  <dimension ref="B2:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4513,7 +4531,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="11"/>
       <c r="D81" s="8">
@@ -4530,7 +4548,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>2</v>
       </c>
@@ -4559,7 +4577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="10">
         <v>45542</v>
       </c>
@@ -4576,7 +4594,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -4586,7 +4604,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -4596,7 +4614,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -4606,7 +4624,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
@@ -4616,7 +4634,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="11"/>
       <c r="D89" s="8">
@@ -4633,7 +4651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>2</v>
       </c>
@@ -4661,8 +4679,14 @@
       <c r="J91" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="10">
         <v>45544</v>
       </c>
@@ -4681,8 +4705,14 @@
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M92" s="4">
+        <v>38.119999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -4695,8 +4725,10 @@
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L93" s="3"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -4705,8 +4737,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L94" s="13"/>
+      <c r="M94" s="14"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -4715,8 +4749,13 @@
       <c r="H95" s="4"/>
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L95" s="11"/>
+      <c r="M95" s="12">
+        <f>SUM(M92:M94)</f>
+        <v>38.119999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
@@ -5063,6 +5102,227 @@
         <v>34.700000000000003</v>
       </c>
     </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="10">
+        <v>45549</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124" s="4">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="4">
+        <v>100</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H124" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="7"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="7"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="8">
+        <f>SUM(D124:D128)</f>
+        <v>12</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="12">
+        <f>SUM(J124:J128,H124:H128,F124:F128)</f>
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="10">
+        <v>45550</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D132" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H132" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="7"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H133" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="I133" s="3"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="7"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="7"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="6"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="8">
+        <f>SUM(D132:D136)</f>
+        <v>23.8</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="12">
+        <f>SUM(J132:J136,H132:H136,F132:F136)</f>
+        <v>40.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2665E-024E-4B2B-9AC2-06B203085FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4009C22-551C-4AF4-A473-1C2E178013FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="98">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>崩铁大月卡</t>
+  </si>
+  <si>
+    <t>XBOX</t>
+  </si>
+  <si>
+    <t>SUSHI</t>
+  </si>
+  <si>
+    <t>版面</t>
+  </si>
+  <si>
+    <t>MAMAK</t>
   </si>
 </sst>
 </file>
@@ -3373,10 +3385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M137"/>
+  <dimension ref="B2:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="N153" sqref="N153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5323,6 +5335,347 @@
         <v>40.6</v>
       </c>
     </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="10">
+        <v>45551</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H140" s="4">
+        <v>20</v>
+      </c>
+      <c r="I140" s="3"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="7"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="4"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B145" s="6"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="8">
+        <f>SUM(D140:D144)</f>
+        <v>0</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="12">
+        <f>SUM(J140:J144,H140:H144,F140:F144)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="10">
+        <v>45552</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>95</v>
+      </c>
+      <c r="F148" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="4"/>
+      <c r="L148" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M148" s="4">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B149" s="7"/>
+      <c r="C149" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D149" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="4"/>
+      <c r="L149" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M149" s="4">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B150" s="7"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="14"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B151" s="7"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="4"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="12">
+        <f>SUM(M148:M150)</f>
+        <v>23.82</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="7"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="4"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B153" s="6"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="8">
+        <f>SUM(D148:D152)</f>
+        <v>50.1</v>
+      </c>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="12">
+        <f>SUM(J148:J152,H148:H152,F148:F152)</f>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B155" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B156" s="10">
+        <v>45553</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="E156" t="s">
+        <v>96</v>
+      </c>
+      <c r="F156" s="4">
+        <v>10</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B157" s="7"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B158" s="7"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B160" s="7"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="6"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="8">
+        <f>SUM(D156:D160)</f>
+        <v>0</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="12">
+        <f>SUM(J156:J160,H156:H160,F156:F160)</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4009C22-551C-4AF4-A473-1C2E178013FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ED5481-383C-488B-8909-DBCC9A83D811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="101">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t>MAMAK</t>
+  </si>
+  <si>
+    <t>剪头发</t>
+  </si>
+  <si>
+    <t>米浴模型</t>
+  </si>
+  <si>
+    <t>晚餐</t>
   </si>
 </sst>
 </file>
@@ -3385,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M161"/>
+  <dimension ref="B2:M185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="N153" sqref="N153"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="O165" sqref="O165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5659,7 +5668,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="11"/>
       <c r="D161" s="8">
@@ -5676,6 +5685,365 @@
         <v>10</v>
       </c>
     </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B163" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B164" s="10">
+        <v>45554</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="4">
+        <v>100</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H164" s="4">
+        <v>500</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J164" s="4">
+        <v>39</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M164" s="4">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B165" s="7"/>
+      <c r="C165" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D165" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H165" s="4">
+        <v>10</v>
+      </c>
+      <c r="I165" s="3"/>
+      <c r="J165" s="4"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="4"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="7"/>
+      <c r="C166" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D166" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="4"/>
+      <c r="L166" s="13"/>
+      <c r="M166" s="14"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="4"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="12">
+        <f>SUM(M164:M166)</f>
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="7"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="4"/>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B169" s="6"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="8">
+        <f>SUM(D164:D168)</f>
+        <v>26.700000000000003</v>
+      </c>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="12">
+        <f>SUM(J164:J168,H164:H168,F164:F168)</f>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B172" s="10">
+        <v>45555</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="4"/>
+      <c r="E172" t="s">
+        <v>26</v>
+      </c>
+      <c r="F172" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="4"/>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B173" s="7"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="4"/>
+      <c r="E173" t="s">
+        <v>100</v>
+      </c>
+      <c r="F173" s="4">
+        <v>20.45</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B174" s="7"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B175" s="7"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B176" s="7"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="6"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="8">
+        <f>SUM(D172:D176)</f>
+        <v>0</v>
+      </c>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="12">
+        <f>SUM(J172:J176,H172:H176,F172:F176)</f>
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="10">
+        <v>45556</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="4"/>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="7"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="7"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="7"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="7"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="4"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="6"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="8">
+        <f>SUM(D180:D184)</f>
+        <v>0</v>
+      </c>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="12">
+        <f>SUM(J180:J184,H180:H184,F180:F184)</f>
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ED5481-383C-488B-8909-DBCC9A83D811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695BBB79-0550-4B70-8AFD-313882D2DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="101">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -554,9 +554,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -594,7 +594,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -700,7 +700,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -842,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3394,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M185"/>
+  <dimension ref="B2:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="O165" sqref="O165"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="N191" sqref="N191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,6 +6044,220 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="10">
+        <v>45558</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="4">
+        <v>10</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="4">
+        <v>50</v>
+      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="7"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="4"/>
+      <c r="E189" t="s">
+        <v>87</v>
+      </c>
+      <c r="F189" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G189" s="3"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="4"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="7"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="4"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="7"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="7"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="4"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193" s="6"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="8">
+        <f>SUM(D188:D192)</f>
+        <v>10</v>
+      </c>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="12">
+        <f>SUM(J188:J192,H188:H192,F188:F192)</f>
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="10">
+        <v>45559</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F196" s="4"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="7"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="7"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="4"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="7"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="4"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="7"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="4"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="6"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="8">
+        <f>SUM(D196:D200)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="12">
+        <f>SUM(J196:J200,H196:H200,F196:F200)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695BBB79-0550-4B70-8AFD-313882D2DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654BC0AC-57DD-4934-8AB7-DC076CDF1EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="105">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -338,6 +339,18 @@
   </si>
   <si>
     <t>晚餐</t>
+  </si>
+  <si>
+    <t>炒飯</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>222SPort</t>
+  </si>
+  <si>
+    <t>原神小</t>
   </si>
 </sst>
 </file>
@@ -554,9 +567,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -594,7 +607,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -700,7 +713,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -842,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -853,7 +866,7 @@
   <dimension ref="B1:M164"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,10 +3407,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
-  <dimension ref="B2:M201"/>
+  <dimension ref="B2:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="N191" sqref="N191"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5924,7 +5937,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="11"/>
       <c r="D177" s="8">
@@ -5941,7 +5954,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="9" t="s">
         <v>2</v>
       </c>
@@ -5970,7 +5983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
         <v>45556</v>
       </c>
@@ -5987,7 +6000,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -5997,7 +6010,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -6007,7 +6020,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -6017,7 +6030,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="C184" s="3"/>
       <c r="D184" s="4"/>
@@ -6027,7 +6040,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="11"/>
       <c r="D185" s="8">
@@ -6044,7 +6057,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="9" t="s">
         <v>2</v>
       </c>
@@ -6072,8 +6085,14 @@
       <c r="J187" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="10">
         <v>45558</v>
       </c>
@@ -6093,8 +6112,14 @@
       <c r="H188" s="4"/>
       <c r="I188" s="3"/>
       <c r="J188" s="4"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L188" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M188" s="4">
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -6108,8 +6133,14 @@
       <c r="H189" s="4"/>
       <c r="I189" s="3"/>
       <c r="J189" s="4"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L189" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M189" s="4">
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -6118,8 +6149,10 @@
       <c r="H190" s="4"/>
       <c r="I190" s="3"/>
       <c r="J190" s="4"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L190" s="13"/>
+      <c r="M190" s="14"/>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -6128,8 +6161,13 @@
       <c r="H191" s="4"/>
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L191" s="11"/>
+      <c r="M191" s="12">
+        <f>SUM(M188:M190)</f>
+        <v>177.85</v>
+      </c>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="C192" s="3"/>
       <c r="D192" s="4"/>
@@ -6258,6 +6296,353 @@
         <v>0</v>
       </c>
     </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="10">
+        <v>45560</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D204" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="F204" s="4"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="4"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="7"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="4"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="7"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="7"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="4"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="7"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="4"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="6"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="8">
+        <f>SUM(D204:D208)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="12">
+        <f>SUM(J204:J208,H204:H208,F204:F208)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="10">
+        <v>45561</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D212" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="E212" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" s="4">
+        <v>50</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H212" s="4">
+        <v>10</v>
+      </c>
+      <c r="I212" s="3"/>
+      <c r="J212" s="4"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="7"/>
+      <c r="C213" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D213" s="4">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>7</v>
+      </c>
+      <c r="F213" s="4">
+        <v>10</v>
+      </c>
+      <c r="G213" s="3"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="7"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="4"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="7"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="4"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="7"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="4"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="6"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="8">
+        <f>SUM(D212:D216)</f>
+        <v>17.2</v>
+      </c>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
+      <c r="J217" s="12">
+        <f>SUM(J212:J216,H212:H216,F212:F216)</f>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>45562</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8">
+        <f>SUM(D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12">
+        <f>SUM(J3:J7,F3,H3)</f>
+        <v>2050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654BC0AC-57DD-4934-8AB7-DC076CDF1EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD9C16-2DAA-4B49-906B-C880B043E594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="106">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>原神小</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -3409,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
   <dimension ref="B2:M217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J8"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="P216" sqref="P216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6381,7 +6384,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
       <c r="C209" s="11"/>
       <c r="D209" s="8">
@@ -6398,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="9" t="s">
         <v>2</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" s="10">
         <v>45561</v>
       </c>
@@ -6452,7 +6455,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" s="3" t="s">
         <v>103</v>
@@ -6471,7 +6474,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -6481,7 +6484,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -6491,7 +6494,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
       <c r="C216" s="3"/>
       <c r="D216" s="4"/>
@@ -6500,8 +6503,12 @@
       <c r="H216" s="4"/>
       <c r="I216" s="3"/>
       <c r="J216" s="4"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L216">
+        <f>SUM(D217,D209,D201,D193,D169,D153,D137,D129,D113,D105,D97,D72,D64,D56,D48,D32,D16,D8)</f>
+        <v>323.10000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
       <c r="C217" s="11"/>
       <c r="D217" s="8">
@@ -6516,6 +6523,13 @@
       <c r="J217" s="12">
         <f>SUM(J212:J216,H212:H216,F212:F216)</f>
         <v>70</v>
+      </c>
+      <c r="K217" t="s">
+        <v>105</v>
+      </c>
+      <c r="L217">
+        <f>SUM(J217,J193,J185,J177,J169,J161,J153,J145,J137,J129,J121,J105,J97,J89,J81,J72,J64,J56,J48,J40,J32,J24,J16,J8)</f>
+        <v>4066.02</v>
       </c>
     </row>
   </sheetData>
@@ -6527,7 +6541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
   <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD9C16-2DAA-4B49-906B-C880B043E594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AE8502-9024-4B27-88E9-A025B7D00C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="107">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>烤肉</t>
   </si>
 </sst>
 </file>
@@ -570,9 +573,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -610,7 +613,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -716,7 +719,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -858,7 +861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3412,7 +3415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
   <dimension ref="B2:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="P216" sqref="P216"/>
     </sheetView>
   </sheetViews>
@@ -6539,10 +6542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,8 +6586,12 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
@@ -6654,7 +6661,225 @@
       <c r="I8" s="8"/>
       <c r="J8" s="12">
         <f>SUM(J3:J7,F3,H3)</f>
-        <v>2050</v>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>45563</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="4">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="4">
+        <v>49.25</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8">
+        <f>SUM(D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12">
+        <f>SUM(J11:J15,F11,H11)</f>
+        <v>369.09</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>45564</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8">
+        <f>SUM(D19)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="12">
+        <f>SUM(J19:J23,F19,H19)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AE8502-9024-4B27-88E9-A025B7D00C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D48702-C30A-4A56-A966-32E651F8A240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="110">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t>烤肉</t>
+  </si>
+  <si>
+    <t>猪猪</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>九龙</t>
   </si>
 </sst>
 </file>
@@ -6542,10 +6551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6776,8 +6785,8 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="12">
-        <f>SUM(J11:J15,F11,H11)</f>
-        <v>369.09</v>
+        <f>SUM(J11:J15,F11:F15,H11:H15)</f>
+        <v>418.34</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -6882,6 +6891,223 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>45565</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4">
+        <v>6.65</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8">
+        <f>SUM(D27:D31)</f>
+        <v>26.35</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="12">
+        <f>SUM(J27:J31,F27,H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>45566</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8">
+        <f>SUM(D35:D39)</f>
+        <v>29.3</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="12">
+        <f>SUM(J35:J39,F35:F39,H35:H39)</f>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D48702-C30A-4A56-A966-32E651F8A240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DEE455-3966-445D-98E9-962AE4D6760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="111">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>九龙</t>
+  </si>
+  <si>
+    <t>holo</t>
   </si>
 </sst>
 </file>
@@ -582,9 +585,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +625,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -728,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -870,7 +873,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6554,7 +6557,7 @@
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7042,8 +7045,12 @@
       <c r="F35" s="4">
         <v>100</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="4">
+        <v>255.4</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
     </row>
@@ -7105,7 +7112,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="12">
         <f>SUM(J35:J39,F35:F39,H35:H39)</f>
-        <v>100</v>
+        <v>355.4</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DEE455-3966-445D-98E9-962AE4D6760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C076DF31-FD5C-4422-ABD7-34ACEAD2B19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="111">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -3427,7 +3427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
   <dimension ref="B2:M217"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="P216" sqref="P216"/>
     </sheetView>
   </sheetViews>
@@ -6554,10 +6554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:J40"/>
+  <dimension ref="B2:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,6 +7115,325 @@
         <v>355.4</v>
       </c>
     </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>45567</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8">
+        <f>SUM(D43:D47)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="12">
+        <f>SUM(J43:J47,F43:F47,H43:H47)</f>
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>45568</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="4">
+        <v>33.9</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="4">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8">
+        <f>SUM(D51:D55)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="12">
+        <f>SUM(J51:J55,F51:F55,H51:H55)</f>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>45569</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="8">
+        <f>SUM(D59:D63)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="12">
+        <f>SUM(J59:J63,F59:F63,H59:H63)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C076DF31-FD5C-4422-ABD7-34ACEAD2B19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24BB003-64E0-4D2B-A33B-0143F152A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="120">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -369,6 +369,33 @@
   </si>
   <si>
     <t>holo</t>
+  </si>
+  <si>
+    <t>小北</t>
+  </si>
+  <si>
+    <t>车轮饼</t>
+  </si>
+  <si>
+    <t>绝区</t>
+  </si>
+  <si>
+    <t>百鬼</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>车</t>
   </si>
 </sst>
 </file>
@@ -3427,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D042454-45DA-46FB-8186-98A351F8E47D}">
   <dimension ref="B2:M217"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="P216" sqref="P216"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6554,10 +6581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:J64"/>
+  <dimension ref="B2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7000,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -7029,7 +7056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>45566</v>
       </c>
@@ -7054,7 +7081,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
         <v>86</v>
@@ -7068,7 +7095,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -7078,7 +7105,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -7088,7 +7115,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -7098,7 +7125,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -7115,7 +7142,7 @@
         <v>355.4</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -7143,8 +7170,14 @@
       <c r="J42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>45567</v>
       </c>
@@ -7164,8 +7197,14 @@
       <c r="H43" s="4"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="4">
+        <v>35.909999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -7174,8 +7213,14 @@
       <c r="H44" s="4"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="4">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -7184,8 +7229,10 @@
       <c r="H45" s="4"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L45" s="13"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -7194,8 +7241,13 @@
       <c r="H46" s="4"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L46" s="11"/>
+      <c r="M46" s="12">
+        <f>SUM(M43:M45)</f>
+        <v>54.059999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -7205,7 +7257,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -7222,7 +7274,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -7251,7 +7303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>45568</v>
       </c>
@@ -7271,7 +7323,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>64</v>
@@ -7285,7 +7337,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -7295,7 +7347,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -7305,7 +7357,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -7315,7 +7367,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -7332,7 +7384,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -7360,8 +7412,14 @@
       <c r="J58" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>45569</v>
       </c>
@@ -7376,8 +7434,14 @@
       <c r="H59" s="4"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -7386,8 +7450,14 @@
       <c r="H60" s="4"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M60" s="4">
+        <v>606.65</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -7396,8 +7466,10 @@
       <c r="H61" s="4"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L61" s="13"/>
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -7406,8 +7478,13 @@
       <c r="H62" s="4"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L62" s="11"/>
+      <c r="M62" s="12">
+        <f>SUM(M59:M61)</f>
+        <v>687.25</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -7417,7 +7494,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -7434,6 +7511,241 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
+        <v>45570</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" s="4">
+        <v>885</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="4">
+        <v>500</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M67" s="4">
+        <v>810.5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="12">
+        <f>SUM(M67:M69)</f>
+        <v>810.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="8">
+        <f>SUM(D67:D71)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="12">
+        <f>SUM(J67:J71,F67:F71,H67:H71)</f>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="10">
+        <v>45571</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="8">
+        <f>SUM(D75:D79)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="12">
+        <f>SUM(J75:J79,F75:F79,H75:H79)</f>
+        <v>25.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24BB003-64E0-4D2B-A33B-0143F152A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19BE1C7-9D86-4BCF-8789-B11364A1E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="118">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -383,19 +383,13 @@
     <t>百鬼</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>车</t>
+  </si>
+  <si>
+    <t>海梦</t>
+  </si>
+  <si>
+    <t>sarawak</t>
   </si>
 </sst>
 </file>
@@ -612,9 +606,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -652,7 +646,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -758,7 +752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -900,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6581,10 +6575,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:M80"/>
+  <dimension ref="B2:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7566,7 +7560,7 @@
         <v>500</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M67" s="4">
         <v>810.5</v>
@@ -7746,6 +7740,219 @@
         <v>25.9</v>
       </c>
     </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="10">
+        <v>45572</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J83" s="4">
+        <v>73.86</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="8">
+        <f>SUM(D83:D87)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="12">
+        <f>SUM(J83:J87,F83:F87,H83:H87)</f>
+        <v>73.86</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="10">
+        <v>45573</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="4">
+        <v>100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H91" s="4">
+        <v>80</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="8">
+        <f>SUM(D91:D95)</f>
+        <v>13.1</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="12">
+        <f>SUM(J91:J95,F91:F95,H91:H95)</f>
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19BE1C7-9D86-4BCF-8789-B11364A1E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECFFE3-C086-4B72-A8CD-81A4D1A1FEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="121">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>sarawak</t>
+  </si>
+  <si>
+    <t>姨婆</t>
+  </si>
+  <si>
+    <t>botan</t>
+  </si>
+  <si>
+    <t>电影</t>
   </si>
 </sst>
 </file>
@@ -606,9 +615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -646,7 +655,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -752,7 +761,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -894,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6575,10 +6584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:M96"/>
+  <dimension ref="B2:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7953,6 +7962,333 @@
         <v>180</v>
       </c>
     </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="10">
+        <v>45574</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="8">
+        <f>SUM(D99:D103)</f>
+        <v>15.4</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="12">
+        <f>SUM(J99:J103,F99:F103,H99:H103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="10">
+        <v>45575</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="4">
+        <v>100</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H107" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+      <c r="C108" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="6"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="8">
+        <f>SUM(D107:D111)</f>
+        <v>25.9</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="12">
+        <f>SUM(J107:J111,F107:F111,H107:H111)</f>
+        <v>108.63</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="10">
+        <v>45576</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="4">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H115" s="4">
+        <v>130</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="7"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H116" s="4">
+        <v>14</v>
+      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="7"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="8">
+        <f>SUM(D115:D119)</f>
+        <v>20.149999999999999</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="12">
+        <f>SUM(J115:J119,F115:F119,H115:H119)</f>
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECFFE3-C086-4B72-A8CD-81A4D1A1FEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4517EF49-6F0F-4970-B660-F9033F51B89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="125">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -399,6 +399,18 @@
   </si>
   <si>
     <t>电影</t>
+  </si>
+  <si>
+    <t>Mcd</t>
+  </si>
+  <si>
+    <t>原神大</t>
+  </si>
+  <si>
+    <t>絕區零</t>
+  </si>
+  <si>
+    <t>兩餐</t>
   </si>
 </sst>
 </file>
@@ -6584,10 +6596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:M120"/>
+  <dimension ref="B2:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7749,7 +7761,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -7778,7 +7790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>45572</v>
       </c>
@@ -7794,7 +7806,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
@@ -7804,7 +7816,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -7814,7 +7826,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -7824,7 +7836,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -7834,7 +7846,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -7851,7 +7863,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -7879,8 +7891,14 @@
       <c r="J90" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
         <v>45573</v>
       </c>
@@ -7904,8 +7922,14 @@
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M91" s="4">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -7914,8 +7938,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L92" s="3"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -7924,8 +7950,10 @@
       <c r="H93" s="4"/>
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L93" s="13"/>
+      <c r="M93" s="14"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -7934,8 +7962,13 @@
       <c r="H94" s="4"/>
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L94" s="11"/>
+      <c r="M94" s="12">
+        <f>SUM(M91:M93)</f>
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -7945,7 +7978,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -7962,7 +7995,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -7990,8 +8023,14 @@
       <c r="J98" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="10">
         <v>45574</v>
       </c>
@@ -8006,8 +8045,14 @@
       <c r="H99" s="4"/>
       <c r="I99" s="3"/>
       <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L99" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M99" s="4">
+        <v>36.11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -8016,8 +8061,10 @@
       <c r="H100" s="4"/>
       <c r="I100" s="3"/>
       <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L100" s="3"/>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -8026,8 +8073,10 @@
       <c r="H101" s="4"/>
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L101" s="13"/>
+      <c r="M101" s="14"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -8036,8 +8085,13 @@
       <c r="H102" s="4"/>
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L102" s="11"/>
+      <c r="M102" s="12">
+        <f>SUM(M99:M101)</f>
+        <v>36.11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -8047,7 +8101,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -8064,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -8093,7 +8147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
         <v>45575</v>
       </c>
@@ -8118,7 +8172,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>118</v>
@@ -8132,7 +8186,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -8142,7 +8196,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -8152,7 +8206,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -8162,7 +8216,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -8218,7 +8272,12 @@
       <c r="D115" s="4">
         <v>20.149999999999999</v>
       </c>
-      <c r="F115" s="4"/>
+      <c r="E115" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="4">
+        <v>14.65</v>
+      </c>
       <c r="G115" s="3" t="s">
         <v>119</v>
       </c>
@@ -8286,7 +8345,114 @@
       <c r="I120" s="8"/>
       <c r="J120" s="12">
         <f>SUM(J115:J119,F115:F119,H115:H119)</f>
-        <v>144</v>
+        <v>158.65</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="10">
+        <v>12</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="7"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="7"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="8">
+        <f>SUM(D123:D127)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="12">
+        <f>SUM(J123:J127,F123:F127,H123:H127)</f>
+        <v>26.1</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4517EF49-6F0F-4970-B660-F9033F51B89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9146FB-1AB3-4192-B05D-59094A3506EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="125">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -627,9 +627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -773,7 +773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,7 +915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6596,10 +6596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:M128"/>
+  <dimension ref="B2:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="10">
-        <v>12</v>
+        <v>45577</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>15</v>
@@ -8455,6 +8455,214 @@
         <v>26.1</v>
       </c>
     </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="10">
+        <v>45579</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="7"/>
+      <c r="C132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="4">
+        <v>10</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="7"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="7"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="8">
+        <f>SUM(D131:D135)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="12">
+        <f>SUM(J131:J135,F131:F135,H131:H135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="10">
+        <v>45580</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="7"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="6"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="8">
+        <f>SUM(D139:D143)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="12">
+        <f>SUM(J139:J143,F139:F143,H139:H143)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9146FB-1AB3-4192-B05D-59094A3506EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407C20BD-15D8-4D10-B459-31F289387153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="125">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -627,9 +627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -773,7 +773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,7 +915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6598,8 +6598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
   <dimension ref="B2:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8600,7 +8600,12 @@
       <c r="D139" s="4">
         <v>11.5</v>
       </c>
-      <c r="F139" s="4"/>
+      <c r="E139" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="4">
+        <v>5.9</v>
+      </c>
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
       <c r="I139" s="3"/>
@@ -8660,7 +8665,7 @@
       <c r="I144" s="8"/>
       <c r="J144" s="12">
         <f>SUM(J139:J143,F139:F143,H139:H143)</f>
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407C20BD-15D8-4D10-B459-31F289387153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE5F88-B023-4551-85B9-06E0BE77F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="128">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>兩餐</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>绝区小</t>
   </si>
 </sst>
 </file>
@@ -6596,10 +6605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:M144"/>
+  <dimension ref="B2:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="M165" sqref="M165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8668,6 +8677,465 @@
         <v>5.9</v>
       </c>
     </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="10">
+        <v>45581</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="4">
+        <v>10</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="4">
+        <v>100</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H147" s="4">
+        <v>20</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="7"/>
+      <c r="C148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="7"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="7"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="7"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="6"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="8">
+        <f>SUM(D147:D151)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="12">
+        <f>SUM(J147:J151,F147:F151,H147:H151)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="10">
+        <v>45582</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" s="4">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>125</v>
+      </c>
+      <c r="F155" s="4">
+        <v>26</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="7"/>
+      <c r="C156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="7"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="7"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="6"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="8">
+        <f>SUM(D155:D159)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="12">
+        <f>SUM(J155:J159,F155:F159,H155:H159)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B162" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B163" s="10">
+        <v>45583</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="4"/>
+      <c r="L163" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M163" s="4">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B164" s="7"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="4"/>
+      <c r="L164" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M164" s="4">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B165" s="7"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="4"/>
+      <c r="L165" s="13"/>
+      <c r="M165" s="14"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="7"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="4"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="12">
+        <f>SUM(M163:M165)</f>
+        <v>41.33</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="8">
+        <f>SUM(D163:D167)</f>
+        <v>0</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="12">
+        <f>SUM(J163:J167,F163:F167,H163:H167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B170" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" s="10">
+        <v>45584</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H171" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="I171" s="3"/>
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B172" s="7"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H172" s="4">
+        <v>10</v>
+      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" s="4"/>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B173" s="7"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B174" s="7"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B175" s="7"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="8">
+        <f>SUM(D171:D175)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="12">
+        <f>SUM(J171:J175,F171:F175,H171:H175)</f>
+        <v>66.099999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE5F88-B023-4551-85B9-06E0BE77F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B49DD1C-A437-49E9-9A64-7125207CFB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="132">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>绝区小</t>
+  </si>
+  <si>
+    <t>日本住</t>
+  </si>
+  <si>
+    <t>阿拉伯打劫</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>SurfShark</t>
   </si>
 </sst>
 </file>
@@ -636,9 +648,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -676,7 +688,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -782,7 +794,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -924,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6605,10 +6617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:M176"/>
+  <dimension ref="B2:M208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="M165" sqref="M165"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9136,6 +9148,441 @@
         <v>66.099999999999994</v>
       </c>
     </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="10">
+        <v>45586</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D179" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F179" s="4"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="7"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="7"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="7"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="7"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="6"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="8">
+        <f>SUM(D179:D183)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="12">
+        <f>SUM(J179:J183,F179:F183,H179:H183)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="10">
+        <v>45587</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="4">
+        <v>100</v>
+      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="4"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="7"/>
+      <c r="C188" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D188" s="4">
+        <v>10</v>
+      </c>
+      <c r="F188" s="4"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="7"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="4"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="7"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="4"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="7"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="8">
+        <f>SUM(D187:D191)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="12">
+        <f>SUM(J187:J191,F187:F191,H187:H191)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="10">
+        <v>45588</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="E195" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="4">
+        <v>20</v>
+      </c>
+      <c r="G195" s="3"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J195" s="4">
+        <v>975.61</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="7"/>
+      <c r="C196" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D196" s="4">
+        <v>33</v>
+      </c>
+      <c r="F196" s="4"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="7"/>
+      <c r="C197" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D197" s="4">
+        <f>46.4-22.4</f>
+        <v>24</v>
+      </c>
+      <c r="F197" s="4"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="7"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="4"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="7"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="4"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="6"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="8">
+        <f>SUM(D195:D199)</f>
+        <v>67.8</v>
+      </c>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
+      <c r="J200" s="12">
+        <f>SUM(J195:J199,F195:F199,H195:H199)</f>
+        <v>995.61</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="10">
+        <v>45588</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H203" s="4">
+        <v>234.9</v>
+      </c>
+      <c r="I203" s="3"/>
+      <c r="J203" s="4"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="7"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="4"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="7"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="4"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="7"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="7"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="4"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="6"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="8">
+        <f>SUM(D203:D207)</f>
+        <v>0</v>
+      </c>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="12">
+        <f>SUM(J203:J207,F203:F207,H203:H207)</f>
+        <v>234.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B49DD1C-A437-49E9-9A64-7125207CFB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA776C-A015-4B58-B560-F8DAE094A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="135">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>SurfShark</t>
+  </si>
+  <si>
+    <t>茶几</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>崩铁大</t>
   </si>
 </sst>
 </file>
@@ -648,9 +657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -688,7 +697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -794,7 +803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6617,10 +6626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:M208"/>
+  <dimension ref="B2:M232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="I203" sqref="I203"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="M195" sqref="M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9148,7 +9157,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -9176,8 +9185,14 @@
       <c r="J178" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
         <v>45586</v>
       </c>
@@ -9192,8 +9207,14 @@
       <c r="H179" s="4"/>
       <c r="I179" s="3"/>
       <c r="J179" s="4"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L179" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M179" s="4">
+        <v>35.909999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -9202,8 +9223,10 @@
       <c r="H180" s="4"/>
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L180" s="3"/>
+      <c r="M180" s="4"/>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -9212,8 +9235,10 @@
       <c r="H181" s="4"/>
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L181" s="13"/>
+      <c r="M181" s="14"/>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -9222,8 +9247,13 @@
       <c r="H182" s="4"/>
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L182" s="11"/>
+      <c r="M182" s="12">
+        <f>SUM(M179:M181)</f>
+        <v>35.909999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -9233,7 +9263,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -9250,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -9278,8 +9308,14 @@
       <c r="J186" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
         <v>45587</v>
       </c>
@@ -9299,8 +9335,14 @@
       <c r="H187" s="4"/>
       <c r="I187" s="3"/>
       <c r="J187" s="4"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L187" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M187" s="4">
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="C188" s="3" t="s">
         <v>64</v>
@@ -9313,8 +9355,10 @@
       <c r="H188" s="4"/>
       <c r="I188" s="3"/>
       <c r="J188" s="4"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L188" s="3"/>
+      <c r="M188" s="4"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -9323,8 +9367,10 @@
       <c r="H189" s="4"/>
       <c r="I189" s="3"/>
       <c r="J189" s="4"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L189" s="13"/>
+      <c r="M189" s="14"/>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -9333,8 +9379,13 @@
       <c r="H190" s="4"/>
       <c r="I190" s="3"/>
       <c r="J190" s="4"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L190" s="11"/>
+      <c r="M190" s="12">
+        <f>SUM(M187:M189)</f>
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -9344,7 +9395,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -9361,7 +9412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -9389,8 +9440,14 @@
       <c r="J194" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="10">
         <v>45588</v>
       </c>
@@ -9414,8 +9471,14 @@
       <c r="J195" s="4">
         <v>975.61</v>
       </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L195" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M195" s="4">
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" s="3" t="s">
         <v>129</v>
@@ -9428,8 +9491,10 @@
       <c r="H196" s="4"/>
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L196" s="3"/>
+      <c r="M196" s="4"/>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" s="3" t="s">
         <v>130</v>
@@ -9443,8 +9508,10 @@
       <c r="H197" s="4"/>
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L197" s="13"/>
+      <c r="M197" s="14"/>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -9453,8 +9520,13 @@
       <c r="H198" s="4"/>
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L198" s="11"/>
+      <c r="M198" s="12">
+        <f>SUM(M195:M197)</f>
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -9464,7 +9536,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -9481,7 +9553,7 @@
         <v>995.61</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -9510,7 +9582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B203" s="10">
         <v>45588</v>
       </c>
@@ -9521,12 +9593,12 @@
         <v>131</v>
       </c>
       <c r="H203" s="4">
-        <v>234.9</v>
+        <v>117.45</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -9536,7 +9608,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -9546,7 +9618,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -9556,7 +9628,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -9566,7 +9638,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -9580,7 +9652,314 @@
       <c r="I208" s="8"/>
       <c r="J208" s="12">
         <f>SUM(J203:J207,F203:F207,H203:H207)</f>
-        <v>234.9</v>
+        <v>117.45</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="10">
+        <v>45589</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J211" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="7"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="4"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="7"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="7"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="4"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="7"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="4"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="6"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="8">
+        <f>SUM(D211:D215)</f>
+        <v>0</v>
+      </c>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="12">
+        <f>SUM(J211:J215,F211:F215,H211:H215)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="10">
+        <v>45591</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="4"/>
+      <c r="E219" t="s">
+        <v>132</v>
+      </c>
+      <c r="F219" s="4">
+        <v>13.92</v>
+      </c>
+      <c r="G219" s="3"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="4"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="7"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="4"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="7"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="4"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="7"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="4"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="7"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="4"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="6"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="8">
+        <f>SUM(D219:D223)</f>
+        <v>0</v>
+      </c>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
+      <c r="J224" s="12">
+        <f>SUM(J219:J223,F219:F223,H219:H223)</f>
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" s="10">
+        <v>45592</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H227" s="4">
+        <v>10</v>
+      </c>
+      <c r="I227" s="3"/>
+      <c r="J227" s="4"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="7"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="4"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="7"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="4"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" s="7"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="4"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231" s="7"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="4"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232" s="6"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="8">
+        <f>SUM(D227:D231)</f>
+        <v>0</v>
+      </c>
+      <c r="E232" s="8"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="8"/>
+      <c r="H232" s="8"/>
+      <c r="I232" s="8"/>
+      <c r="J232" s="12">
+        <f>SUM(J227:J231,F227:F231,H227:H231)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA776C-A015-4B58-B560-F8DAE094A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA581A01-BE50-4968-959E-E33052EC5136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="137">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -441,6 +442,12 @@
   </si>
   <si>
     <t>崩铁大</t>
+  </si>
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>二姐</t>
   </si>
 </sst>
 </file>
@@ -6626,10 +6633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
-  <dimension ref="B2:M232"/>
+  <dimension ref="B2:M240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="M195" sqref="M195"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9962,6 +9969,250 @@
         <v>10</v>
       </c>
     </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235" s="10">
+        <v>45593</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D235" s="4">
+        <v>10</v>
+      </c>
+      <c r="E235" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="4">
+        <v>100</v>
+      </c>
+      <c r="G235" s="3"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="4"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236" s="7"/>
+      <c r="C236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F236" s="4"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="4"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237" s="7"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="4"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238" s="7"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="4"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="7"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="4"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="8">
+        <f>SUM(D235:D239)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+      <c r="J240" s="12">
+        <f>SUM(J235:J239,F235:F239,H235:H239)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>45593</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="4">
+        <v>355</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="4">
+        <v>111.45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8">
+        <f>SUM(D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12">
+        <f>SUM(J3:J7,F3,H3)</f>
+        <v>2766.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA581A01-BE50-4968-959E-E33052EC5136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4074D-5298-4B48-96A0-973E21BB88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="142">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -448,6 +448,21 @@
   </si>
   <si>
     <t>二姐</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>日本衣服</t>
+  </si>
+  <si>
+    <t>换日币</t>
+  </si>
+  <si>
+    <t>小月卡</t>
   </si>
 </sst>
 </file>
@@ -6635,8 +6650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3186CB9-01B4-4288-A8E5-990B8EA7EA42}">
   <dimension ref="B2:M240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J8"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66:M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10087,10 +10102,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10193,8 +10208,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
@@ -10210,7 +10229,788 @@
       <c r="I8" s="8"/>
       <c r="J8" s="12">
         <f>SUM(J3:J7,F3,H3)</f>
-        <v>2766.45</v>
+        <v>2966.45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>45594</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8">
+        <f>SUM(D11:D15)</f>
+        <v>25</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12">
+        <f>SUM(J11:J15,F11:F15,H11:H15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>45595</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8">
+        <f>SUM(D19:D23)</f>
+        <v>12.3</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="12">
+        <f>SUM(J19:J23,F19:F23,H19:H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>45596</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8">
+        <f>SUM(D27:D31)</f>
+        <v>17.5</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="12">
+        <f>SUM(J27:J31,F27:F31,H27:H31)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>45597</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="4">
+        <v>61.95</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="L35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="4">
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12">
+        <f>SUM(M35:M37)</f>
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8">
+        <f>SUM(D35:D39)</f>
+        <v>17.5</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="12">
+        <f>SUM(J35:J39,F35:F39,H35:H39)</f>
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>45598</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="L43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M43" s="4">
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="12">
+        <f>SUM(M43:M45)</f>
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8">
+        <f>SUM(D43:D47)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="12">
+        <f>SUM(J43:J47,F43:F47,H43:H47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>45599</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="4">
+        <v>41.9</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8">
+        <f>SUM(D51:D55)</f>
+        <v>40.4</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="12">
+        <f>SUM(J51:J55,F51:F55,H51:H55)</f>
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>45600</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J59" s="4">
+        <v>439.7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J60" s="4">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="8">
+        <f>SUM(D59:D63)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="12">
+        <f>SUM(J59:J63,F59:F63,H59:H63)</f>
+        <v>1319.7</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4074D-5298-4B48-96A0-973E21BB88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF735225-C2CF-40BC-968D-1E9ACB6C4E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="150">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -463,6 +463,30 @@
   </si>
   <si>
     <t>小月卡</t>
+  </si>
+  <si>
+    <t>FamilyM</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>murni</t>
+  </si>
+  <si>
+    <t>oreo</t>
+  </si>
+  <si>
+    <t>虾面</t>
+  </si>
+  <si>
+    <t>停云</t>
+  </si>
+  <si>
+    <t>拉面</t>
+  </si>
+  <si>
+    <t>日本餐</t>
   </si>
 </sst>
 </file>
@@ -10102,10 +10126,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
-  <dimension ref="B2:M64"/>
+  <dimension ref="B2:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11013,6 +11037,567 @@
         <v>1319.7</v>
       </c>
     </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
+        <v>45601</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="4">
+        <v>10</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="8">
+        <f>SUM(D67:D71)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="12">
+        <f>SUM(J67:J71,F67:F71,H67:H71)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="10">
+        <v>45602</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="4">
+        <v>100</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H75" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="4">
+        <v>68.88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="8">
+        <f>SUM(D75:D79)</f>
+        <v>38.900000000000006</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="12">
+        <f>SUM(J75:J79,F75:F79,H75:H79)</f>
+        <v>172.48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="10">
+        <v>45603</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="4">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4">
+        <v>50</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="4">
+        <v>130</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H84" s="4">
+        <v>30</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="4">
+        <v>15</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="8">
+        <f>SUM(D83:D87)</f>
+        <v>30.5</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="12">
+        <f>SUM(J83:J87,F83:F87,H83:H87)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="10">
+        <v>45604</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="4">
+        <v>26.2</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="8">
+        <f>SUM(D91:D95)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="12">
+        <f>SUM(J91:J95,F91:F95,H91:H95)</f>
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="10">
+        <v>45605</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="4">
+        <v>19.55</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="8">
+        <f>SUM(D99:D103)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="12">
+        <f>SUM(J99:J103,F99:F103,H99:H103)</f>
+        <v>45.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF735225-C2CF-40BC-968D-1E9ACB6C4E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8399943-561B-452E-AC3E-2B3DB78BB221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="151">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>日本餐</t>
+  </si>
+  <si>
+    <t>洗车</t>
   </si>
 </sst>
 </file>
@@ -703,9 +706,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,7 +746,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -849,7 +852,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -991,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10126,10 +10129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
-  <dimension ref="B2:M104"/>
+  <dimension ref="B2:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="P96" sqref="P96"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="O107" sqref="O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11598,6 +11601,118 @@
         <v>45.45</v>
       </c>
     </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="10">
+        <v>45606</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4"/>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J107" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="6"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="8">
+        <f>SUM(D107:D111)</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="12">
+        <f>SUM(J107:J111,F107:F111,H107:H111)</f>
+        <v>27.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8399943-561B-452E-AC3E-2B3DB78BB221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052C6AD9-EF3C-4A0D-BAA5-121658A8DD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="154">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t>洗车</t>
+  </si>
+  <si>
+    <t>飞机保险</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>面包</t>
   </si>
 </sst>
 </file>
@@ -706,9 +715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -746,7 +755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -852,7 +861,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -994,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10129,10 +10138,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
-  <dimension ref="B2:M112"/>
+  <dimension ref="B2:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="O107" sqref="O107"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11713,6 +11722,647 @@
         <v>27.1</v>
       </c>
     </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="10">
+        <v>45607</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="4">
+        <v>100</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="7"/>
+      <c r="C116" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="4">
+        <v>10</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="7"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="8">
+        <f>SUM(D115:D119)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="12">
+        <f>SUM(J115:J119,F115:F119,H115:H119)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="10">
+        <v>45608</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="4">
+        <v>10</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J123" s="4">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="7"/>
+      <c r="C124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="7"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="8">
+        <f>SUM(D123:D127)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="12">
+        <f>SUM(J123:J127,F123:F127,H123:H127)</f>
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="10">
+        <v>45609</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" s="4">
+        <v>10</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="7"/>
+      <c r="C132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="7"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="7"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="8">
+        <f>SUM(D131:D135)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="12">
+        <f>SUM(J131:J135,F131:F135,H131:H135)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="10">
+        <v>45610</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="7"/>
+      <c r="C140" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D140" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+      <c r="C141" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D141" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="6"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="8">
+        <f>SUM(D139:D143)</f>
+        <v>46.5</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="12">
+        <f>SUM(J139:J143,F139:F143,H139:H143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="10">
+        <v>45611</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="7"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="7"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="7"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="7"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="6"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="8">
+        <f>SUM(D147:D151)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="12">
+        <f>SUM(J147:J151,F147:F151,H147:H151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="10">
+        <v>45612</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" s="4">
+        <v>20</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="7"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="7"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="7"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="6"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="8">
+        <f>SUM(D155:D159)</f>
+        <v>0</v>
+      </c>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="12">
+        <f>SUM(J155:J159,F155:F159,H155:H159)</f>
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052C6AD9-EF3C-4A0D-BAA5-121658A8DD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B70036-54A5-4DC5-963D-DC85DA30BD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="155">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>面包</t>
+  </si>
+  <si>
+    <t>parking</t>
   </si>
 </sst>
 </file>
@@ -715,9 +718,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -755,7 +758,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -861,7 +864,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1003,7 +1006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10138,10 +10141,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
-  <dimension ref="B2:M160"/>
+  <dimension ref="B2:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11872,7 +11875,12 @@
       <c r="D123" s="4">
         <v>10</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="E123" t="s">
+        <v>154</v>
+      </c>
+      <c r="F123" s="4">
+        <v>2</v>
+      </c>
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
       <c r="I123" s="3" t="s">
@@ -11940,7 +11948,7 @@
       <c r="I128" s="8"/>
       <c r="J128" s="12">
         <f>SUM(J123:J127,F123:F127,H123:H127)</f>
-        <v>44.6</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
@@ -12363,6 +12371,109 @@
         <v>20</v>
       </c>
     </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="10">
+        <v>45613</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="4"/>
+      <c r="E163" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" s="4">
+        <v>14.45</v>
+      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="7"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="7"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="7"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="8">
+        <f>SUM(D163:D167)</f>
+        <v>0</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="12">
+        <f>SUM(J163:J167,F163:F167,H163:H167)</f>
+        <v>14.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B70036-54A5-4DC5-963D-DC85DA30BD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCE8D9-16A2-469C-B9D9-34E12A9C7616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="158">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>parking</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>nasilemak</t>
+  </si>
+  <si>
+    <t>singpei</t>
   </si>
 </sst>
 </file>
@@ -718,9 +727,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -758,7 +767,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -864,7 +873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1006,7 +1015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10141,10 +10150,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
-  <dimension ref="B2:M168"/>
+  <dimension ref="B2:M208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12474,6 +12483,547 @@
         <v>14.45</v>
       </c>
     </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="10">
+        <v>45614</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" s="4">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="4">
+        <v>100</v>
+      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="7"/>
+      <c r="C172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F172" s="4"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="4"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="7"/>
+      <c r="C173" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D173" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="F173" s="4"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="7"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="7"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="8">
+        <f>SUM(D171:D175)</f>
+        <v>21.5</v>
+      </c>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="12">
+        <f>SUM(J171:J175,F171:F175,H171:H175)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="10">
+        <v>45615</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D179" s="4">
+        <v>10</v>
+      </c>
+      <c r="F179" s="4"/>
+      <c r="G179" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H179" s="4">
+        <v>10</v>
+      </c>
+      <c r="I179" s="3"/>
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="7"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="7"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="7"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="7"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="6"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="8">
+        <f>SUM(D179:D183)</f>
+        <v>10</v>
+      </c>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="12">
+        <f>SUM(J179:J183,F179:F183,H179:H183)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="10">
+        <v>45616</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J187" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="7"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="7"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="4"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="7"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="4"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="7"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="8">
+        <f>SUM(D187:D191)</f>
+        <v>0</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="12">
+        <f>SUM(J187:J191,F187:F191,H187:H191)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="10">
+        <v>45617</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D195" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E195" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="4">
+        <v>100</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H195" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I195" s="3"/>
+      <c r="J195" s="4"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="7"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="7"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="7"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="4"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="7"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="4"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="6"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="8">
+        <f>SUM(D195:D199)</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
+      <c r="J200" s="12">
+        <f>SUM(J195:J199,F195:F199,H195:H199)</f>
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="10">
+        <v>45618</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D203" s="4">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>157</v>
+      </c>
+      <c r="F203" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="G203" s="3"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="4"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="7"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="4"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="7"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="4"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="7"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="7"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="4"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="6"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="8">
+        <f>SUM(D203:D207)</f>
+        <v>5</v>
+      </c>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="12">
+        <f>SUM(J203:J207,F203:F207,H203:H207)</f>
+        <v>24.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DCE8D9-16A2-469C-B9D9-34E12A9C7616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EA8962-B60C-484F-BAA7-1F23E3184E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="160">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>singpei</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>油费</t>
   </si>
 </sst>
 </file>
@@ -10150,10 +10156,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
-  <dimension ref="B2:M208"/>
+  <dimension ref="B2:M240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F203" sqref="F203"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="J236" sqref="J236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13024,6 +13030,435 @@
         <v>24.9</v>
       </c>
     </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="10">
+        <v>45620</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F211" s="4"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="4"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="7"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="4"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="7"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="7"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="4"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="7"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="4"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="6"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="8">
+        <f>SUM(D211:D215)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="12">
+        <f>SUM(J211:J215,F211:F215,H211:H215)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="10">
+        <v>45621</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D219" s="4">
+        <v>11</v>
+      </c>
+      <c r="F219" s="4"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="4"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="7"/>
+      <c r="C220" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D220" s="4">
+        <v>24.43</v>
+      </c>
+      <c r="F220" s="4"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="4"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="7"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="4"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="7"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="4"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="7"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="4"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="6"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="8">
+        <f>SUM(D219:D223)</f>
+        <v>35.43</v>
+      </c>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
+      <c r="J224" s="12">
+        <f>SUM(J219:J223,F219:F223,H219:H223)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" s="10">
+        <v>45622</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="4">
+        <v>100</v>
+      </c>
+      <c r="G227" s="3"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="4"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="7"/>
+      <c r="C228" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D228" s="4">
+        <v>27</v>
+      </c>
+      <c r="F228" s="4"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="4"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="7"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="4"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" s="7"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="4"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231" s="7"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="4"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232" s="6"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="8">
+        <f>SUM(D227:D231)</f>
+        <v>30.4</v>
+      </c>
+      <c r="E232" s="8"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="8"/>
+      <c r="H232" s="8"/>
+      <c r="I232" s="8"/>
+      <c r="J232" s="12">
+        <f>SUM(J227:J231,F227:F231,H227:H231)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235" s="10">
+        <v>45623</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D235" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="F235" s="4"/>
+      <c r="G235" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H235" s="4">
+        <v>10</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J235" s="4">
+        <v>74.06</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236" s="7"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="4"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237" s="7"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="4"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238" s="7"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="4"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="7"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="4"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="8">
+        <f>SUM(D235:D239)</f>
+        <v>16.2</v>
+      </c>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+      <c r="J240" s="12">
+        <f>SUM(J235:J239,F235:F239,H235:H239)</f>
+        <v>84.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EA8962-B60C-484F-BAA7-1F23E3184E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA082670-DDC3-4308-9609-41A08223028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="166">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -517,6 +518,24 @@
   </si>
   <si>
     <t>油费</t>
+  </si>
+  <si>
+    <t>球场</t>
+  </si>
+  <si>
+    <t>大月卡</t>
+  </si>
+  <si>
+    <t>赛马娘</t>
+  </si>
+  <si>
+    <t>iPhone、</t>
+  </si>
+  <si>
+    <t>Pixiv</t>
+  </si>
+  <si>
+    <t>roti boy</t>
   </si>
 </sst>
 </file>
@@ -10156,10 +10175,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
-  <dimension ref="B2:M240"/>
+  <dimension ref="B2:M248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="J236" sqref="J236"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="B2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12182,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -12211,7 +12230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="10">
         <v>45611</v>
       </c>
@@ -12227,7 +12246,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
@@ -12237,7 +12256,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -12247,7 +12266,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -12257,7 +12276,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -12267,7 +12286,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -12284,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -12312,8 +12331,14 @@
       <c r="J154" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="10">
         <v>45612</v>
       </c>
@@ -12328,8 +12353,14 @@
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="4"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L155" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M155" s="4">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
@@ -12338,8 +12369,10 @@
       <c r="H156" s="4"/>
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L156" s="3"/>
+      <c r="M156" s="4"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -12348,8 +12381,10 @@
       <c r="H157" s="4"/>
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L157" s="13"/>
+      <c r="M157" s="14"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -12358,8 +12393,13 @@
       <c r="H158" s="4"/>
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L158" s="11"/>
+      <c r="M158" s="12">
+        <f>SUM(M155:M157)</f>
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -12369,7 +12409,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -12386,7 +12426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -12414,8 +12454,14 @@
       <c r="J162" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="10">
         <v>45613</v>
       </c>
@@ -12431,8 +12477,14 @@
       <c r="H163" s="4"/>
       <c r="I163" s="3"/>
       <c r="J163" s="4"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L163" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M163" s="4">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
@@ -12441,8 +12493,10 @@
       <c r="H164" s="4"/>
       <c r="I164" s="3"/>
       <c r="J164" s="4"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L164" s="3"/>
+      <c r="M164" s="4"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -12451,8 +12505,10 @@
       <c r="H165" s="4"/>
       <c r="I165" s="3"/>
       <c r="J165" s="4"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L165" s="13"/>
+      <c r="M165" s="14"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -12461,8 +12517,13 @@
       <c r="H166" s="4"/>
       <c r="I166" s="3"/>
       <c r="J166" s="4"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L166" s="11"/>
+      <c r="M166" s="12">
+        <f>SUM(M163:M165)</f>
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -12472,7 +12533,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -12489,7 +12550,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -12517,8 +12578,14 @@
       <c r="J170" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
         <v>45614</v>
       </c>
@@ -12538,8 +12605,14 @@
       <c r="H171" s="4"/>
       <c r="I171" s="3"/>
       <c r="J171" s="4"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L171" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M171" s="4">
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
       <c r="C172" s="3" t="s">
         <v>15</v>
@@ -12552,8 +12625,14 @@
       <c r="H172" s="4"/>
       <c r="I172" s="3"/>
       <c r="J172" s="4"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L172" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M172" s="4">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" s="3" t="s">
         <v>153</v>
@@ -12566,8 +12645,10 @@
       <c r="H173" s="4"/>
       <c r="I173" s="3"/>
       <c r="J173" s="4"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L173" s="13"/>
+      <c r="M173" s="14"/>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -12576,8 +12657,13 @@
       <c r="H174" s="4"/>
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L174" s="11"/>
+      <c r="M174" s="12">
+        <f>SUM(M171:M173)</f>
+        <v>60.11</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -12587,7 +12673,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8">
@@ -12604,7 +12690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -12633,7 +12719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
         <v>45615</v>
       </c>
@@ -12653,7 +12739,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -12663,7 +12749,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -12673,7 +12759,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -12683,7 +12769,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -12693,7 +12779,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -12710,7 +12796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -12738,8 +12824,14 @@
       <c r="J186" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
         <v>45616</v>
       </c>
@@ -12754,8 +12846,14 @@
       <c r="J187" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L187" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M187" s="4">
+        <v>341.74</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="C188" s="3"/>
       <c r="D188" s="4"/>
@@ -12764,8 +12862,10 @@
       <c r="H188" s="4"/>
       <c r="I188" s="3"/>
       <c r="J188" s="4"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L188" s="3"/>
+      <c r="M188" s="4"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -12774,8 +12874,10 @@
       <c r="H189" s="4"/>
       <c r="I189" s="3"/>
       <c r="J189" s="4"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L189" s="13"/>
+      <c r="M189" s="14"/>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -12784,8 +12886,13 @@
       <c r="H190" s="4"/>
       <c r="I190" s="3"/>
       <c r="J190" s="4"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L190" s="11"/>
+      <c r="M190" s="12">
+        <f>SUM(M187:M189)</f>
+        <v>341.74</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -12795,7 +12902,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -12812,7 +12919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -12841,7 +12948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="10">
         <v>45617</v>
       </c>
@@ -12866,7 +12973,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" s="3"/>
       <c r="D196" s="4"/>
@@ -12876,7 +12983,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -12886,7 +12993,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -12896,7 +13003,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -12906,7 +13013,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -12923,7 +13030,7 @@
         <v>104.9</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -12951,8 +13058,14 @@
       <c r="J202" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B203" s="10">
         <v>45618</v>
       </c>
@@ -12972,8 +13085,14 @@
       <c r="H203" s="4"/>
       <c r="I203" s="3"/>
       <c r="J203" s="4"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L203" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M203" s="4">
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -12982,8 +13101,10 @@
       <c r="H204" s="4"/>
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L204" s="3"/>
+      <c r="M204" s="4"/>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -12992,8 +13113,10 @@
       <c r="H205" s="4"/>
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L205" s="13"/>
+      <c r="M205" s="14"/>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -13002,8 +13125,13 @@
       <c r="H206" s="4"/>
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L206" s="11"/>
+      <c r="M206" s="12">
+        <f>SUM(M203:M205)</f>
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -13013,7 +13141,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -13238,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -13266,8 +13394,14 @@
       <c r="J226" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L226" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M226" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B227" s="10">
         <v>45622</v>
       </c>
@@ -13287,8 +13421,14 @@
       <c r="H227" s="4"/>
       <c r="I227" s="3"/>
       <c r="J227" s="4"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L227" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M227" s="4">
+        <v>47.54</v>
+      </c>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
       <c r="C228" s="3" t="s">
         <v>79</v>
@@ -13301,8 +13441,10 @@
       <c r="H228" s="4"/>
       <c r="I228" s="3"/>
       <c r="J228" s="4"/>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L228" s="3"/>
+      <c r="M228" s="4"/>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -13311,8 +13453,10 @@
       <c r="H229" s="4"/>
       <c r="I229" s="3"/>
       <c r="J229" s="4"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L229" s="13"/>
+      <c r="M229" s="14"/>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="7"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -13321,8 +13465,13 @@
       <c r="H230" s="4"/>
       <c r="I230" s="3"/>
       <c r="J230" s="4"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L230" s="11"/>
+      <c r="M230" s="12">
+        <f>SUM(M227:M229)</f>
+        <v>47.54</v>
+      </c>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -13332,7 +13481,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="11"/>
       <c r="D232" s="8">
@@ -13349,7 +13498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
@@ -13378,7 +13527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B235" s="10">
         <v>45623</v>
       </c>
@@ -13402,7 +13551,7 @@
         <v>74.06</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" s="3"/>
       <c r="D236" s="4"/>
@@ -13412,7 +13561,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" s="3"/>
       <c r="D237" s="4"/>
@@ -13422,7 +13571,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
       <c r="C238" s="3"/>
       <c r="D238" s="4"/>
@@ -13432,7 +13581,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
       <c r="C239" s="3"/>
       <c r="D239" s="4"/>
@@ -13442,7 +13591,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
       <c r="C240" s="11"/>
       <c r="D240" s="8">
@@ -13459,6 +13608,490 @@
         <v>84.06</v>
       </c>
     </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J242" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243" s="10">
+        <v>45624</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" s="4">
+        <v>20</v>
+      </c>
+      <c r="G243" s="3"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="4"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244" s="7"/>
+      <c r="C244" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D244" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="E244" t="s">
+        <v>26</v>
+      </c>
+      <c r="F244" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G244" s="3"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="4"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245" s="7"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="4"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246" s="7"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="4"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247" s="7"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="4"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248" s="6"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="8">
+        <f>SUM(D243:D247)</f>
+        <v>15.1</v>
+      </c>
+      <c r="E248" s="8"/>
+      <c r="F248" s="8"/>
+      <c r="G248" s="8"/>
+      <c r="H248" s="8"/>
+      <c r="I248" s="8"/>
+      <c r="J248" s="12">
+        <f>SUM(J243:J247,F243:F247,H243:H247)</f>
+        <v>38.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1DBB28-9DEE-43A9-8B9E-D89C096EED4E}">
+  <dimension ref="B2:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>45625</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="4">
+        <v>715</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="4">
+        <v>58.85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8">
+        <f>SUM(D3)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12">
+        <f>SUM(J3:J7,F3,H3)</f>
+        <v>3073.85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>45626</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="4">
+        <v>18.72</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8">
+        <f>SUM(D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12">
+        <f>SUM(J11:J15,F11,H11)</f>
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>45628</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="4">
+        <v>53.71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8">
+        <f>SUM(D19)</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="12">
+        <f>SUM(J19:J23,F19,H19)</f>
+        <v>55.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA082670-DDC3-4308-9609-41A08223028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C609601-8E80-4064-A35D-2309547EE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="170">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -536,6 +536,18 @@
   </si>
   <si>
     <t>roti boy</t>
+  </si>
+  <si>
+    <t>steam游戏</t>
+  </si>
+  <si>
+    <t>umobile</t>
+  </si>
+  <si>
+    <t>youtubeP</t>
+  </si>
+  <si>
+    <t>川菜</t>
   </si>
 </sst>
 </file>
@@ -10177,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
   <dimension ref="B2:M248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="B2:J8"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13731,15 +13743,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1DBB28-9DEE-43A9-8B9E-D89C096EED4E}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -13768,7 +13780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>45625</v>
       </c>
@@ -13792,7 +13804,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -13806,7 +13818,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -13820,7 +13832,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -13834,7 +13846,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -13844,7 +13856,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -13861,7 +13873,7 @@
         <v>3073.85</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -13889,8 +13901,14 @@
       <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>45626</v>
       </c>
@@ -13910,8 +13928,14 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="4">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -13925,8 +13949,14 @@
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" s="4">
+        <v>37.08</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -13935,8 +13965,14 @@
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="14">
+        <v>37.81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -13945,8 +13981,13 @@
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="11"/>
+      <c r="M14" s="12">
+        <f>SUM(M11:M13)</f>
+        <v>93.43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -13956,7 +13997,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -13973,7 +14014,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -14001,8 +14042,14 @@
       <c r="J18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>45628</v>
       </c>
@@ -14026,8 +14073,14 @@
       <c r="J19" s="4">
         <v>53.71</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="4">
+        <v>193.26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>165</v>
@@ -14038,10 +14091,16 @@
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="4">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="3" t="s">
         <v>87</v>
@@ -14054,8 +14113,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -14064,8 +14125,13 @@
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L22" s="11"/>
+      <c r="M22" s="12">
+        <f>SUM(M19:M21)</f>
+        <v>193.26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -14075,7 +14141,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -14089,7 +14155,662 @@
       <c r="I24" s="8"/>
       <c r="J24" s="12">
         <f>SUM(J19:J23,F19,H19)</f>
-        <v>55.71</v>
+        <v>255.71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>45629</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="4">
+        <v>41.9</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="L27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12">
+        <f>SUM(M27:M29)</f>
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8">
+        <f>SUM(D27)</f>
+        <v>11</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="12">
+        <f>SUM(J27:J31,F27,H27)</f>
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>45630</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8">
+        <f>SUM(D35)</f>
+        <v>10</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="12">
+        <f>SUM(J35:J39,F35,H35)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>45631</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" s="4">
+        <v>77.94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="4">
+        <v>38</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8">
+        <f>SUM(D43)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="12">
+        <f>SUM(J43:J47,F43,H43)</f>
+        <v>77.94</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>45632</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8">
+        <f>SUM(D51)</f>
+        <v>10</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="12">
+        <f>SUM(J51:J55,F51,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>45633</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="4">
+        <v>42.22</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="8">
+        <f>SUM(D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="12">
+        <f>SUM(J59:J63,F59,H59)</f>
+        <v>42.22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
+        <v>45634</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="8">
+        <f>SUM(D67)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="12">
+        <f>SUM(J67:J71,F67,H67)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C609601-8E80-4064-A35D-2309547EE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7FD2D-03EA-4B8D-A929-46FFAAE0EC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="176">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -548,6 +548,24 @@
   </si>
   <si>
     <t>川菜</t>
+  </si>
+  <si>
+    <t>Zrush</t>
+  </si>
+  <si>
+    <t>剪頭髮</t>
+  </si>
+  <si>
+    <t>牛肉麵</t>
+  </si>
+  <si>
+    <t>泰國餐</t>
+  </si>
+  <si>
+    <t>shopee</t>
+  </si>
+  <si>
+    <t>POE</t>
   </si>
 </sst>
 </file>
@@ -13743,10 +13761,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1DBB28-9DEE-43A9-8B9E-D89C096EED4E}">
-  <dimension ref="B2:M72"/>
+  <dimension ref="B2:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="P99" sqref="P99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14510,7 +14528,7 @@
         <v>77.94</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -14539,7 +14557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>45632</v>
       </c>
@@ -14555,7 +14573,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -14565,7 +14583,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -14575,7 +14593,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -14585,7 +14603,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -14595,7 +14613,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -14612,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -14640,8 +14658,14 @@
       <c r="J58" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>45633</v>
       </c>
@@ -14657,8 +14681,14 @@
       <c r="H59" s="4"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M59" s="4">
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -14667,8 +14697,10 @@
       <c r="H60" s="4"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L60" s="3"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -14677,8 +14709,10 @@
       <c r="H61" s="4"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L61" s="13"/>
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -14687,8 +14721,13 @@
       <c r="H62" s="4"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L62" s="11"/>
+      <c r="M62" s="12">
+        <f>SUM(M59:M61)</f>
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -14698,7 +14737,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -14715,7 +14754,7 @@
         <v>42.22</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -14743,20 +14782,37 @@
       <c r="J66" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>45634</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3.8</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M67" s="4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -14765,8 +14821,14 @@
       <c r="H68" s="4"/>
       <c r="I68" s="3"/>
       <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L68" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M68" s="4">
+        <v>142.78</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -14775,8 +14837,10 @@
       <c r="H69" s="4"/>
       <c r="I69" s="3"/>
       <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L69" s="13"/>
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -14785,8 +14849,13 @@
       <c r="H70" s="4"/>
       <c r="I70" s="3"/>
       <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L70" s="11"/>
+      <c r="M70" s="12">
+        <f>SUM(M67:M69)</f>
+        <v>561.78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -14796,7 +14865,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -14810,7 +14879,672 @@
       <c r="I72" s="8"/>
       <c r="J72" s="12">
         <f>SUM(J67:J71,F67,H67)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="10">
+        <v>45635</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="4">
+        <v>20.65</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="4">
+        <v>100</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H75" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="8">
+        <f>SUM(D75)</f>
+        <v>20.65</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="12">
+        <f>SUM(J75:J79,F75,H75)</f>
+        <v>108.63</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="10">
+        <v>45636</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="4">
+        <v>10</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J83" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="8">
+        <f>SUM(D83)</f>
+        <v>10</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="12">
+        <f>SUM(J83:J87,F83,H83)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="10">
+        <v>45637</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="8">
+        <f>SUM(D91)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="12">
+        <f>SUM(J91:J95,F91,H91)</f>
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="10">
+        <v>45638</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="4"/>
+      <c r="L99" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M99" s="4">
+        <v>40.33</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="4"/>
+      <c r="L100" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M100" s="4">
+        <v>40.33</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="14"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="12">
+        <f>SUM(M99:M101)</f>
+        <v>80.66</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="8">
+        <f>SUM(D99)</f>
         <v>0</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="12">
+        <f>SUM(J99:J103,F99,H99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="10">
+        <v>45639</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" s="4">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="4">
+        <v>100</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+      <c r="C108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="6"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="8">
+        <f>SUM(D107)</f>
+        <v>10</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="12">
+        <f>SUM(J107:J111,F107,H107)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="10">
+        <v>45640</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="7"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="7"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="8">
+        <f>SUM(D115)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="12">
+        <f>SUM(J115:J119,F115,H115)</f>
+        <v>30.3</v>
       </c>
     </row>
   </sheetData>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7FD2D-03EA-4B8D-A929-46FFAAE0EC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BAEB3D-CCFD-4655-A0A6-CA661EEF7EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="176">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -13761,10 +13761,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1DBB28-9DEE-43A9-8B9E-D89C096EED4E}">
-  <dimension ref="B2:M120"/>
+  <dimension ref="B2:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="P99" sqref="P99"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15547,6 +15547,108 @@
         <v>30.3</v>
       </c>
     </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="10">
+        <v>45641</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H123" s="4">
+        <v>134</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="7"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="7"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="8">
+        <f>SUM(D123)</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="12">
+        <f>SUM(J123:J127,F123,H123)</f>
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BAEB3D-CCFD-4655-A0A6-CA661EEF7EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7E1410-030B-4804-9C35-FC0B40F8C061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="178">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>POE</t>
+  </si>
+  <si>
+    <t>油站</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
   </si>
 </sst>
 </file>
@@ -782,9 +788,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -822,7 +828,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -928,7 +934,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1070,7 +1076,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1084,22 +1090,22 @@
       <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>45503</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -1167,7 +1173,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -1181,7 +1187,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -1195,7 +1201,7 @@
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -1209,7 +1215,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8">
@@ -1226,12 +1232,12 @@
         <v>2478.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="5"/>
       <c r="H10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>45504</v>
       </c>
@@ -1276,7 +1282,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -1290,7 +1296,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="11"/>
       <c r="D14" s="8">
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>45505</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="D18" s="4"/>
       <c r="F18" s="4"/>
@@ -1384,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
@@ -1400,7 +1406,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="11"/>
       <c r="D20" s="8">
@@ -1422,7 +1428,7 @@
         <v>297.95</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>45506</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="D24" s="4"/>
       <c r="F24" s="4"/>
@@ -1485,7 +1491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -1495,7 +1501,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
@@ -1509,7 +1515,7 @@
         <v>154.44999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>45507</v>
       </c>
@@ -1559,7 +1565,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
@@ -1577,7 +1583,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -1591,7 +1597,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8"/>
@@ -1605,7 +1611,7 @@
         <v>116.45</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45509</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>95.83</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>30</v>
@@ -1687,7 +1693,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -1699,7 +1705,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="11"/>
       <c r="D38" s="8">
@@ -1721,7 +1727,7 @@
         <v>143.03</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>2</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
         <v>45510</v>
       </c>
@@ -1767,7 +1773,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" t="s">
         <v>31</v>
@@ -1781,7 +1787,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>30</v>
@@ -1795,7 +1801,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="11"/>
       <c r="D44" s="8">
@@ -1812,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>2</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="10">
         <v>45511</v>
       </c>
@@ -1862,7 +1868,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
       <c r="D48" s="4"/>
       <c r="F48" s="4"/>
@@ -1871,7 +1877,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="D49" s="4"/>
       <c r="F49" s="4"/>
@@ -1880,7 +1886,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="11"/>
       <c r="D50" s="8">
@@ -1897,7 +1903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="10">
         <v>45512</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
       <c r="D54" s="4"/>
       <c r="F54" s="4"/>
@@ -1960,7 +1966,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="D55" s="4"/>
       <c r="F55" s="4"/>
@@ -1969,7 +1975,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -1986,7 +1992,7 @@
         <v>41.75</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45513</v>
       </c>
@@ -2035,7 +2041,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
       <c r="D60" s="4"/>
       <c r="F60" s="4"/>
@@ -2048,7 +2054,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="D61" s="4"/>
       <c r="F61" s="4"/>
@@ -2057,7 +2063,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="11"/>
       <c r="D62" s="8">
@@ -2074,7 +2080,7 @@
         <v>193.63</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="10">
         <v>45514</v>
       </c>
@@ -2120,7 +2126,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
       <c r="D66" s="4"/>
       <c r="F66" s="4"/>
@@ -2129,7 +2135,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
       <c r="D67" s="4"/>
       <c r="F67" s="4"/>
@@ -2138,7 +2144,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8">
@@ -2155,7 +2161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="10">
         <v>45515</v>
       </c>
@@ -2205,7 +2211,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="10"/>
       <c r="D72" s="4"/>
       <c r="F72" s="4"/>
@@ -2214,7 +2220,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
       <c r="D73" s="4"/>
       <c r="F73" s="4"/>
@@ -2223,7 +2229,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
       <c r="C74" s="11"/>
       <c r="D74" s="8">
@@ -2240,7 +2246,7 @@
         <v>54.849999999999994</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="10">
         <v>45516</v>
       </c>
@@ -2290,7 +2296,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="10"/>
       <c r="D78" s="4"/>
       <c r="F78" s="4"/>
@@ -2299,7 +2305,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="D79" s="4"/>
       <c r="F79" s="4"/>
@@ -2308,7 +2314,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -2325,7 +2331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <v>45517</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" t="s">
         <v>43</v>
@@ -2388,7 +2394,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="D85" s="4"/>
       <c r="F85" s="4"/>
@@ -2397,7 +2403,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
       <c r="C86" s="11"/>
       <c r="D86" s="8">
@@ -2414,7 +2420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="10">
         <v>45518</v>
       </c>
@@ -2459,7 +2465,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="10"/>
       <c r="C90" t="s">
         <v>44</v>
@@ -2473,7 +2479,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="7"/>
       <c r="D91" s="4"/>
       <c r="F91" s="4"/>
@@ -2482,7 +2488,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="6"/>
       <c r="C92" s="11"/>
       <c r="D92" s="8">
@@ -2499,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="10">
         <v>45519</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="10"/>
       <c r="C96" t="s">
         <v>47</v>
@@ -2567,7 +2573,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="D97" s="4"/>
       <c r="F97" s="4"/>
@@ -2576,7 +2582,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
       <c r="C98" s="11"/>
       <c r="D98" s="8">
@@ -2593,7 +2599,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
         <v>2</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="10">
         <v>45520</v>
       </c>
@@ -2642,7 +2648,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="10"/>
       <c r="D102" s="4"/>
       <c r="F102" s="4"/>
@@ -2651,7 +2657,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="D103" s="4"/>
       <c r="F103" s="4"/>
@@ -2660,7 +2666,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -2677,7 +2683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45521</v>
       </c>
@@ -2726,7 +2732,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="10"/>
       <c r="D108" s="4"/>
       <c r="F108" s="4"/>
@@ -2735,7 +2741,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="D109" s="4"/>
       <c r="F109" s="4"/>
@@ -2744,7 +2750,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="6"/>
       <c r="C110" s="11"/>
       <c r="D110" s="8">
@@ -2761,7 +2767,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="9" t="s">
         <v>2</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="10">
         <v>45522</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="10"/>
       <c r="D114" s="4"/>
       <c r="F114" s="4"/>
@@ -2834,7 +2840,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
       <c r="D115" s="4"/>
       <c r="F115" s="4"/>
@@ -2845,7 +2851,7 @@
       <c r="L115" s="13"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="6"/>
       <c r="C116" s="11"/>
       <c r="D116" s="8">
@@ -2867,7 +2873,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="9" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="10">
         <v>45523</v>
       </c>
@@ -2921,7 +2927,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="10"/>
       <c r="D120" s="4"/>
       <c r="F120" s="4"/>
@@ -2930,7 +2936,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
       <c r="D121" s="4"/>
       <c r="F121" s="4"/>
@@ -2939,7 +2945,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="6"/>
       <c r="C122" s="11"/>
       <c r="D122" s="8">
@@ -2956,7 +2962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="9" t="s">
         <v>2</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="10">
         <v>45524</v>
       </c>
@@ -3001,7 +3007,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="D126" s="4"/>
       <c r="F126" s="4"/>
@@ -3010,7 +3016,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="D127" s="4"/>
       <c r="F127" s="4"/>
@@ -3019,7 +3025,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -3036,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" s="10">
         <v>45525</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" s="10"/>
       <c r="D132" s="4"/>
       <c r="F132" s="4"/>
@@ -3099,7 +3105,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="D133" s="4"/>
       <c r="F133" s="4"/>
@@ -3108,7 +3114,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" s="6"/>
       <c r="C134" s="11"/>
       <c r="D134" s="8">
@@ -3125,7 +3131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" s="10">
         <v>45526</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" s="10"/>
       <c r="D138" s="4"/>
       <c r="F138" s="4"/>
@@ -3201,7 +3207,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" s="7"/>
       <c r="D139" s="4"/>
       <c r="F139" s="4"/>
@@ -3212,7 +3218,7 @@
       <c r="L139" s="13"/>
       <c r="M139" s="14"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" s="6"/>
       <c r="C140" s="11"/>
       <c r="D140" s="8">
@@ -3234,7 +3240,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" s="9" t="s">
         <v>2</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" s="10">
         <v>45527</v>
       </c>
@@ -3279,7 +3285,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" s="10"/>
       <c r="D144" s="4"/>
       <c r="F144" s="4"/>
@@ -3288,7 +3294,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="7"/>
       <c r="D145" s="4"/>
       <c r="F145" s="4"/>
@@ -3297,7 +3303,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="6"/>
       <c r="C146" s="11"/>
       <c r="D146" s="8">
@@ -3314,7 +3320,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="9" t="s">
         <v>2</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="10">
         <v>45529</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>426.91</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="10"/>
       <c r="D150" s="4"/>
       <c r="F150" s="4"/>
@@ -3387,7 +3393,7 @@
       <c r="L150" s="3"/>
       <c r="M150" s="4"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="D151" s="4"/>
       <c r="F151" s="4"/>
@@ -3398,7 +3404,7 @@
       <c r="L151" s="13"/>
       <c r="M151" s="14"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -3420,7 +3426,7 @@
         <v>426.91</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>45530</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="10"/>
       <c r="C156" t="s">
         <v>64</v>
@@ -3498,7 +3504,7 @@
       <c r="L156" s="3"/>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="D157" s="4"/>
       <c r="F157" s="4"/>
@@ -3509,7 +3515,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="6"/>
       <c r="C158" s="11"/>
       <c r="D158" s="8">
@@ -3531,7 +3537,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="9" t="s">
         <v>2</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="10">
         <v>45531</v>
       </c>
@@ -3580,7 +3586,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="10"/>
       <c r="D162" s="4"/>
       <c r="F162" s="4"/>
@@ -3589,7 +3595,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="7"/>
       <c r="D163" s="4"/>
       <c r="F163" s="4"/>
@@ -3598,7 +3604,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="6"/>
       <c r="C164" s="11"/>
       <c r="D164" s="8">
@@ -3628,12 +3634,12 @@
       <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45532</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -3705,7 +3711,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -3719,7 +3725,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -3729,7 +3735,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -3739,7 +3745,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -3756,7 +3762,7 @@
         <v>2109.9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>45533</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -3823,7 +3829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
         <v>71</v>
@@ -3837,7 +3843,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -3847,7 +3853,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -3857,7 +3863,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -3874,7 +3880,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>45534</v>
       </c>
@@ -3923,7 +3929,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -3933,7 +3939,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -3943,7 +3949,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -3953,7 +3959,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -3963,7 +3969,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -3980,7 +3986,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>45535</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -4039,7 +4045,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -4049,7 +4055,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -4059,7 +4065,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -4069,7 +4075,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -4086,7 +4092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45536</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -4160,7 +4166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -4172,7 +4178,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -4187,7 +4193,7 @@
         <v>167.27</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -4197,7 +4203,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -4214,7 +4220,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -4243,7 +4249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>45537</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="3" t="s">
         <v>15</v>
@@ -4291,7 +4297,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="3" t="s">
         <v>76</v>
@@ -4305,7 +4311,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -4315,7 +4321,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -4325,7 +4331,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -4342,7 +4348,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>45538</v>
       </c>
@@ -4396,7 +4402,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>15</v>
@@ -4414,7 +4420,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -4428,7 +4434,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -4438,7 +4444,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -4448,7 +4454,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -4465,7 +4471,7 @@
         <v>258.60000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45539</v>
       </c>
@@ -4514,7 +4520,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -4524,7 +4530,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -4534,7 +4540,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -4544,7 +4550,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -4554,7 +4560,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -4571,7 +4577,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <v>45540</v>
       </c>
@@ -4628,7 +4634,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -4640,7 +4646,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -4652,7 +4658,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -4667,7 +4673,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -4677,7 +4683,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -4694,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
         <v>2</v>
       </c>
@@ -4723,7 +4729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="10">
         <v>45541</v>
       </c>
@@ -4740,7 +4746,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -4750,7 +4756,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -4760,7 +4766,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -4770,7 +4776,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
@@ -4780,7 +4786,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
       <c r="C81" s="11"/>
       <c r="D81" s="8">
@@ -4797,7 +4803,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
         <v>2</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="10">
         <v>45542</v>
       </c>
@@ -4843,7 +4849,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -4853,7 +4859,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -4863,7 +4869,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -4873,7 +4879,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
@@ -4883,7 +4889,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="6"/>
       <c r="C89" s="11"/>
       <c r="D89" s="8">
@@ -4900,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>2</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="10">
         <v>45544</v>
       </c>
@@ -4961,7 +4967,7 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -4977,7 +4983,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -4989,7 +4995,7 @@
       <c r="L94" s="13"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -5004,7 +5010,7 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
@@ -5014,7 +5020,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="6"/>
       <c r="C97" s="11"/>
       <c r="D97" s="8">
@@ -5031,7 +5037,7 @@
         <v>13.530000000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
         <v>2</v>
       </c>
@@ -5060,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="10">
         <v>45545</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -5090,7 +5096,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -5100,7 +5106,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -5110,7 +5116,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
@@ -5120,7 +5126,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="6"/>
       <c r="C105" s="11"/>
       <c r="D105" s="8">
@@ -5137,7 +5143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>2</v>
       </c>
@@ -5166,7 +5172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="10">
         <v>45546</v>
       </c>
@@ -5182,7 +5188,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3" t="s">
         <v>87</v>
@@ -5196,7 +5202,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -5206,7 +5212,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -5216,7 +5222,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="3"/>
       <c r="D112" s="4"/>
@@ -5226,7 +5232,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="6"/>
       <c r="C113" s="11"/>
       <c r="D113" s="8">
@@ -5243,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="9" t="s">
         <v>2</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="10">
         <v>45547</v>
       </c>
@@ -5289,7 +5295,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -5304,7 +5310,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -5314,7 +5320,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -5324,7 +5330,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="7"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
@@ -5334,7 +5340,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="6"/>
       <c r="C121" s="11"/>
       <c r="D121" s="8">
@@ -5351,7 +5357,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="9" t="s">
         <v>2</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="10">
         <v>45549</v>
       </c>
@@ -5405,7 +5411,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -5415,7 +5421,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -5425,7 +5431,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -5435,7 +5441,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="7"/>
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
@@ -5445,7 +5451,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="6"/>
       <c r="C129" s="11"/>
       <c r="D129" s="8">
@@ -5462,7 +5468,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="9" t="s">
         <v>2</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="10">
         <v>45550</v>
       </c>
@@ -5511,7 +5517,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -5525,7 +5531,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -5535,7 +5541,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -5545,7 +5551,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="7"/>
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
@@ -5555,7 +5561,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="6"/>
       <c r="C137" s="11"/>
       <c r="D137" s="8">
@@ -5572,7 +5578,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="9" t="s">
         <v>2</v>
       </c>
@@ -5601,7 +5607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="10">
         <v>45551</v>
       </c>
@@ -5617,7 +5623,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -5627,7 +5633,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -5637,7 +5643,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -5647,7 +5653,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="7"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
@@ -5657,7 +5663,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="6"/>
       <c r="C145" s="11"/>
       <c r="D145" s="8">
@@ -5674,7 +5680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="9" t="s">
         <v>2</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="10">
         <v>45552</v>
       </c>
@@ -5736,7 +5742,7 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="3" t="s">
         <v>97</v>
@@ -5756,7 +5762,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -5768,7 +5774,7 @@
       <c r="L150" s="13"/>
       <c r="M150" s="14"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -5783,7 +5789,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
@@ -5793,7 +5799,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B153" s="6"/>
       <c r="C153" s="11"/>
       <c r="D153" s="8">
@@ -5810,7 +5816,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="9" t="s">
         <v>2</v>
       </c>
@@ -5839,7 +5845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="10">
         <v>45553</v>
       </c>
@@ -5856,7 +5862,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -5866,7 +5872,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -5876,7 +5882,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -5886,7 +5892,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="7"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
@@ -5896,7 +5902,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B161" s="6"/>
       <c r="C161" s="11"/>
       <c r="D161" s="8">
@@ -5913,7 +5919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="9" t="s">
         <v>2</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="10">
         <v>45554</v>
       </c>
@@ -5983,7 +5989,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="3" t="s">
         <v>92</v>
@@ -6003,7 +6009,7 @@
       <c r="L165" s="3"/>
       <c r="M165" s="4"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="3" t="s">
         <v>100</v>
@@ -6019,7 +6025,7 @@
       <c r="L166" s="13"/>
       <c r="M166" s="14"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -6034,7 +6040,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
       <c r="C168" s="3"/>
       <c r="D168" s="4"/>
@@ -6044,7 +6050,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B169" s="6"/>
       <c r="C169" s="11"/>
       <c r="D169" s="8">
@@ -6061,7 +6067,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="9" t="s">
         <v>2</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="10">
         <v>45555</v>
       </c>
@@ -6107,7 +6113,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
@@ -6122,7 +6128,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -6132,7 +6138,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -6142,7 +6148,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="7"/>
       <c r="C176" s="3"/>
       <c r="D176" s="4"/>
@@ -6152,7 +6158,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B177" s="6"/>
       <c r="C177" s="11"/>
       <c r="D177" s="8">
@@ -6169,7 +6175,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B179" s="9" t="s">
         <v>2</v>
       </c>
@@ -6198,7 +6204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B180" s="10">
         <v>45556</v>
       </c>
@@ -6215,7 +6221,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -6225,7 +6231,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -6235,7 +6241,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -6245,7 +6251,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B184" s="7"/>
       <c r="C184" s="3"/>
       <c r="D184" s="4"/>
@@ -6255,7 +6261,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B185" s="6"/>
       <c r="C185" s="11"/>
       <c r="D185" s="8">
@@ -6272,7 +6278,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B187" s="9" t="s">
         <v>2</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B188" s="10">
         <v>45558</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -6355,7 +6361,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -6367,7 +6373,7 @@
       <c r="L190" s="13"/>
       <c r="M190" s="14"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -6382,7 +6388,7 @@
         <v>177.85</v>
       </c>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B192" s="7"/>
       <c r="C192" s="3"/>
       <c r="D192" s="4"/>
@@ -6392,7 +6398,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193" s="6"/>
       <c r="C193" s="11"/>
       <c r="D193" s="8">
@@ -6409,7 +6415,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="9" t="s">
         <v>2</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="10">
         <v>45559</v>
       </c>
@@ -6454,7 +6460,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -6464,7 +6470,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -6474,7 +6480,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -6484,7 +6490,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200" s="7"/>
       <c r="C200" s="3"/>
       <c r="D200" s="4"/>
@@ -6494,7 +6500,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B201" s="6"/>
       <c r="C201" s="11"/>
       <c r="D201" s="8">
@@ -6511,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" s="9" t="s">
         <v>2</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" s="10">
         <v>45560</v>
       </c>
@@ -6556,7 +6562,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -6566,7 +6572,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -6576,7 +6582,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -6586,7 +6592,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B208" s="7"/>
       <c r="C208" s="3"/>
       <c r="D208" s="4"/>
@@ -6596,7 +6602,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B209" s="6"/>
       <c r="C209" s="11"/>
       <c r="D209" s="8">
@@ -6613,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B211" s="9" t="s">
         <v>2</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B212" s="10">
         <v>45561</v>
       </c>
@@ -6667,7 +6673,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="3" t="s">
         <v>103</v>
@@ -6686,7 +6692,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -6696,7 +6702,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -6706,7 +6712,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B216" s="7"/>
       <c r="C216" s="3"/>
       <c r="D216" s="4"/>
@@ -6720,7 +6726,7 @@
         <v>323.10000000000002</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B217" s="6"/>
       <c r="C217" s="11"/>
       <c r="D217" s="8">
@@ -6757,9 +6763,9 @@
       <selection activeCell="L66" sqref="L66:M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45562</v>
       </c>
@@ -6808,7 +6814,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -6822,7 +6828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -6836,7 +6842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -6846,7 +6852,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -6856,7 +6862,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -6873,7 +6879,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -6902,7 +6908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>45563</v>
       </c>
@@ -6923,7 +6929,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -6942,7 +6948,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -6952,7 +6958,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -6962,7 +6968,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -6972,7 +6978,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -6989,7 +6995,7 @@
         <v>418.34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -7018,7 +7024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>45564</v>
       </c>
@@ -7034,7 +7040,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -7044,7 +7050,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -7054,7 +7060,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -7064,7 +7070,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -7074,7 +7080,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -7091,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -7120,7 +7126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>45565</v>
       </c>
@@ -7136,7 +7142,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
         <v>108</v>
@@ -7150,7 +7156,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -7160,7 +7166,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -7170,7 +7176,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -7180,7 +7186,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -7197,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -7226,7 +7232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45566</v>
       </c>
@@ -7251,7 +7257,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
         <v>86</v>
@@ -7265,7 +7271,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -7275,7 +7281,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -7285,7 +7291,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -7295,7 +7301,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -7312,7 +7318,7 @@
         <v>355.4</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -7347,7 +7353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>45567</v>
       </c>
@@ -7374,7 +7380,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -7390,7 +7396,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -7402,7 +7408,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -7417,7 +7423,7 @@
         <v>54.059999999999995</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -7427,7 +7433,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -7444,7 +7450,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -7473,7 +7479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>45568</v>
       </c>
@@ -7493,7 +7499,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>64</v>
@@ -7507,7 +7513,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -7517,7 +7523,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -7527,7 +7533,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -7537,7 +7543,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -7554,7 +7560,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -7589,7 +7595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45569</v>
       </c>
@@ -7611,7 +7617,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -7627,7 +7633,7 @@
         <v>606.65</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -7639,7 +7645,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -7654,7 +7660,7 @@
         <v>687.25</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -7664,7 +7670,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -7681,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -7716,7 +7722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <v>45570</v>
       </c>
@@ -7742,7 +7748,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -7754,7 +7760,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -7766,7 +7772,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -7781,7 +7787,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -7791,7 +7797,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -7808,7 +7814,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -7837,7 +7843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="10">
         <v>45571</v>
       </c>
@@ -7854,7 +7860,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
@@ -7869,7 +7875,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -7879,7 +7885,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -7889,7 +7895,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -7899,7 +7905,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -7916,7 +7922,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -7945,7 +7951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <v>45572</v>
       </c>
@@ -7961,7 +7967,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
@@ -7971,7 +7977,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -7981,7 +7987,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -7991,7 +7997,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -8001,7 +8007,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -8018,7 +8024,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -8053,7 +8059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>45573</v>
       </c>
@@ -8084,7 +8090,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -8096,7 +8102,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -8108,7 +8114,7 @@
       <c r="L93" s="13"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -8123,7 +8129,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -8133,7 +8139,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -8150,7 +8156,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -8185,7 +8191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <v>45574</v>
       </c>
@@ -8207,7 +8213,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -8219,7 +8225,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -8231,7 +8237,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -8246,7 +8252,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -8256,7 +8262,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -8273,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -8302,7 +8308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45575</v>
       </c>
@@ -8327,7 +8333,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>118</v>
@@ -8341,7 +8347,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -8351,7 +8357,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -8361,7 +8367,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -8371,7 +8377,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -8388,7 +8394,7 @@
         <v>108.63</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -8417,7 +8423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="10">
         <v>45576</v>
       </c>
@@ -8442,7 +8448,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
@@ -8456,7 +8462,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -8466,7 +8472,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -8476,7 +8482,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -8486,7 +8492,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -8503,7 +8509,7 @@
         <v>158.65</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -8532,7 +8538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="10">
         <v>45577</v>
       </c>
@@ -8553,7 +8559,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
@@ -8563,7 +8569,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -8573,7 +8579,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -8583,7 +8589,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -8593,7 +8599,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -8610,7 +8616,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -8639,7 +8645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="10">
         <v>45579</v>
       </c>
@@ -8655,7 +8661,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
       <c r="C132" s="3" t="s">
         <v>14</v>
@@ -8669,7 +8675,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -8679,7 +8685,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -8689,7 +8695,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -8699,7 +8705,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -8716,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -8745,7 +8751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="10">
         <v>45580</v>
       </c>
@@ -8766,7 +8772,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
@@ -8776,7 +8782,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -8786,7 +8792,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -8796,7 +8802,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -8806,7 +8812,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -8823,7 +8829,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -8852,7 +8858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="10">
         <v>45581</v>
       </c>
@@ -8877,7 +8883,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
       <c r="C148" s="3" t="s">
         <v>15</v>
@@ -8891,7 +8897,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -8901,7 +8907,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -8911,7 +8917,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -8921,7 +8927,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -8938,7 +8944,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -8967,7 +8973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>45582</v>
       </c>
@@ -8988,7 +8994,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
       <c r="C156" s="3" t="s">
         <v>15</v>
@@ -9002,7 +9008,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -9012,7 +9018,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -9022,7 +9028,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -9032,7 +9038,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -9049,7 +9055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -9084,7 +9090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="10">
         <v>45583</v>
       </c>
@@ -9102,7 +9108,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
@@ -9118,7 +9124,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -9130,7 +9136,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -9145,7 +9151,7 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -9155,7 +9161,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -9172,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -9201,7 +9207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="10">
         <v>45584</v>
       </c>
@@ -9221,7 +9227,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
@@ -9235,7 +9241,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
@@ -9245,7 +9251,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -9255,7 +9261,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -9265,7 +9271,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8">
@@ -9282,7 +9288,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -9317,7 +9323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B179" s="10">
         <v>45586</v>
       </c>
@@ -9339,7 +9345,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -9351,7 +9357,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -9363,7 +9369,7 @@
       <c r="L181" s="13"/>
       <c r="M181" s="14"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -9378,7 +9384,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -9388,7 +9394,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -9405,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B187" s="10">
         <v>45587</v>
       </c>
@@ -9467,7 +9473,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
       <c r="C188" s="3" t="s">
         <v>64</v>
@@ -9483,7 +9489,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -9495,7 +9501,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -9510,7 +9516,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -9520,7 +9526,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -9537,7 +9543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -9572,7 +9578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B195" s="10">
         <v>45588</v>
       </c>
@@ -9603,7 +9609,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
       <c r="C196" s="3" t="s">
         <v>129</v>
@@ -9619,7 +9625,7 @@
       <c r="L196" s="3"/>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="3" t="s">
         <v>130</v>
@@ -9636,7 +9642,7 @@
       <c r="L197" s="13"/>
       <c r="M197" s="14"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -9651,7 +9657,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -9661,7 +9667,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -9678,7 +9684,7 @@
         <v>995.61</v>
       </c>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -9707,7 +9713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B203" s="10">
         <v>45588</v>
       </c>
@@ -9723,7 +9729,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -9733,7 +9739,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -9743,7 +9749,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -9753,7 +9759,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -9763,7 +9769,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -9780,7 +9786,7 @@
         <v>117.45</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
@@ -9809,7 +9815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B211" s="10">
         <v>45589</v>
       </c>
@@ -9825,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
       <c r="C212" s="3"/>
       <c r="D212" s="4"/>
@@ -9835,7 +9841,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -9845,7 +9851,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -9855,7 +9861,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -9865,7 +9871,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B216" s="6"/>
       <c r="C216" s="11"/>
       <c r="D216" s="8">
@@ -9882,7 +9888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
@@ -9911,7 +9917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B219" s="10">
         <v>45591</v>
       </c>
@@ -9928,7 +9934,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
       <c r="C220" s="3"/>
       <c r="D220" s="4"/>
@@ -9938,7 +9944,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -9948,7 +9954,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -9958,7 +9964,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -9968,7 +9974,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B224" s="6"/>
       <c r="C224" s="11"/>
       <c r="D224" s="8">
@@ -9985,7 +9991,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -10014,7 +10020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B227" s="10">
         <v>45592</v>
       </c>
@@ -10030,7 +10036,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
       <c r="C228" s="3"/>
       <c r="D228" s="4"/>
@@ -10040,7 +10046,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -10050,7 +10056,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -10060,7 +10066,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -10070,7 +10076,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B232" s="6"/>
       <c r="C232" s="11"/>
       <c r="D232" s="8">
@@ -10087,7 +10093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
@@ -10116,7 +10122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B235" s="10">
         <v>45593</v>
       </c>
@@ -10137,7 +10143,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
       <c r="C236" s="3" t="s">
         <v>15</v>
@@ -10151,7 +10157,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
       <c r="C237" s="3"/>
       <c r="D237" s="4"/>
@@ -10161,7 +10167,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
       <c r="C238" s="3"/>
       <c r="D238" s="4"/>
@@ -10171,7 +10177,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
       <c r="C239" s="3"/>
       <c r="D239" s="4"/>
@@ -10181,7 +10187,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B240" s="6"/>
       <c r="C240" s="11"/>
       <c r="D240" s="8">
@@ -10211,9 +10217,9 @@
       <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -10242,7 +10248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45593</v>
       </c>
@@ -10262,7 +10268,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -10276,7 +10282,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -10290,7 +10296,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -10304,7 +10310,7 @@
         <v>111.45</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -10318,7 +10324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -10335,7 +10341,7 @@
         <v>2966.45</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -10364,7 +10370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>45594</v>
       </c>
@@ -10380,7 +10386,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -10390,7 +10396,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -10400,7 +10406,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -10410,7 +10416,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -10420,7 +10426,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -10437,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -10466,7 +10472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>45595</v>
       </c>
@@ -10482,7 +10488,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>137</v>
@@ -10496,7 +10502,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -10506,7 +10512,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -10516,7 +10522,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -10526,7 +10532,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -10543,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -10572,7 +10578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>45596</v>
       </c>
@@ -10593,7 +10599,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -10603,7 +10609,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -10613,7 +10619,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -10623,7 +10629,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -10633,7 +10639,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -10650,7 +10656,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -10685,7 +10691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45597</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -10723,7 +10729,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -10735,7 +10741,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -10750,7 +10756,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -10760,7 +10766,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -10777,7 +10783,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -10812,7 +10818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>45598</v>
       </c>
@@ -10834,7 +10840,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -10846,7 +10852,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -10858,7 +10864,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -10873,7 +10879,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -10883,7 +10889,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -10900,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -10929,7 +10935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>45599</v>
       </c>
@@ -10949,7 +10955,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>15</v>
@@ -10963,7 +10969,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -10973,7 +10979,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -10983,7 +10989,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -10993,7 +10999,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -11010,7 +11016,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -11039,7 +11045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45600</v>
       </c>
@@ -11055,7 +11061,7 @@
         <v>439.7</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -11069,7 +11075,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -11079,7 +11085,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -11089,7 +11095,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -11099,7 +11105,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -11116,7 +11122,7 @@
         <v>1319.7</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -11145,7 +11151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <v>45601</v>
       </c>
@@ -11162,7 +11168,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -11177,7 +11183,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -11187,7 +11193,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -11197,7 +11203,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -11207,7 +11213,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -11224,7 +11230,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -11253,7 +11259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="10">
         <v>45602</v>
       </c>
@@ -11282,7 +11288,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="3" t="s">
         <v>144</v>
@@ -11296,7 +11302,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -11306,7 +11312,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -11316,7 +11322,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -11326,7 +11332,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -11343,7 +11349,7 @@
         <v>172.48</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -11372,7 +11378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <v>45603</v>
       </c>
@@ -11397,7 +11403,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -11415,7 +11421,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="3" t="s">
         <v>26</v>
@@ -11429,7 +11435,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -11439,7 +11445,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -11449,7 +11455,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -11466,7 +11472,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -11495,7 +11501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>45604</v>
       </c>
@@ -11512,7 +11518,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -11522,7 +11528,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -11532,7 +11538,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -11542,7 +11548,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -11552,7 +11558,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -11569,7 +11575,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -11598,7 +11604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <v>45605</v>
       </c>
@@ -11615,7 +11621,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -11630,7 +11636,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -11640,7 +11646,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -11650,7 +11656,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -11660,7 +11666,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -11677,7 +11683,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -11706,7 +11712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45606</v>
       </c>
@@ -11727,7 +11733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
@@ -11742,7 +11748,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -11752,7 +11758,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -11762,7 +11768,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -11772,7 +11778,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -11789,7 +11795,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -11818,7 +11824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="10">
         <v>45607</v>
       </c>
@@ -11839,7 +11845,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="3" t="s">
         <v>64</v>
@@ -11853,7 +11859,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -11863,7 +11869,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -11873,7 +11879,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -11883,7 +11889,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -11900,7 +11906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -11929,7 +11935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="10">
         <v>45608</v>
       </c>
@@ -11954,7 +11960,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
       <c r="C124" s="3" t="s">
         <v>15</v>
@@ -11968,7 +11974,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -11978,7 +11984,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -11988,7 +11994,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -11998,7 +12004,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -12015,7 +12021,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -12044,7 +12050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="10">
         <v>45609</v>
       </c>
@@ -12060,7 +12066,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
       <c r="C132" s="3" t="s">
         <v>15</v>
@@ -12074,7 +12080,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -12084,7 +12090,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -12094,7 +12100,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -12104,7 +12110,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -12121,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="10">
         <v>45610</v>
       </c>
@@ -12166,7 +12172,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="3" t="s">
         <v>152</v>
@@ -12180,7 +12186,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
       <c r="C141" s="3" t="s">
         <v>153</v>
@@ -12194,7 +12200,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -12204,7 +12210,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -12214,7 +12220,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -12231,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -12260,7 +12266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="10">
         <v>45611</v>
       </c>
@@ -12276,7 +12282,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
@@ -12286,7 +12292,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -12296,7 +12302,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -12306,7 +12312,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -12316,7 +12322,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -12333,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -12368,7 +12374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>45612</v>
       </c>
@@ -12390,7 +12396,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
@@ -12402,7 +12408,7 @@
       <c r="L156" s="3"/>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -12414,7 +12420,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -12429,7 +12435,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -12439,7 +12445,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -12456,7 +12462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -12491,7 +12497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="10">
         <v>45613</v>
       </c>
@@ -12514,7 +12520,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
@@ -12526,7 +12532,7 @@
       <c r="L164" s="3"/>
       <c r="M164" s="4"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -12538,7 +12544,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -12553,7 +12559,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -12563,7 +12569,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -12580,7 +12586,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -12615,7 +12621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="10">
         <v>45614</v>
       </c>
@@ -12642,7 +12648,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
       <c r="C172" s="3" t="s">
         <v>15</v>
@@ -12662,7 +12668,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="3" t="s">
         <v>153</v>
@@ -12678,7 +12684,7 @@
       <c r="L173" s="13"/>
       <c r="M173" s="14"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -12693,7 +12699,7 @@
         <v>60.11</v>
       </c>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -12703,7 +12709,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8">
@@ -12720,7 +12726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -12749,7 +12755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B179" s="10">
         <v>45615</v>
       </c>
@@ -12769,7 +12775,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -12779,7 +12785,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -12789,7 +12795,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -12799,7 +12805,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -12809,7 +12815,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -12826,7 +12832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -12861,7 +12867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B187" s="10">
         <v>45616</v>
       </c>
@@ -12883,7 +12889,7 @@
         <v>341.74</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
       <c r="C188" s="3"/>
       <c r="D188" s="4"/>
@@ -12895,7 +12901,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -12907,7 +12913,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -12922,7 +12928,7 @@
         <v>341.74</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -12932,7 +12938,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -12949,7 +12955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -12978,7 +12984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B195" s="10">
         <v>45617</v>
       </c>
@@ -13003,7 +13009,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
       <c r="C196" s="3"/>
       <c r="D196" s="4"/>
@@ -13013,7 +13019,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -13023,7 +13029,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -13033,7 +13039,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -13043,7 +13049,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -13060,7 +13066,7 @@
         <v>104.9</v>
       </c>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -13095,7 +13101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B203" s="10">
         <v>45618</v>
       </c>
@@ -13122,7 +13128,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -13134,7 +13140,7 @@
       <c r="L204" s="3"/>
       <c r="M204" s="4"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -13146,7 +13152,7 @@
       <c r="L205" s="13"/>
       <c r="M205" s="14"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -13161,7 +13167,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -13171,7 +13177,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -13188,7 +13194,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
@@ -13217,7 +13223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B211" s="10">
         <v>45620</v>
       </c>
@@ -13233,7 +13239,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
       <c r="C212" s="3"/>
       <c r="D212" s="4"/>
@@ -13243,7 +13249,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -13253,7 +13259,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -13263,7 +13269,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -13273,7 +13279,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B216" s="6"/>
       <c r="C216" s="11"/>
       <c r="D216" s="8">
@@ -13290,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
@@ -13319,7 +13325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B219" s="10">
         <v>45621</v>
       </c>
@@ -13335,7 +13341,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
       <c r="C220" s="3" t="s">
         <v>100</v>
@@ -13349,7 +13355,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -13359,7 +13365,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -13369,7 +13375,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -13379,7 +13385,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B224" s="6"/>
       <c r="C224" s="11"/>
       <c r="D224" s="8">
@@ -13396,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -13431,7 +13437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B227" s="10">
         <v>45622</v>
       </c>
@@ -13458,7 +13464,7 @@
         <v>47.54</v>
       </c>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
       <c r="C228" s="3" t="s">
         <v>79</v>
@@ -13474,7 +13480,7 @@
       <c r="L228" s="3"/>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -13486,7 +13492,7 @@
       <c r="L229" s="13"/>
       <c r="M229" s="14"/>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -13501,7 +13507,7 @@
         <v>47.54</v>
       </c>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -13511,7 +13517,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B232" s="6"/>
       <c r="C232" s="11"/>
       <c r="D232" s="8">
@@ -13528,7 +13534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
@@ -13557,7 +13563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B235" s="10">
         <v>45623</v>
       </c>
@@ -13581,7 +13587,7 @@
         <v>74.06</v>
       </c>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
       <c r="C236" s="3"/>
       <c r="D236" s="4"/>
@@ -13591,7 +13597,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
       <c r="C237" s="3"/>
       <c r="D237" s="4"/>
@@ -13601,7 +13607,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
       <c r="C238" s="3"/>
       <c r="D238" s="4"/>
@@ -13611,7 +13617,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
       <c r="C239" s="3"/>
       <c r="D239" s="4"/>
@@ -13621,7 +13627,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B240" s="6"/>
       <c r="C240" s="11"/>
       <c r="D240" s="8">
@@ -13638,7 +13644,7 @@
         <v>84.06</v>
       </c>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B242" s="9" t="s">
         <v>2</v>
       </c>
@@ -13667,7 +13673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B243" s="10">
         <v>45624</v>
       </c>
@@ -13688,7 +13694,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B244" s="7"/>
       <c r="C244" s="3" t="s">
         <v>160</v>
@@ -13707,7 +13713,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B245" s="7"/>
       <c r="C245" s="3"/>
       <c r="D245" s="4"/>
@@ -13717,7 +13723,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B246" s="7"/>
       <c r="C246" s="3"/>
       <c r="D246" s="4"/>
@@ -13727,7 +13733,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B247" s="7"/>
       <c r="C247" s="3"/>
       <c r="D247" s="4"/>
@@ -13737,7 +13743,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B248" s="6"/>
       <c r="C248" s="11"/>
       <c r="D248" s="8">
@@ -13761,15 +13767,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1DBB28-9DEE-43A9-8B9E-D89C096EED4E}">
-  <dimension ref="B2:M128"/>
+  <dimension ref="B2:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="U141" sqref="U141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45625</v>
       </c>
@@ -13822,7 +13828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -13836,7 +13842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -13850,7 +13856,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -13864,7 +13870,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -13874,7 +13880,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -13891,7 +13897,7 @@
         <v>3073.85</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -13926,7 +13932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>45626</v>
       </c>
@@ -13953,7 +13959,7 @@
         <v>18.54</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -13974,7 +13980,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -13990,7 +13996,7 @@
         <v>37.81</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -14005,7 +14011,7 @@
         <v>93.43</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -14015,7 +14021,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -14032,7 +14038,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -14067,7 +14073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>45628</v>
       </c>
@@ -14098,7 +14104,7 @@
         <v>193.26</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>165</v>
@@ -14118,7 +14124,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="3" t="s">
         <v>87</v>
@@ -14134,7 +14140,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -14149,7 +14155,7 @@
         <v>193.26</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -14159,7 +14165,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -14176,7 +14182,7 @@
         <v>255.71</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -14211,7 +14217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>45629</v>
       </c>
@@ -14237,7 +14243,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -14249,7 +14255,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -14261,7 +14267,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -14276,7 +14282,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -14286,7 +14292,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -14303,7 +14309,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -14332,7 +14338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45630</v>
       </c>
@@ -14353,7 +14359,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
         <v>15</v>
@@ -14367,7 +14373,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3" t="s">
         <v>15</v>
@@ -14381,7 +14387,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -14391,7 +14397,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -14401,7 +14407,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -14418,7 +14424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -14447,7 +14453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>45631</v>
       </c>
@@ -14467,7 +14473,7 @@
         <v>77.94</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="3" t="s">
         <v>169</v>
@@ -14481,7 +14487,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -14491,7 +14497,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -14501,7 +14507,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -14511,7 +14517,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -14528,7 +14534,7 @@
         <v>77.94</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -14557,7 +14563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>45632</v>
       </c>
@@ -14573,7 +14579,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -14583,7 +14589,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -14593,7 +14599,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -14603,7 +14609,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -14613,7 +14619,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -14630,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -14665,7 +14671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45633</v>
       </c>
@@ -14688,7 +14694,7 @@
         <v>130.12</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -14700,7 +14706,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -14712,7 +14718,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -14727,7 +14733,7 @@
         <v>130.12</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -14737,7 +14743,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -14754,7 +14760,7 @@
         <v>42.22</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -14789,7 +14795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <v>45634</v>
       </c>
@@ -14812,7 +14818,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -14828,7 +14834,7 @@
         <v>142.78</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -14840,7 +14846,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -14855,7 +14861,7 @@
         <v>561.78</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -14865,7 +14871,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -14882,7 +14888,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -14911,7 +14917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="10">
         <v>45635</v>
       </c>
@@ -14936,7 +14942,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
@@ -14946,7 +14952,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -14956,7 +14962,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -14966,7 +14972,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -14976,7 +14982,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -14993,7 +14999,7 @@
         <v>108.63</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -15022,7 +15028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <v>45636</v>
       </c>
@@ -15042,7 +15048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -15056,7 +15062,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -15066,7 +15072,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -15076,7 +15082,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -15086,7 +15092,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -15103,7 +15109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -15132,7 +15138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>45637</v>
       </c>
@@ -15153,7 +15159,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -15163,7 +15169,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -15173,7 +15179,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -15183,7 +15189,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -15193,7 +15199,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -15210,7 +15216,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -15245,7 +15251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <v>45638</v>
       </c>
@@ -15263,7 +15269,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -15279,7 +15285,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -15291,7 +15297,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -15306,7 +15312,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -15316,7 +15322,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -15333,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -15362,7 +15368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45639</v>
       </c>
@@ -15383,7 +15389,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>15</v>
@@ -15397,7 +15403,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -15407,7 +15413,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -15417,7 +15423,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -15427,7 +15433,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -15444,7 +15450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -15473,7 +15479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="10">
         <v>45640</v>
       </c>
@@ -15490,7 +15496,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
@@ -15500,7 +15506,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -15510,7 +15516,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -15520,7 +15526,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -15530,7 +15536,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -15547,7 +15553,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -15576,7 +15582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="10">
         <v>45641</v>
       </c>
@@ -15592,7 +15598,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
@@ -15602,7 +15608,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -15612,7 +15618,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -15622,7 +15628,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -15632,7 +15638,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -15649,6 +15655,324 @@
         <v>134</v>
       </c>
     </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" s="10">
+        <v>45642</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D131" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H131" s="4">
+        <v>20</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" s="7"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H132" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" s="7"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134" s="7"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" s="7"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" s="6"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="8">
+        <f>SUM(D131)</f>
+        <v>14.9</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="12">
+        <f>SUM(J131:J135,F131,H131)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" s="10">
+        <v>45643</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J139" s="4">
+        <v>80.38</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" s="7"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" s="7"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" s="7"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143" s="7"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" s="6"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="8">
+        <f>SUM(D139)</f>
+        <v>24.8</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="12">
+        <f>SUM(J139:J143,F139,H139)</f>
+        <v>80.38</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B147" s="10">
+        <v>45644</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H147" s="4">
+        <v>104.7</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B148" s="7"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B149" s="7"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" s="7"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151" s="7"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152" s="6"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="8">
+        <f>SUM(D147)</f>
+        <v>0</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="12">
+        <f>SUM(J147:J151,F147,H147)</f>
+        <v>104.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7E1410-030B-4804-9C35-FC0B40F8C061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A6FD5-7249-4BC9-AFD8-F7D308B07344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="183">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -572,6 +572,21 @@
   </si>
   <si>
     <t>ZZZ</t>
+  </si>
+  <si>
+    <t>Shopee</t>
+  </si>
+  <si>
+    <t>Youtube p</t>
+  </si>
+  <si>
+    <t>洗車</t>
+  </si>
+  <si>
+    <t>站雙</t>
+  </si>
+  <si>
+    <t>汽水</t>
   </si>
 </sst>
 </file>
@@ -788,9 +803,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -828,7 +843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -934,7 +949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1076,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1090,22 +1105,22 @@
       <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>45503</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -1173,7 +1188,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -1187,7 +1202,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -1201,7 +1216,7 @@
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -1215,7 +1230,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8">
@@ -1232,12 +1247,12 @@
         <v>2478.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="H10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>45504</v>
       </c>
@@ -1282,7 +1297,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -1296,7 +1311,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="11"/>
       <c r="D14" s="8">
@@ -1313,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>45505</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="D18" s="4"/>
       <c r="F18" s="4"/>
@@ -1390,7 +1405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
@@ -1406,7 +1421,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="11"/>
       <c r="D20" s="8">
@@ -1428,7 +1443,7 @@
         <v>297.95</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>45506</v>
       </c>
@@ -1478,7 +1493,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="D24" s="4"/>
       <c r="F24" s="4"/>
@@ -1491,7 +1506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -1501,7 +1516,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
@@ -1515,7 +1530,7 @@
         <v>154.44999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>45507</v>
       </c>
@@ -1565,7 +1580,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
@@ -1583,7 +1598,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -1597,7 +1612,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8"/>
@@ -1611,7 +1626,7 @@
         <v>116.45</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>45509</v>
       </c>
@@ -1673,7 +1688,7 @@
         <v>95.83</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>30</v>
@@ -1693,7 +1708,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -1705,7 +1720,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="11"/>
       <c r="D38" s="8">
@@ -1727,7 +1742,7 @@
         <v>143.03</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>2</v>
       </c>
@@ -1756,7 +1771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>45510</v>
       </c>
@@ -1773,7 +1788,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" t="s">
         <v>31</v>
@@ -1787,7 +1802,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>30</v>
@@ -1801,7 +1816,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="11"/>
       <c r="D44" s="8">
@@ -1818,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>2</v>
       </c>
@@ -1847,7 +1862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
         <v>45511</v>
       </c>
@@ -1868,7 +1883,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="D48" s="4"/>
       <c r="F48" s="4"/>
@@ -1877,7 +1892,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="D49" s="4"/>
       <c r="F49" s="4"/>
@@ -1886,7 +1901,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="11"/>
       <c r="D50" s="8">
@@ -1903,7 +1918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>2</v>
       </c>
@@ -1932,7 +1947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
         <v>45512</v>
       </c>
@@ -1957,7 +1972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="D54" s="4"/>
       <c r="F54" s="4"/>
@@ -1966,7 +1981,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="D55" s="4"/>
       <c r="F55" s="4"/>
@@ -1975,7 +1990,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -1992,7 +2007,7 @@
         <v>41.75</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>45513</v>
       </c>
@@ -2041,7 +2056,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="D60" s="4"/>
       <c r="F60" s="4"/>
@@ -2054,7 +2069,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="D61" s="4"/>
       <c r="F61" s="4"/>
@@ -2063,7 +2078,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="11"/>
       <c r="D62" s="8">
@@ -2080,7 +2095,7 @@
         <v>193.63</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>2</v>
       </c>
@@ -2109,7 +2124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
         <v>45514</v>
       </c>
@@ -2126,7 +2141,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
       <c r="D66" s="4"/>
       <c r="F66" s="4"/>
@@ -2135,7 +2150,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="D67" s="4"/>
       <c r="F67" s="4"/>
@@ -2144,7 +2159,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8">
@@ -2161,7 +2176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>2</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="10">
         <v>45515</v>
       </c>
@@ -2211,7 +2226,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="D72" s="4"/>
       <c r="F72" s="4"/>
@@ -2220,7 +2235,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
       <c r="D73" s="4"/>
       <c r="F73" s="4"/>
@@ -2229,7 +2244,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="11"/>
       <c r="D74" s="8">
@@ -2246,7 +2261,7 @@
         <v>54.849999999999994</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>2</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="10">
         <v>45516</v>
       </c>
@@ -2296,7 +2311,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
       <c r="D78" s="4"/>
       <c r="F78" s="4"/>
@@ -2305,7 +2320,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="D79" s="4"/>
       <c r="F79" s="4"/>
@@ -2314,7 +2329,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -2331,7 +2346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>45517</v>
       </c>
@@ -2380,7 +2395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
       <c r="C84" t="s">
         <v>43</v>
@@ -2394,7 +2409,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="D85" s="4"/>
       <c r="F85" s="4"/>
@@ -2403,7 +2418,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="11"/>
       <c r="D86" s="8">
@@ -2420,7 +2435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
@@ -2449,7 +2464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="10">
         <v>45518</v>
       </c>
@@ -2465,7 +2480,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="10"/>
       <c r="C90" t="s">
         <v>44</v>
@@ -2479,7 +2494,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="D91" s="4"/>
       <c r="F91" s="4"/>
@@ -2488,7 +2503,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="11"/>
       <c r="D92" s="8">
@@ -2505,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>2</v>
       </c>
@@ -2534,7 +2549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="10">
         <v>45519</v>
       </c>
@@ -2559,7 +2574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="10"/>
       <c r="C96" t="s">
         <v>47</v>
@@ -2573,7 +2588,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="D97" s="4"/>
       <c r="F97" s="4"/>
@@ -2582,7 +2597,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="11"/>
       <c r="D98" s="8">
@@ -2599,7 +2614,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
         <v>2</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="10">
         <v>45520</v>
       </c>
@@ -2648,7 +2663,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="D102" s="4"/>
       <c r="F102" s="4"/>
@@ -2657,7 +2672,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="D103" s="4"/>
       <c r="F103" s="4"/>
@@ -2666,7 +2681,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -2683,7 +2698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -2712,7 +2727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
         <v>45521</v>
       </c>
@@ -2732,7 +2747,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="D108" s="4"/>
       <c r="F108" s="4"/>
@@ -2741,7 +2756,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="D109" s="4"/>
       <c r="F109" s="4"/>
@@ -2750,7 +2765,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="11"/>
       <c r="D110" s="8">
@@ -2767,7 +2782,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
         <v>2</v>
       </c>
@@ -2802,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="10">
         <v>45522</v>
       </c>
@@ -2829,7 +2844,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="10"/>
       <c r="D114" s="4"/>
       <c r="F114" s="4"/>
@@ -2840,7 +2855,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
       <c r="D115" s="4"/>
       <c r="F115" s="4"/>
@@ -2851,7 +2866,7 @@
       <c r="L115" s="13"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="11"/>
       <c r="D116" s="8">
@@ -2873,7 +2888,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
         <v>2</v>
       </c>
@@ -2902,7 +2917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="10">
         <v>45523</v>
       </c>
@@ -2927,7 +2942,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="10"/>
       <c r="D120" s="4"/>
       <c r="F120" s="4"/>
@@ -2936,7 +2951,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
       <c r="D121" s="4"/>
       <c r="F121" s="4"/>
@@ -2945,7 +2960,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="11"/>
       <c r="D122" s="8">
@@ -2962,7 +2977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
         <v>2</v>
       </c>
@@ -2991,7 +3006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="10">
         <v>45524</v>
       </c>
@@ -3007,7 +3022,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="10"/>
       <c r="D126" s="4"/>
       <c r="F126" s="4"/>
@@ -3016,7 +3031,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
       <c r="D127" s="4"/>
       <c r="F127" s="4"/>
@@ -3025,7 +3040,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -3042,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -3071,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="10">
         <v>45525</v>
       </c>
@@ -3096,7 +3111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
       <c r="D132" s="4"/>
       <c r="F132" s="4"/>
@@ -3105,7 +3120,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="D133" s="4"/>
       <c r="F133" s="4"/>
@@ -3114,7 +3129,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="11"/>
       <c r="D134" s="8">
@@ -3131,7 +3146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
@@ -3166,7 +3181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="10">
         <v>45526</v>
       </c>
@@ -3192,7 +3207,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="10"/>
       <c r="D138" s="4"/>
       <c r="F138" s="4"/>
@@ -3207,7 +3222,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="D139" s="4"/>
       <c r="F139" s="4"/>
@@ -3218,7 +3233,7 @@
       <c r="L139" s="13"/>
       <c r="M139" s="14"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="11"/>
       <c r="D140" s="8">
@@ -3240,7 +3255,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
         <v>2</v>
       </c>
@@ -3269,7 +3284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="10">
         <v>45527</v>
       </c>
@@ -3285,7 +3300,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="10"/>
       <c r="D144" s="4"/>
       <c r="F144" s="4"/>
@@ -3294,7 +3309,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="D145" s="4"/>
       <c r="F145" s="4"/>
@@ -3303,7 +3318,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="11"/>
       <c r="D146" s="8">
@@ -3320,7 +3335,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +3370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="10">
         <v>45529</v>
       </c>
@@ -3382,7 +3397,7 @@
         <v>426.91</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="10"/>
       <c r="D150" s="4"/>
       <c r="F150" s="4"/>
@@ -3393,7 +3408,7 @@
       <c r="L150" s="3"/>
       <c r="M150" s="4"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="D151" s="4"/>
       <c r="F151" s="4"/>
@@ -3404,7 +3419,7 @@
       <c r="L151" s="13"/>
       <c r="M151" s="14"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -3426,7 +3441,7 @@
         <v>426.91</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -3461,7 +3476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="10">
         <v>45530</v>
       </c>
@@ -3488,7 +3503,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="10"/>
       <c r="C156" t="s">
         <v>64</v>
@@ -3504,7 +3519,7 @@
       <c r="L156" s="3"/>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="D157" s="4"/>
       <c r="F157" s="4"/>
@@ -3515,7 +3530,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="11"/>
       <c r="D158" s="8">
@@ -3537,7 +3552,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="9" t="s">
         <v>2</v>
       </c>
@@ -3566,7 +3581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="10">
         <v>45531</v>
       </c>
@@ -3586,7 +3601,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="10"/>
       <c r="D162" s="4"/>
       <c r="F162" s="4"/>
@@ -3595,7 +3610,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
       <c r="D163" s="4"/>
       <c r="F163" s="4"/>
@@ -3604,7 +3619,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
       <c r="C164" s="11"/>
       <c r="D164" s="8">
@@ -3634,12 +3649,12 @@
       <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3668,7 +3683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>45532</v>
       </c>
@@ -3697,7 +3712,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -3711,7 +3726,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -3725,7 +3740,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -3735,7 +3750,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -3745,7 +3760,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -3762,7 +3777,7 @@
         <v>2109.9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3791,7 +3806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>45533</v>
       </c>
@@ -3811,7 +3826,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -3829,7 +3844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
         <v>71</v>
@@ -3843,7 +3858,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -3853,7 +3868,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -3863,7 +3878,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -3880,7 +3895,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -3909,7 +3924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>45534</v>
       </c>
@@ -3929,7 +3944,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -3939,7 +3954,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -3949,7 +3964,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -3959,7 +3974,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -3969,7 +3984,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -3986,7 +4001,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -4015,7 +4030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>45535</v>
       </c>
@@ -4035,7 +4050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -4045,7 +4060,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -4055,7 +4070,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -4065,7 +4080,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -4075,7 +4090,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -4092,7 +4107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -4127,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>45536</v>
       </c>
@@ -4150,7 +4165,7 @@
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -4166,7 +4181,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -4178,7 +4193,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -4193,7 +4208,7 @@
         <v>167.27</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -4203,7 +4218,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -4220,7 +4235,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>45537</v>
       </c>
@@ -4278,7 +4293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="3" t="s">
         <v>15</v>
@@ -4297,7 +4312,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="3" t="s">
         <v>76</v>
@@ -4311,7 +4326,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -4321,7 +4336,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -4331,7 +4346,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -4348,7 +4363,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -4377,7 +4392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>45538</v>
       </c>
@@ -4402,7 +4417,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>15</v>
@@ -4420,7 +4435,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -4434,7 +4449,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -4444,7 +4459,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -4454,7 +4469,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -4471,7 +4486,7 @@
         <v>258.60000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -4500,7 +4515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>45539</v>
       </c>
@@ -4520,7 +4535,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -4530,7 +4545,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -4540,7 +4555,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -4550,7 +4565,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -4560,7 +4575,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -4577,7 +4592,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -4612,7 +4627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>45540</v>
       </c>
@@ -4634,7 +4649,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -4646,7 +4661,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -4658,7 +4673,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -4673,7 +4688,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -4683,7 +4698,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -4700,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>2</v>
       </c>
@@ -4729,7 +4744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="10">
         <v>45541</v>
       </c>
@@ -4746,7 +4761,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -4756,7 +4771,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -4766,7 +4781,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -4776,7 +4791,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
@@ -4786,7 +4801,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="11"/>
       <c r="D81" s="8">
@@ -4803,7 +4818,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>2</v>
       </c>
@@ -4832,7 +4847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="10">
         <v>45542</v>
       </c>
@@ -4849,7 +4864,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -4859,7 +4874,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -4869,7 +4884,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -4879,7 +4894,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
@@ -4889,7 +4904,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="11"/>
       <c r="D89" s="8">
@@ -4906,7 +4921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>2</v>
       </c>
@@ -4941,7 +4956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="10">
         <v>45544</v>
       </c>
@@ -4967,7 +4982,7 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -4983,7 +4998,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -4995,7 +5010,7 @@
       <c r="L94" s="13"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -5010,7 +5025,7 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
@@ -5020,7 +5035,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="11"/>
       <c r="D97" s="8">
@@ -5037,7 +5052,7 @@
         <v>13.530000000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
         <v>2</v>
       </c>
@@ -5066,7 +5081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="10">
         <v>45545</v>
       </c>
@@ -5086,7 +5101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -5096,7 +5111,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -5106,7 +5121,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -5116,7 +5131,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
@@ -5126,7 +5141,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="11"/>
       <c r="D105" s="8">
@@ -5143,7 +5158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
         <v>2</v>
       </c>
@@ -5172,7 +5187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="10">
         <v>45546</v>
       </c>
@@ -5188,7 +5203,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="3" t="s">
         <v>87</v>
@@ -5202,7 +5217,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -5212,7 +5227,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -5222,7 +5237,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" s="3"/>
       <c r="D112" s="4"/>
@@ -5232,7 +5247,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="11"/>
       <c r="D113" s="8">
@@ -5249,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
         <v>2</v>
       </c>
@@ -5278,7 +5293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="10">
         <v>45547</v>
       </c>
@@ -5295,7 +5310,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -5310,7 +5325,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -5320,7 +5335,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -5330,7 +5345,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
@@ -5340,7 +5355,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="11"/>
       <c r="D121" s="8">
@@ -5357,7 +5372,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>2</v>
       </c>
@@ -5386,7 +5401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="10">
         <v>45549</v>
       </c>
@@ -5411,7 +5426,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -5421,7 +5436,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -5431,7 +5446,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -5441,7 +5456,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
@@ -5451,7 +5466,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="11"/>
       <c r="D129" s="8">
@@ -5468,7 +5483,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="9" t="s">
         <v>2</v>
       </c>
@@ -5497,7 +5512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="10">
         <v>45550</v>
       </c>
@@ -5517,7 +5532,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -5531,7 +5546,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -5541,7 +5556,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -5551,7 +5566,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
@@ -5561,7 +5576,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="11"/>
       <c r="D137" s="8">
@@ -5578,7 +5593,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="9" t="s">
         <v>2</v>
       </c>
@@ -5607,7 +5622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="10">
         <v>45551</v>
       </c>
@@ -5623,7 +5638,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -5633,7 +5648,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -5643,7 +5658,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -5653,7 +5668,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
@@ -5663,7 +5678,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="11"/>
       <c r="D145" s="8">
@@ -5680,7 +5695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="9" t="s">
         <v>2</v>
       </c>
@@ -5715,7 +5730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="10">
         <v>45552</v>
       </c>
@@ -5742,7 +5757,7 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" s="3" t="s">
         <v>97</v>
@@ -5762,7 +5777,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -5774,7 +5789,7 @@
       <c r="L150" s="13"/>
       <c r="M150" s="14"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -5789,7 +5804,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
@@ -5799,7 +5814,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="11"/>
       <c r="D153" s="8">
@@ -5816,7 +5831,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="9" t="s">
         <v>2</v>
       </c>
@@ -5845,7 +5860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="10">
         <v>45553</v>
       </c>
@@ -5862,7 +5877,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -5872,7 +5887,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -5882,7 +5897,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -5892,7 +5907,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
@@ -5902,7 +5917,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="11"/>
       <c r="D161" s="8">
@@ -5919,7 +5934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="9" t="s">
         <v>2</v>
       </c>
@@ -5954,7 +5969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="10">
         <v>45554</v>
       </c>
@@ -5989,7 +6004,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" s="3" t="s">
         <v>92</v>
@@ -6009,7 +6024,7 @@
       <c r="L165" s="3"/>
       <c r="M165" s="4"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" s="3" t="s">
         <v>100</v>
@@ -6025,7 +6040,7 @@
       <c r="L166" s="13"/>
       <c r="M166" s="14"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -6040,7 +6055,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
       <c r="C168" s="3"/>
       <c r="D168" s="4"/>
@@ -6050,7 +6065,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" s="11"/>
       <c r="D169" s="8">
@@ -6067,7 +6082,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" s="9" t="s">
         <v>2</v>
       </c>
@@ -6096,7 +6111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" s="10">
         <v>45555</v>
       </c>
@@ -6113,7 +6128,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
@@ -6128,7 +6143,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -6138,7 +6153,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -6148,7 +6163,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
       <c r="C176" s="3"/>
       <c r="D176" s="4"/>
@@ -6158,7 +6173,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="11"/>
       <c r="D177" s="8">
@@ -6175,7 +6190,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="9" t="s">
         <v>2</v>
       </c>
@@ -6204,7 +6219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
         <v>45556</v>
       </c>
@@ -6221,7 +6236,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -6231,7 +6246,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -6241,7 +6256,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -6251,7 +6266,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="C184" s="3"/>
       <c r="D184" s="4"/>
@@ -6261,7 +6276,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="11"/>
       <c r="D185" s="8">
@@ -6278,7 +6293,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="9" t="s">
         <v>2</v>
       </c>
@@ -6313,7 +6328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="10">
         <v>45558</v>
       </c>
@@ -6340,7 +6355,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -6361,7 +6376,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -6373,7 +6388,7 @@
       <c r="L190" s="13"/>
       <c r="M190" s="14"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -6388,7 +6403,7 @@
         <v>177.85</v>
       </c>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="C192" s="3"/>
       <c r="D192" s="4"/>
@@ -6398,7 +6413,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
       <c r="C193" s="11"/>
       <c r="D193" s="8">
@@ -6415,7 +6430,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="9" t="s">
         <v>2</v>
       </c>
@@ -6444,7 +6459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="10">
         <v>45559</v>
       </c>
@@ -6460,7 +6475,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -6470,7 +6485,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -6480,7 +6495,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -6490,7 +6505,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="C200" s="3"/>
       <c r="D200" s="4"/>
@@ -6500,7 +6515,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
       <c r="C201" s="11"/>
       <c r="D201" s="8">
@@ -6517,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="9" t="s">
         <v>2</v>
       </c>
@@ -6546,7 +6561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" s="10">
         <v>45560</v>
       </c>
@@ -6562,7 +6577,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -6572,7 +6587,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -6582,7 +6597,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -6592,7 +6607,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
       <c r="C208" s="3"/>
       <c r="D208" s="4"/>
@@ -6602,7 +6617,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
       <c r="C209" s="11"/>
       <c r="D209" s="8">
@@ -6619,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="9" t="s">
         <v>2</v>
       </c>
@@ -6648,7 +6663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" s="10">
         <v>45561</v>
       </c>
@@ -6673,7 +6688,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" s="3" t="s">
         <v>103</v>
@@ -6692,7 +6707,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -6702,7 +6717,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -6712,7 +6727,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
       <c r="C216" s="3"/>
       <c r="D216" s="4"/>
@@ -6726,7 +6741,7 @@
         <v>323.10000000000002</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
       <c r="C217" s="11"/>
       <c r="D217" s="8">
@@ -6763,9 +6778,9 @@
       <selection activeCell="L66" sqref="L66:M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -6794,7 +6809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>45562</v>
       </c>
@@ -6814,7 +6829,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -6828,7 +6843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -6842,7 +6857,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -6852,7 +6867,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -6862,7 +6877,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -6879,7 +6894,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -6908,7 +6923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>45563</v>
       </c>
@@ -6929,7 +6944,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -6948,7 +6963,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -6958,7 +6973,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -6968,7 +6983,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -6978,7 +6993,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -6995,7 +7010,7 @@
         <v>418.34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -7024,7 +7039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>45564</v>
       </c>
@@ -7040,7 +7055,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -7050,7 +7065,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -7060,7 +7075,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -7070,7 +7085,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -7080,7 +7095,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -7097,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -7126,7 +7141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>45565</v>
       </c>
@@ -7142,7 +7157,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
         <v>108</v>
@@ -7156,7 +7171,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -7166,7 +7181,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -7176,7 +7191,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -7186,7 +7201,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -7203,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -7232,7 +7247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>45566</v>
       </c>
@@ -7257,7 +7272,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
         <v>86</v>
@@ -7271,7 +7286,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -7281,7 +7296,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -7291,7 +7306,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -7301,7 +7316,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -7318,7 +7333,7 @@
         <v>355.4</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -7353,7 +7368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>45567</v>
       </c>
@@ -7380,7 +7395,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -7396,7 +7411,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -7408,7 +7423,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -7423,7 +7438,7 @@
         <v>54.059999999999995</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -7433,7 +7448,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -7450,7 +7465,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -7479,7 +7494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>45568</v>
       </c>
@@ -7499,7 +7514,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>64</v>
@@ -7513,7 +7528,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -7523,7 +7538,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -7533,7 +7548,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -7543,7 +7558,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -7560,7 +7575,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -7595,7 +7610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>45569</v>
       </c>
@@ -7617,7 +7632,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -7633,7 +7648,7 @@
         <v>606.65</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -7645,7 +7660,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -7660,7 +7675,7 @@
         <v>687.25</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -7670,7 +7685,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -7687,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -7722,7 +7737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>45570</v>
       </c>
@@ -7748,7 +7763,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -7760,7 +7775,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -7772,7 +7787,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -7787,7 +7802,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -7797,7 +7812,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -7814,7 +7829,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -7843,7 +7858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="10">
         <v>45571</v>
       </c>
@@ -7860,7 +7875,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
@@ -7875,7 +7890,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -7885,7 +7900,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -7895,7 +7910,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -7905,7 +7920,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -7922,7 +7937,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -7951,7 +7966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>45572</v>
       </c>
@@ -7967,7 +7982,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
@@ -7977,7 +7992,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -7987,7 +8002,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -7997,7 +8012,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -8007,7 +8022,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -8024,7 +8039,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -8059,7 +8074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
         <v>45573</v>
       </c>
@@ -8090,7 +8105,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -8102,7 +8117,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -8114,7 +8129,7 @@
       <c r="L93" s="13"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -8129,7 +8144,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -8139,7 +8154,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -8156,7 +8171,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -8191,7 +8206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="10">
         <v>45574</v>
       </c>
@@ -8213,7 +8228,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -8225,7 +8240,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -8237,7 +8252,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -8252,7 +8267,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -8262,7 +8277,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -8279,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -8308,7 +8323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
         <v>45575</v>
       </c>
@@ -8333,7 +8348,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>118</v>
@@ -8347,7 +8362,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -8357,7 +8372,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -8367,7 +8382,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -8377,7 +8392,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -8394,7 +8409,7 @@
         <v>108.63</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -8423,7 +8438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="10">
         <v>45576</v>
       </c>
@@ -8448,7 +8463,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
@@ -8462,7 +8477,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -8472,7 +8487,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -8482,7 +8497,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -8492,7 +8507,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -8509,7 +8524,7 @@
         <v>158.65</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -8538,7 +8553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="10">
         <v>45577</v>
       </c>
@@ -8559,7 +8574,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
@@ -8569,7 +8584,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -8579,7 +8594,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -8589,7 +8604,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -8599,7 +8614,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -8616,7 +8631,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -8645,7 +8660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="10">
         <v>45579</v>
       </c>
@@ -8661,7 +8676,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
       <c r="C132" s="3" t="s">
         <v>14</v>
@@ -8675,7 +8690,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -8685,7 +8700,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -8695,7 +8710,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -8705,7 +8720,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -8722,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -8751,7 +8766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="10">
         <v>45580</v>
       </c>
@@ -8772,7 +8787,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
@@ -8782,7 +8797,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -8792,7 +8807,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -8802,7 +8817,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -8812,7 +8827,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -8829,7 +8844,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -8858,7 +8873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="10">
         <v>45581</v>
       </c>
@@ -8883,7 +8898,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" s="3" t="s">
         <v>15</v>
@@ -8897,7 +8912,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -8907,7 +8922,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -8917,7 +8932,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -8927,7 +8942,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -8944,7 +8959,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -8973,7 +8988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="10">
         <v>45582</v>
       </c>
@@ -8994,7 +9009,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="C156" s="3" t="s">
         <v>15</v>
@@ -9008,7 +9023,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -9018,7 +9033,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -9028,7 +9043,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -9038,7 +9053,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -9055,7 +9070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -9090,7 +9105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="10">
         <v>45583</v>
       </c>
@@ -9108,7 +9123,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
@@ -9124,7 +9139,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -9136,7 +9151,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -9151,7 +9166,7 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -9161,7 +9176,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -9178,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -9207,7 +9222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
         <v>45584</v>
       </c>
@@ -9227,7 +9242,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
@@ -9241,7 +9256,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
@@ -9251,7 +9266,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -9261,7 +9276,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -9271,7 +9286,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8">
@@ -9288,7 +9303,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -9323,7 +9338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
         <v>45586</v>
       </c>
@@ -9345,7 +9360,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -9357,7 +9372,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -9369,7 +9384,7 @@
       <c r="L181" s="13"/>
       <c r="M181" s="14"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -9384,7 +9399,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -9394,7 +9409,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -9411,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -9446,7 +9461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
         <v>45587</v>
       </c>
@@ -9473,7 +9488,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="C188" s="3" t="s">
         <v>64</v>
@@ -9489,7 +9504,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -9501,7 +9516,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -9516,7 +9531,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -9526,7 +9541,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -9543,7 +9558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -9578,7 +9593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="10">
         <v>45588</v>
       </c>
@@ -9609,7 +9624,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" s="3" t="s">
         <v>129</v>
@@ -9625,7 +9640,7 @@
       <c r="L196" s="3"/>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" s="3" t="s">
         <v>130</v>
@@ -9642,7 +9657,7 @@
       <c r="L197" s="13"/>
       <c r="M197" s="14"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -9657,7 +9672,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -9667,7 +9682,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -9684,7 +9699,7 @@
         <v>995.61</v>
       </c>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -9713,7 +9728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B203" s="10">
         <v>45588</v>
       </c>
@@ -9729,7 +9744,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -9739,7 +9754,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -9749,7 +9764,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -9759,7 +9774,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -9769,7 +9784,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -9786,7 +9801,7 @@
         <v>117.45</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
@@ -9815,7 +9830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" s="10">
         <v>45589</v>
       </c>
@@ -9831,7 +9846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
       <c r="C212" s="3"/>
       <c r="D212" s="4"/>
@@ -9841,7 +9856,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -9851,7 +9866,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -9861,7 +9876,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -9871,7 +9886,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
       <c r="C216" s="11"/>
       <c r="D216" s="8">
@@ -9888,7 +9903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
@@ -9917,7 +9932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" s="10">
         <v>45591</v>
       </c>
@@ -9934,7 +9949,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" s="3"/>
       <c r="D220" s="4"/>
@@ -9944,7 +9959,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B221" s="7"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -9954,7 +9969,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B222" s="7"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -9964,7 +9979,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B223" s="7"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -9974,7 +9989,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
       <c r="C224" s="11"/>
       <c r="D224" s="8">
@@ -9991,7 +10006,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -10020,7 +10035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B227" s="10">
         <v>45592</v>
       </c>
@@ -10036,7 +10051,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
       <c r="C228" s="3"/>
       <c r="D228" s="4"/>
@@ -10046,7 +10061,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -10056,7 +10071,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B230" s="7"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -10066,7 +10081,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -10076,7 +10091,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="11"/>
       <c r="D232" s="8">
@@ -10093,7 +10108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
@@ -10122,7 +10137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B235" s="10">
         <v>45593</v>
       </c>
@@ -10143,7 +10158,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" s="3" t="s">
         <v>15</v>
@@ -10157,7 +10172,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" s="3"/>
       <c r="D237" s="4"/>
@@ -10167,7 +10182,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
       <c r="C238" s="3"/>
       <c r="D238" s="4"/>
@@ -10177,7 +10192,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
       <c r="C239" s="3"/>
       <c r="D239" s="4"/>
@@ -10187,7 +10202,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
       <c r="C240" s="11"/>
       <c r="D240" s="8">
@@ -10217,9 +10232,9 @@
       <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -10248,7 +10263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>45593</v>
       </c>
@@ -10268,7 +10283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -10282,7 +10297,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -10296,7 +10311,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -10310,7 +10325,7 @@
         <v>111.45</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -10324,7 +10339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -10341,7 +10356,7 @@
         <v>2966.45</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -10370,7 +10385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>45594</v>
       </c>
@@ -10386,7 +10401,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -10396,7 +10411,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -10406,7 +10421,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -10416,7 +10431,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -10426,7 +10441,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -10443,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -10472,7 +10487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>45595</v>
       </c>
@@ -10488,7 +10503,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>137</v>
@@ -10502,7 +10517,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -10512,7 +10527,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -10522,7 +10537,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -10532,7 +10547,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -10549,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -10578,7 +10593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>45596</v>
       </c>
@@ -10599,7 +10614,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -10609,7 +10624,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -10619,7 +10634,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -10629,7 +10644,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -10639,7 +10654,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -10656,7 +10671,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -10691,7 +10706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>45597</v>
       </c>
@@ -10717,7 +10732,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -10729,7 +10744,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -10741,7 +10756,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -10756,7 +10771,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -10766,7 +10781,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -10783,7 +10798,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -10818,7 +10833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>45598</v>
       </c>
@@ -10840,7 +10855,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -10852,7 +10867,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -10864,7 +10879,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -10879,7 +10894,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -10889,7 +10904,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -10906,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -10935,7 +10950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>45599</v>
       </c>
@@ -10955,7 +10970,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>15</v>
@@ -10969,7 +10984,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -10979,7 +10994,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -10989,7 +11004,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -10999,7 +11014,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -11016,7 +11031,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -11045,7 +11060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>45600</v>
       </c>
@@ -11061,7 +11076,7 @@
         <v>439.7</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -11075,7 +11090,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -11085,7 +11100,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -11095,7 +11110,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -11105,7 +11120,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -11122,7 +11137,7 @@
         <v>1319.7</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -11151,7 +11166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>45601</v>
       </c>
@@ -11168,7 +11183,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -11183,7 +11198,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -11193,7 +11208,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -11203,7 +11218,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -11213,7 +11228,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -11230,7 +11245,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -11259,7 +11274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="10">
         <v>45602</v>
       </c>
@@ -11288,7 +11303,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="3" t="s">
         <v>144</v>
@@ -11302,7 +11317,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -11312,7 +11327,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -11322,7 +11337,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -11332,7 +11347,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -11349,7 +11364,7 @@
         <v>172.48</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -11378,7 +11393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>45603</v>
       </c>
@@ -11403,7 +11418,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -11421,7 +11436,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="3" t="s">
         <v>26</v>
@@ -11435,7 +11450,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -11445,7 +11460,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -11455,7 +11470,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -11472,7 +11487,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -11501,7 +11516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
         <v>45604</v>
       </c>
@@ -11518,7 +11533,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -11528,7 +11543,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -11538,7 +11553,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -11548,7 +11563,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -11558,7 +11573,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -11575,7 +11590,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -11604,7 +11619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="10">
         <v>45605</v>
       </c>
@@ -11621,7 +11636,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -11636,7 +11651,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -11646,7 +11661,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -11656,7 +11671,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -11666,7 +11681,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -11683,7 +11698,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -11712,7 +11727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
         <v>45606</v>
       </c>
@@ -11733,7 +11748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
@@ -11748,7 +11763,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -11758,7 +11773,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -11768,7 +11783,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -11778,7 +11793,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -11795,7 +11810,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -11824,7 +11839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="10">
         <v>45607</v>
       </c>
@@ -11845,7 +11860,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" s="3" t="s">
         <v>64</v>
@@ -11859,7 +11874,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -11869,7 +11884,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -11879,7 +11894,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -11889,7 +11904,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -11906,7 +11921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -11935,7 +11950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="10">
         <v>45608</v>
       </c>
@@ -11960,7 +11975,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" s="3" t="s">
         <v>15</v>
@@ -11974,7 +11989,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -11984,7 +11999,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -11994,7 +12009,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -12004,7 +12019,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -12021,7 +12036,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -12050,7 +12065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="10">
         <v>45609</v>
       </c>
@@ -12066,7 +12081,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
       <c r="C132" s="3" t="s">
         <v>15</v>
@@ -12080,7 +12095,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -12090,7 +12105,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -12100,7 +12115,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -12110,7 +12125,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -12127,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -12156,7 +12171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="10">
         <v>45610</v>
       </c>
@@ -12172,7 +12187,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140" s="3" t="s">
         <v>152</v>
@@ -12186,7 +12201,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" s="3" t="s">
         <v>153</v>
@@ -12200,7 +12215,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -12210,7 +12225,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -12220,7 +12235,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -12237,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -12266,7 +12281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="10">
         <v>45611</v>
       </c>
@@ -12282,7 +12297,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
@@ -12292,7 +12307,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -12302,7 +12317,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -12312,7 +12327,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -12322,7 +12337,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -12339,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -12374,7 +12389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="10">
         <v>45612</v>
       </c>
@@ -12396,7 +12411,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
@@ -12408,7 +12423,7 @@
       <c r="L156" s="3"/>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -12420,7 +12435,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -12435,7 +12450,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -12445,7 +12460,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -12462,7 +12477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -12497,7 +12512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="10">
         <v>45613</v>
       </c>
@@ -12520,7 +12535,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
@@ -12532,7 +12547,7 @@
       <c r="L164" s="3"/>
       <c r="M164" s="4"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -12544,7 +12559,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -12559,7 +12574,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -12569,7 +12584,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -12586,7 +12601,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -12621,7 +12636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
         <v>45614</v>
       </c>
@@ -12648,7 +12663,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
       <c r="C172" s="3" t="s">
         <v>15</v>
@@ -12668,7 +12683,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" s="3" t="s">
         <v>153</v>
@@ -12684,7 +12699,7 @@
       <c r="L173" s="13"/>
       <c r="M173" s="14"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -12699,7 +12714,7 @@
         <v>60.11</v>
       </c>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -12709,7 +12724,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8">
@@ -12726,7 +12741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -12755,7 +12770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
         <v>45615</v>
       </c>
@@ -12775,7 +12790,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -12785,7 +12800,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -12795,7 +12810,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -12805,7 +12820,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -12815,7 +12830,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -12832,7 +12847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -12867,7 +12882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
         <v>45616</v>
       </c>
@@ -12889,7 +12904,7 @@
         <v>341.74</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="C188" s="3"/>
       <c r="D188" s="4"/>
@@ -12901,7 +12916,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -12913,7 +12928,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -12928,7 +12943,7 @@
         <v>341.74</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -12938,7 +12953,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -12955,7 +12970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -12984,7 +12999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="10">
         <v>45617</v>
       </c>
@@ -13009,7 +13024,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" s="3"/>
       <c r="D196" s="4"/>
@@ -13019,7 +13034,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -13029,7 +13044,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -13039,7 +13054,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -13049,7 +13064,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -13066,7 +13081,7 @@
         <v>104.9</v>
       </c>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -13101,7 +13116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B203" s="10">
         <v>45618</v>
       </c>
@@ -13128,7 +13143,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -13140,7 +13155,7 @@
       <c r="L204" s="3"/>
       <c r="M204" s="4"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -13152,7 +13167,7 @@
       <c r="L205" s="13"/>
       <c r="M205" s="14"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -13167,7 +13182,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -13177,7 +13192,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -13194,7 +13209,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
@@ -13223,7 +13238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" s="10">
         <v>45620</v>
       </c>
@@ -13239,7 +13254,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
       <c r="C212" s="3"/>
       <c r="D212" s="4"/>
@@ -13249,7 +13264,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -13259,7 +13274,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -13269,7 +13284,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -13279,7 +13294,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
       <c r="C216" s="11"/>
       <c r="D216" s="8">
@@ -13296,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
@@ -13325,7 +13340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" s="10">
         <v>45621</v>
       </c>
@@ -13341,7 +13356,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" s="3" t="s">
         <v>100</v>
@@ -13355,7 +13370,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B221" s="7"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -13365,7 +13380,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B222" s="7"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -13375,7 +13390,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B223" s="7"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -13385,7 +13400,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
       <c r="C224" s="11"/>
       <c r="D224" s="8">
@@ -13402,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -13437,7 +13452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B227" s="10">
         <v>45622</v>
       </c>
@@ -13464,7 +13479,7 @@
         <v>47.54</v>
       </c>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
       <c r="C228" s="3" t="s">
         <v>79</v>
@@ -13480,7 +13495,7 @@
       <c r="L228" s="3"/>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -13492,7 +13507,7 @@
       <c r="L229" s="13"/>
       <c r="M229" s="14"/>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="7"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -13507,7 +13522,7 @@
         <v>47.54</v>
       </c>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -13517,7 +13532,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="11"/>
       <c r="D232" s="8">
@@ -13534,7 +13549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
@@ -13563,7 +13578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B235" s="10">
         <v>45623</v>
       </c>
@@ -13587,7 +13602,7 @@
         <v>74.06</v>
       </c>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" s="3"/>
       <c r="D236" s="4"/>
@@ -13597,7 +13612,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" s="3"/>
       <c r="D237" s="4"/>
@@ -13607,7 +13622,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
       <c r="C238" s="3"/>
       <c r="D238" s="4"/>
@@ -13617,7 +13632,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
       <c r="C239" s="3"/>
       <c r="D239" s="4"/>
@@ -13627,7 +13642,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
       <c r="C240" s="11"/>
       <c r="D240" s="8">
@@ -13644,7 +13659,7 @@
         <v>84.06</v>
       </c>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B242" s="9" t="s">
         <v>2</v>
       </c>
@@ -13673,7 +13688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B243" s="10">
         <v>45624</v>
       </c>
@@ -13694,7 +13709,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B244" s="7"/>
       <c r="C244" s="3" t="s">
         <v>160</v>
@@ -13713,7 +13728,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B245" s="7"/>
       <c r="C245" s="3"/>
       <c r="D245" s="4"/>
@@ -13723,7 +13738,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B246" s="7"/>
       <c r="C246" s="3"/>
       <c r="D246" s="4"/>
@@ -13733,7 +13748,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B247" s="7"/>
       <c r="C247" s="3"/>
       <c r="D247" s="4"/>
@@ -13743,7 +13758,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B248" s="6"/>
       <c r="C248" s="11"/>
       <c r="D248" s="8">
@@ -13767,15 +13782,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1DBB28-9DEE-43A9-8B9E-D89C096EED4E}">
-  <dimension ref="B2:M152"/>
+  <dimension ref="B2:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="U141" sqref="U141"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="N168" sqref="N168:O168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -13804,7 +13819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>45625</v>
       </c>
@@ -13828,7 +13843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -13842,7 +13857,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -13856,7 +13871,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -13870,7 +13885,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -13880,7 +13895,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -13897,7 +13912,7 @@
         <v>3073.85</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -13932,7 +13947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>45626</v>
       </c>
@@ -13959,7 +13974,7 @@
         <v>18.54</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -13980,7 +13995,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -13996,7 +14011,7 @@
         <v>37.81</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -14011,7 +14026,7 @@
         <v>93.43</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -14021,7 +14036,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -14038,7 +14053,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -14073,7 +14088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>45628</v>
       </c>
@@ -14104,7 +14119,7 @@
         <v>193.26</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>165</v>
@@ -14124,7 +14139,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="3" t="s">
         <v>87</v>
@@ -14140,7 +14155,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -14155,7 +14170,7 @@
         <v>193.26</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -14165,7 +14180,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -14182,7 +14197,7 @@
         <v>255.71</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -14217,7 +14232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>45629</v>
       </c>
@@ -14243,7 +14258,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -14255,7 +14270,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -14267,7 +14282,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -14282,7 +14297,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -14292,7 +14307,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -14309,7 +14324,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -14338,7 +14353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>45630</v>
       </c>
@@ -14359,7 +14374,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
         <v>15</v>
@@ -14373,7 +14388,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3" t="s">
         <v>15</v>
@@ -14387,7 +14402,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -14397,7 +14412,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -14407,7 +14422,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -14424,7 +14439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -14453,7 +14468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>45631</v>
       </c>
@@ -14473,7 +14488,7 @@
         <v>77.94</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="3" t="s">
         <v>169</v>
@@ -14487,7 +14502,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -14497,7 +14512,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -14507,7 +14522,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -14517,7 +14532,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -14534,7 +14549,7 @@
         <v>77.94</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -14563,7 +14578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>45632</v>
       </c>
@@ -14579,7 +14594,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -14589,7 +14604,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -14599,7 +14614,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -14609,7 +14624,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -14619,7 +14634,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -14636,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -14671,7 +14686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>45633</v>
       </c>
@@ -14694,7 +14709,7 @@
         <v>130.12</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -14706,7 +14721,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -14718,7 +14733,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -14733,7 +14748,7 @@
         <v>130.12</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -14743,7 +14758,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -14760,7 +14775,7 @@
         <v>42.22</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -14795,7 +14810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>45634</v>
       </c>
@@ -14818,7 +14833,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -14834,7 +14849,7 @@
         <v>142.78</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -14846,7 +14861,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -14861,7 +14876,7 @@
         <v>561.78</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -14871,7 +14886,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -14888,7 +14903,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -14917,7 +14932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="10">
         <v>45635</v>
       </c>
@@ -14942,7 +14957,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
@@ -14952,7 +14967,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -14962,7 +14977,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -14972,7 +14987,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -14982,7 +14997,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -14999,7 +15014,7 @@
         <v>108.63</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -15028,7 +15043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>45636</v>
       </c>
@@ -15048,7 +15063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -15062,7 +15077,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -15072,7 +15087,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -15082,7 +15097,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -15092,7 +15107,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -15109,7 +15124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -15138,7 +15153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
         <v>45637</v>
       </c>
@@ -15159,7 +15174,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -15169,7 +15184,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -15179,7 +15194,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -15189,7 +15204,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -15199,7 +15214,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -15216,7 +15231,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -15251,7 +15266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="10">
         <v>45638</v>
       </c>
@@ -15269,7 +15284,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -15285,7 +15300,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -15297,7 +15312,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -15312,7 +15327,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -15322,7 +15337,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -15339,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -15368,7 +15383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
         <v>45639</v>
       </c>
@@ -15389,7 +15404,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>15</v>
@@ -15403,7 +15418,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -15413,7 +15428,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -15423,7 +15438,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -15433,7 +15448,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -15450,7 +15465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -15479,7 +15494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="10">
         <v>45640</v>
       </c>
@@ -15496,7 +15511,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
@@ -15506,7 +15521,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -15516,7 +15531,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -15526,7 +15541,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -15536,7 +15551,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -15553,7 +15568,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -15581,8 +15596,14 @@
       <c r="J122" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="10">
         <v>45641</v>
       </c>
@@ -15597,8 +15618,14 @@
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="4"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L123" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M123" s="4">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
@@ -15607,8 +15634,14 @@
       <c r="H124" s="4"/>
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L124" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M124" s="4">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -15617,8 +15650,14 @@
       <c r="H125" s="4"/>
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L125" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M125" s="14">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -15627,8 +15666,13 @@
       <c r="H126" s="4"/>
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L126" s="11"/>
+      <c r="M126" s="12">
+        <f>SUM(M123:M125)</f>
+        <v>78.56</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -15638,7 +15682,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -15655,7 +15699,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -15684,7 +15728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="10">
         <v>45642</v>
       </c>
@@ -15704,7 +15748,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
@@ -15718,7 +15762,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -15728,7 +15772,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -15738,7 +15782,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -15748,7 +15792,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -15765,7 +15809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -15794,7 +15838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="10">
         <v>45643</v>
       </c>
@@ -15814,7 +15858,7 @@
         <v>80.38</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
@@ -15824,7 +15868,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -15834,7 +15878,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -15844,7 +15888,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -15854,7 +15898,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -15871,7 +15915,7 @@
         <v>80.38</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -15900,7 +15944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="10">
         <v>45644</v>
       </c>
@@ -15916,17 +15960,21 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="4"/>
+      <c r="G148" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H148" s="4">
+        <v>45.7</v>
+      </c>
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -15936,7 +15984,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -15946,7 +15994,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -15956,7 +16004,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -15973,6 +16021,338 @@
         <v>104.7</v>
       </c>
     </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="10">
+        <v>45645</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="4">
+        <v>20</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H155" s="4">
+        <v>10</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="7"/>
+      <c r="C156" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D156" s="4">
+        <v>10</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="7"/>
+      <c r="C157" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D157" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="7"/>
+      <c r="C158" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D158" s="4">
+        <v>4</v>
+      </c>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="6"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="8">
+        <f>SUM(D155)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="12">
+        <f>SUM(J155:J159,F155,H155)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="10">
+        <v>45646</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="4"/>
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="4">
+        <v>50</v>
+      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J163" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="7"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="7"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="7"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="8">
+        <f>SUM(D163)</f>
+        <v>0</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="12">
+        <f>SUM(J163:J167,F163,H163)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="10">
+        <v>45647</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" s="4">
+        <v>18.55</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="7"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="4"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="7"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="7"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="7"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="8">
+        <f>SUM(D171)</f>
+        <v>18.55</v>
+      </c>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="12">
+        <f>SUM(J171:J175,F171,H171)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A6FD5-7249-4BC9-AFD8-F7D308B07344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA70004-4F08-4C27-B2AE-6730FDF22AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="186">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t>汽水</t>
+  </si>
+  <si>
+    <t>打針</t>
+  </si>
+  <si>
+    <t>西瓜卡</t>
+  </si>
+  <si>
+    <t>食物</t>
   </si>
 </sst>
 </file>
@@ -13782,10 +13791,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1DBB28-9DEE-43A9-8B9E-D89C096EED4E}">
-  <dimension ref="B2:M176"/>
+  <dimension ref="B2:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="N168" sqref="N168:O168"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="O168" sqref="O167:O168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16353,6 +16362,117 @@
         <v>0</v>
       </c>
     </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="10">
+        <v>45648</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="4"/>
+      <c r="E179" t="s">
+        <v>185</v>
+      </c>
+      <c r="F179" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="G179" s="3"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J179" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="7"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J180" s="4">
+        <v>29.62</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="7"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="7"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="7"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="6"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="8">
+        <f>SUM(D179)</f>
+        <v>0</v>
+      </c>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="12">
+        <f>SUM(J179:J183,F179,H179)</f>
+        <v>153.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA70004-4F08-4C27-B2AE-6730FDF22AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CBA84C-E7B5-406A-A103-DD174F03A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="190">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -596,6 +597,18 @@
   </si>
   <si>
     <t>食物</t>
+  </si>
+  <si>
+    <t>鷄飯</t>
+  </si>
+  <si>
+    <t>esim</t>
+  </si>
+  <si>
+    <t>大約卡</t>
+  </si>
+  <si>
+    <t>mamk</t>
   </si>
 </sst>
 </file>
@@ -10237,7 +10250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B580BBE-0E3D-4694-AD90-8F2E85DB4C6E}">
   <dimension ref="B2:M248"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
+    <sheetView topLeftCell="A218" workbookViewId="0">
       <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
@@ -13791,10 +13804,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1DBB28-9DEE-43A9-8B9E-D89C096EED4E}">
-  <dimension ref="B2:M184"/>
+  <dimension ref="B2:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="O168" sqref="O167:O168"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="R219" sqref="R219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16362,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -16390,8 +16403,14 @@
       <c r="J178" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
         <v>45648</v>
       </c>
@@ -16411,8 +16430,14 @@
       <c r="J179" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L179" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M179" s="4">
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -16425,8 +16450,14 @@
       <c r="J180" s="4">
         <v>29.62</v>
       </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L180" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M180" s="4">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -16435,8 +16466,14 @@
       <c r="H181" s="4"/>
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L181" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M181" s="14">
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -16445,8 +16482,13 @@
       <c r="H182" s="4"/>
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L182" s="11"/>
+      <c r="M182" s="12">
+        <f>SUM(M179:M181)</f>
+        <v>217.57999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -16456,7 +16498,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -16473,6 +16515,668 @@
         <v>153.82</v>
       </c>
     </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B186" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B187" s="10">
+        <v>45649</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F187" s="4"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="4"/>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B188" s="7"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B189" s="7"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="4"/>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B190" s="7"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="4"/>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B191" s="7"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="8">
+        <f>SUM(D187)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="12">
+        <f>SUM(J187:J191,F187,H187)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="10">
+        <v>45650</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D195" s="4">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
+        <v>186</v>
+      </c>
+      <c r="F195" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G195" s="3"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="4"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="7"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="4"/>
+      <c r="E196" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="4">
+        <v>20</v>
+      </c>
+      <c r="G196" s="3"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="7"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="7"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="4"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="7"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="4"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="6"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="8">
+        <f>SUM(D195)</f>
+        <v>10</v>
+      </c>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
+      <c r="J200" s="12">
+        <f>SUM(J195:J199,F195,H195)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="10">
+        <v>45651</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="4"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="7"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="4"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="7"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="4"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="7"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="7"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="4"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="6"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="8">
+        <f>SUM(D203)</f>
+        <v>0</v>
+      </c>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="12">
+        <f>SUM(J203:J207,F203,H203)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="10">
+        <v>45652</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D211" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="F211" s="4"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J211" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="7"/>
+      <c r="C212" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D212" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="F212" s="4"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="4"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="7"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="7"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="4"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="7"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="4"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="6"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="8">
+        <f>SUM(D211)</f>
+        <v>16.2</v>
+      </c>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="12">
+        <f>SUM(J211:J215,F211,H211)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="10">
+        <v>45653</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H219" s="4">
+        <v>10</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J219" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="7"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="4"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="7"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="4"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="7"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="4"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="7"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="4"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="6"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="8">
+        <f>SUM(D219)</f>
+        <v>0</v>
+      </c>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
+      <c r="J224" s="12">
+        <f>SUM(J219:J223,F219,H219)</f>
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BBEC7-45C4-47C0-9B30-DAF96A3FD381}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>45653</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8">
+        <f>SUM(D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12">
+        <f>SUM(J3:J7,F3,H3)</f>
+        <v>2426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CBA84C-E7B5-406A-A103-DD174F03A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C133AE-CF51-4B19-B3A6-5796F822767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="193">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -609,6 +609,15 @@
   </si>
   <si>
     <t>mamk</t>
+  </si>
+  <si>
+    <t>KLIA</t>
+  </si>
+  <si>
+    <t>YoutubeP</t>
+  </si>
+  <si>
+    <t>Murni</t>
   </si>
 </sst>
 </file>
@@ -791,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -807,6 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,9 +835,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -865,7 +875,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -971,7 +981,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1113,7 +1123,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1127,22 +1137,22 @@
       <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>45503</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -1210,7 +1220,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -1224,7 +1234,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -1238,7 +1248,7 @@
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -1252,7 +1262,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8">
@@ -1269,12 +1279,12 @@
         <v>2478.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10" s="5"/>
       <c r="H10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1303,7 +1313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>45504</v>
       </c>
@@ -1319,7 +1329,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -1333,7 +1343,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="11"/>
       <c r="D14" s="8">
@@ -1350,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>45505</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="D18" s="4"/>
       <c r="F18" s="4"/>
@@ -1427,7 +1437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
@@ -1443,7 +1453,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="11"/>
       <c r="D20" s="8">
@@ -1465,7 +1475,7 @@
         <v>297.95</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>45506</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="D24" s="4"/>
       <c r="F24" s="4"/>
@@ -1528,7 +1538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -1538,7 +1548,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
@@ -1552,7 +1562,7 @@
         <v>154.44999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1581,7 +1591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>45507</v>
       </c>
@@ -1602,7 +1612,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
@@ -1620,7 +1630,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -1634,7 +1644,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8"/>
@@ -1648,7 +1658,7 @@
         <v>116.45</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -1683,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45509</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>95.83</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>30</v>
@@ -1730,7 +1740,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -1742,7 +1752,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="11"/>
       <c r="D38" s="8">
@@ -1764,7 +1774,7 @@
         <v>143.03</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>2</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
         <v>45510</v>
       </c>
@@ -1810,7 +1820,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" t="s">
         <v>31</v>
@@ -1824,7 +1834,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>30</v>
@@ -1838,7 +1848,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="11"/>
       <c r="D44" s="8">
@@ -1855,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>2</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="10">
         <v>45511</v>
       </c>
@@ -1905,7 +1915,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
       <c r="D48" s="4"/>
       <c r="F48" s="4"/>
@@ -1914,7 +1924,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="D49" s="4"/>
       <c r="F49" s="4"/>
@@ -1923,7 +1933,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="11"/>
       <c r="D50" s="8">
@@ -1940,7 +1950,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>2</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="10">
         <v>45512</v>
       </c>
@@ -1994,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
       <c r="D54" s="4"/>
       <c r="F54" s="4"/>
@@ -2003,7 +2013,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="D55" s="4"/>
       <c r="F55" s="4"/>
@@ -2012,7 +2022,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -2029,7 +2039,7 @@
         <v>41.75</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45513</v>
       </c>
@@ -2078,7 +2088,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
       <c r="D60" s="4"/>
       <c r="F60" s="4"/>
@@ -2091,7 +2101,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="D61" s="4"/>
       <c r="F61" s="4"/>
@@ -2100,7 +2110,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="11"/>
       <c r="D62" s="8">
@@ -2117,7 +2127,7 @@
         <v>193.63</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>2</v>
       </c>
@@ -2146,7 +2156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="10">
         <v>45514</v>
       </c>
@@ -2163,7 +2173,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
       <c r="D66" s="4"/>
       <c r="F66" s="4"/>
@@ -2172,7 +2182,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
       <c r="D67" s="4"/>
       <c r="F67" s="4"/>
@@ -2181,7 +2191,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8">
@@ -2198,7 +2208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>2</v>
       </c>
@@ -2227,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="10">
         <v>45515</v>
       </c>
@@ -2248,7 +2258,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="10"/>
       <c r="D72" s="4"/>
       <c r="F72" s="4"/>
@@ -2257,7 +2267,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
       <c r="D73" s="4"/>
       <c r="F73" s="4"/>
@@ -2266,7 +2276,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
       <c r="C74" s="11"/>
       <c r="D74" s="8">
@@ -2283,7 +2293,7 @@
         <v>54.849999999999994</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="10">
         <v>45516</v>
       </c>
@@ -2333,7 +2343,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="10"/>
       <c r="D78" s="4"/>
       <c r="F78" s="4"/>
@@ -2342,7 +2352,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="D79" s="4"/>
       <c r="F79" s="4"/>
@@ -2351,7 +2361,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -2368,7 +2378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -2397,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <v>45517</v>
       </c>
@@ -2417,7 +2427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" t="s">
         <v>43</v>
@@ -2431,7 +2441,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="D85" s="4"/>
       <c r="F85" s="4"/>
@@ -2440,7 +2450,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
       <c r="C86" s="11"/>
       <c r="D86" s="8">
@@ -2457,7 +2467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
@@ -2486,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="10">
         <v>45518</v>
       </c>
@@ -2502,7 +2512,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="10"/>
       <c r="C90" t="s">
         <v>44</v>
@@ -2516,7 +2526,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="7"/>
       <c r="D91" s="4"/>
       <c r="F91" s="4"/>
@@ -2525,7 +2535,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="6"/>
       <c r="C92" s="11"/>
       <c r="D92" s="8">
@@ -2542,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>2</v>
       </c>
@@ -2571,7 +2581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="10">
         <v>45519</v>
       </c>
@@ -2596,7 +2606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="10"/>
       <c r="C96" t="s">
         <v>47</v>
@@ -2610,7 +2620,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
       <c r="D97" s="4"/>
       <c r="F97" s="4"/>
@@ -2619,7 +2629,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="6"/>
       <c r="C98" s="11"/>
       <c r="D98" s="8">
@@ -2636,7 +2646,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
         <v>2</v>
       </c>
@@ -2665,7 +2675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="10">
         <v>45520</v>
       </c>
@@ -2685,7 +2695,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="10"/>
       <c r="D102" s="4"/>
       <c r="F102" s="4"/>
@@ -2694,7 +2704,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="D103" s="4"/>
       <c r="F103" s="4"/>
@@ -2703,7 +2713,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -2720,7 +2730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -2749,7 +2759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45521</v>
       </c>
@@ -2769,7 +2779,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="10"/>
       <c r="D108" s="4"/>
       <c r="F108" s="4"/>
@@ -2778,7 +2788,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="D109" s="4"/>
       <c r="F109" s="4"/>
@@ -2787,7 +2797,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="6"/>
       <c r="C110" s="11"/>
       <c r="D110" s="8">
@@ -2804,7 +2814,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="9" t="s">
         <v>2</v>
       </c>
@@ -2839,7 +2849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="10">
         <v>45522</v>
       </c>
@@ -2866,7 +2876,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="10"/>
       <c r="D114" s="4"/>
       <c r="F114" s="4"/>
@@ -2877,7 +2887,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
       <c r="D115" s="4"/>
       <c r="F115" s="4"/>
@@ -2888,7 +2898,7 @@
       <c r="L115" s="13"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="6"/>
       <c r="C116" s="11"/>
       <c r="D116" s="8">
@@ -2910,7 +2920,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="9" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="10">
         <v>45523</v>
       </c>
@@ -2964,7 +2974,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="10"/>
       <c r="D120" s="4"/>
       <c r="F120" s="4"/>
@@ -2973,7 +2983,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
       <c r="D121" s="4"/>
       <c r="F121" s="4"/>
@@ -2982,7 +2992,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="6"/>
       <c r="C122" s="11"/>
       <c r="D122" s="8">
@@ -2999,7 +3009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="9" t="s">
         <v>2</v>
       </c>
@@ -3028,7 +3038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="10">
         <v>45524</v>
       </c>
@@ -3044,7 +3054,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="10"/>
       <c r="D126" s="4"/>
       <c r="F126" s="4"/>
@@ -3053,7 +3063,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="D127" s="4"/>
       <c r="F127" s="4"/>
@@ -3062,7 +3072,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -3079,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -3108,7 +3118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" s="10">
         <v>45525</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" s="10"/>
       <c r="D132" s="4"/>
       <c r="F132" s="4"/>
@@ -3142,7 +3152,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="D133" s="4"/>
       <c r="F133" s="4"/>
@@ -3151,7 +3161,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" s="6"/>
       <c r="C134" s="11"/>
       <c r="D134" s="8">
@@ -3168,7 +3178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" s="10">
         <v>45526</v>
       </c>
@@ -3229,7 +3239,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" s="10"/>
       <c r="D138" s="4"/>
       <c r="F138" s="4"/>
@@ -3244,7 +3254,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" s="7"/>
       <c r="D139" s="4"/>
       <c r="F139" s="4"/>
@@ -3255,7 +3265,7 @@
       <c r="L139" s="13"/>
       <c r="M139" s="14"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" s="6"/>
       <c r="C140" s="11"/>
       <c r="D140" s="8">
@@ -3277,7 +3287,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" s="9" t="s">
         <v>2</v>
       </c>
@@ -3306,7 +3316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" s="10">
         <v>45527</v>
       </c>
@@ -3322,7 +3332,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" s="10"/>
       <c r="D144" s="4"/>
       <c r="F144" s="4"/>
@@ -3331,7 +3341,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="7"/>
       <c r="D145" s="4"/>
       <c r="F145" s="4"/>
@@ -3340,7 +3350,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="6"/>
       <c r="C146" s="11"/>
       <c r="D146" s="8">
@@ -3357,7 +3367,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="9" t="s">
         <v>2</v>
       </c>
@@ -3392,7 +3402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="10">
         <v>45529</v>
       </c>
@@ -3419,7 +3429,7 @@
         <v>426.91</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="10"/>
       <c r="D150" s="4"/>
       <c r="F150" s="4"/>
@@ -3430,7 +3440,7 @@
       <c r="L150" s="3"/>
       <c r="M150" s="4"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="D151" s="4"/>
       <c r="F151" s="4"/>
@@ -3441,7 +3451,7 @@
       <c r="L151" s="13"/>
       <c r="M151" s="14"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -3463,7 +3473,7 @@
         <v>426.91</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>45530</v>
       </c>
@@ -3525,7 +3535,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="10"/>
       <c r="C156" t="s">
         <v>64</v>
@@ -3541,7 +3551,7 @@
       <c r="L156" s="3"/>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="D157" s="4"/>
       <c r="F157" s="4"/>
@@ -3552,7 +3562,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="6"/>
       <c r="C158" s="11"/>
       <c r="D158" s="8">
@@ -3574,7 +3584,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="9" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="10">
         <v>45531</v>
       </c>
@@ -3623,7 +3633,7 @@
       <c r="I161" s="3"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="10"/>
       <c r="D162" s="4"/>
       <c r="F162" s="4"/>
@@ -3632,7 +3642,7 @@
       <c r="I162" s="3"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="7"/>
       <c r="D163" s="4"/>
       <c r="F163" s="4"/>
@@ -3641,7 +3651,7 @@
       <c r="I163" s="3"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="6"/>
       <c r="C164" s="11"/>
       <c r="D164" s="8">
@@ -3671,12 +3681,12 @@
       <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45532</v>
       </c>
@@ -3734,7 +3744,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -3748,7 +3758,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -3762,7 +3772,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -3772,7 +3782,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -3782,7 +3792,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -3799,7 +3809,7 @@
         <v>2109.9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -3828,7 +3838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>45533</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -3866,7 +3876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
         <v>71</v>
@@ -3880,7 +3890,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -3890,7 +3900,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -3900,7 +3910,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -3917,7 +3927,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -3946,7 +3956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>45534</v>
       </c>
@@ -3966,7 +3976,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -3976,7 +3986,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -3986,7 +3996,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -3996,7 +4006,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -4006,7 +4016,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -4023,7 +4033,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -4052,7 +4062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>45535</v>
       </c>
@@ -4072,7 +4082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -4082,7 +4092,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -4092,7 +4102,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -4102,7 +4112,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -4112,7 +4122,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -4129,7 +4139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45536</v>
       </c>
@@ -4187,7 +4197,7 @@
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -4203,7 +4213,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -4215,7 +4225,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -4230,7 +4240,7 @@
         <v>167.27</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -4240,7 +4250,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -4257,7 +4267,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -4286,7 +4296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>45537</v>
       </c>
@@ -4315,7 +4325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="3" t="s">
         <v>15</v>
@@ -4334,7 +4344,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="3" t="s">
         <v>76</v>
@@ -4348,7 +4358,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -4358,7 +4368,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -4368,7 +4378,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -4385,7 +4395,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -4414,7 +4424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>45538</v>
       </c>
@@ -4439,7 +4449,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>15</v>
@@ -4457,7 +4467,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -4471,7 +4481,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -4481,7 +4491,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -4491,7 +4501,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -4508,7 +4518,7 @@
         <v>258.60000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -4537,7 +4547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45539</v>
       </c>
@@ -4557,7 +4567,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -4567,7 +4577,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -4577,7 +4587,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -4587,7 +4597,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -4597,7 +4607,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -4614,7 +4624,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -4649,7 +4659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <v>45540</v>
       </c>
@@ -4671,7 +4681,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -4683,7 +4693,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -4695,7 +4705,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -4710,7 +4720,7 @@
         <v>454.5</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -4720,7 +4730,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -4737,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
         <v>2</v>
       </c>
@@ -4766,7 +4776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="10">
         <v>45541</v>
       </c>
@@ -4783,7 +4793,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -4793,7 +4803,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -4803,7 +4813,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -4813,7 +4823,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
@@ -4823,7 +4833,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
       <c r="C81" s="11"/>
       <c r="D81" s="8">
@@ -4840,7 +4850,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
         <v>2</v>
       </c>
@@ -4869,7 +4879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="10">
         <v>45542</v>
       </c>
@@ -4886,7 +4896,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -4896,7 +4906,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -4906,7 +4916,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -4916,7 +4926,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
       <c r="C88" s="3"/>
       <c r="D88" s="4"/>
@@ -4926,7 +4936,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="6"/>
       <c r="C89" s="11"/>
       <c r="D89" s="8">
@@ -4943,7 +4953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>2</v>
       </c>
@@ -4978,7 +4988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="10">
         <v>45544</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -5020,7 +5030,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -5032,7 +5042,7 @@
       <c r="L94" s="13"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -5047,7 +5057,7 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
       <c r="C96" s="3"/>
       <c r="D96" s="4"/>
@@ -5057,7 +5067,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="6"/>
       <c r="C97" s="11"/>
       <c r="D97" s="8">
@@ -5074,7 +5084,7 @@
         <v>13.530000000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
         <v>2</v>
       </c>
@@ -5103,7 +5113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="10">
         <v>45545</v>
       </c>
@@ -5123,7 +5133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -5133,7 +5143,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -5143,7 +5153,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -5153,7 +5163,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
@@ -5163,7 +5173,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="6"/>
       <c r="C105" s="11"/>
       <c r="D105" s="8">
@@ -5180,7 +5190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>2</v>
       </c>
@@ -5209,7 +5219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="10">
         <v>45546</v>
       </c>
@@ -5225,7 +5235,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3" t="s">
         <v>87</v>
@@ -5239,7 +5249,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -5249,7 +5259,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -5259,7 +5269,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="3"/>
       <c r="D112" s="4"/>
@@ -5269,7 +5279,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="6"/>
       <c r="C113" s="11"/>
       <c r="D113" s="8">
@@ -5286,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="9" t="s">
         <v>2</v>
       </c>
@@ -5315,7 +5325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="10">
         <v>45547</v>
       </c>
@@ -5332,7 +5342,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -5347,7 +5357,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -5357,7 +5367,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -5367,7 +5377,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="7"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
@@ -5377,7 +5387,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="6"/>
       <c r="C121" s="11"/>
       <c r="D121" s="8">
@@ -5394,7 +5404,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="9" t="s">
         <v>2</v>
       </c>
@@ -5423,7 +5433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="10">
         <v>45549</v>
       </c>
@@ -5448,7 +5458,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -5458,7 +5468,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -5468,7 +5478,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -5478,7 +5488,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="7"/>
       <c r="C128" s="3"/>
       <c r="D128" s="4"/>
@@ -5488,7 +5498,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="6"/>
       <c r="C129" s="11"/>
       <c r="D129" s="8">
@@ -5505,7 +5515,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="9" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="10">
         <v>45550</v>
       </c>
@@ -5554,7 +5564,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -5568,7 +5578,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -5578,7 +5588,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -5588,7 +5598,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="7"/>
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
@@ -5598,7 +5608,7 @@
       <c r="I136" s="3"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="6"/>
       <c r="C137" s="11"/>
       <c r="D137" s="8">
@@ -5615,7 +5625,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="9" t="s">
         <v>2</v>
       </c>
@@ -5644,7 +5654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="10">
         <v>45551</v>
       </c>
@@ -5660,7 +5670,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -5670,7 +5680,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -5680,7 +5690,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -5690,7 +5700,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="7"/>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
@@ -5700,7 +5710,7 @@
       <c r="I144" s="3"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="6"/>
       <c r="C145" s="11"/>
       <c r="D145" s="8">
@@ -5717,7 +5727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="9" t="s">
         <v>2</v>
       </c>
@@ -5752,7 +5762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="10">
         <v>45552</v>
       </c>
@@ -5779,7 +5789,7 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="3" t="s">
         <v>97</v>
@@ -5799,7 +5809,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -5811,7 +5821,7 @@
       <c r="L150" s="13"/>
       <c r="M150" s="14"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -5826,7 +5836,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
@@ -5836,7 +5846,7 @@
       <c r="I152" s="3"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B153" s="6"/>
       <c r="C153" s="11"/>
       <c r="D153" s="8">
@@ -5853,7 +5863,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="9" t="s">
         <v>2</v>
       </c>
@@ -5882,7 +5892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="10">
         <v>45553</v>
       </c>
@@ -5899,7 +5909,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -5909,7 +5919,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -5919,7 +5929,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -5929,7 +5939,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="7"/>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
@@ -5939,7 +5949,7 @@
       <c r="I160" s="3"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B161" s="6"/>
       <c r="C161" s="11"/>
       <c r="D161" s="8">
@@ -5956,7 +5966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="9" t="s">
         <v>2</v>
       </c>
@@ -5991,7 +6001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="10">
         <v>45554</v>
       </c>
@@ -6026,7 +6036,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="3" t="s">
         <v>92</v>
@@ -6046,7 +6056,7 @@
       <c r="L165" s="3"/>
       <c r="M165" s="4"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="3" t="s">
         <v>100</v>
@@ -6062,7 +6072,7 @@
       <c r="L166" s="13"/>
       <c r="M166" s="14"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -6077,7 +6087,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
       <c r="C168" s="3"/>
       <c r="D168" s="4"/>
@@ -6087,7 +6097,7 @@
       <c r="I168" s="3"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B169" s="6"/>
       <c r="C169" s="11"/>
       <c r="D169" s="8">
@@ -6104,7 +6114,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="9" t="s">
         <v>2</v>
       </c>
@@ -6133,7 +6143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="10">
         <v>45555</v>
       </c>
@@ -6150,7 +6160,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
@@ -6165,7 +6175,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -6175,7 +6185,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -6185,7 +6195,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="7"/>
       <c r="C176" s="3"/>
       <c r="D176" s="4"/>
@@ -6195,7 +6205,7 @@
       <c r="I176" s="3"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B177" s="6"/>
       <c r="C177" s="11"/>
       <c r="D177" s="8">
@@ -6212,7 +6222,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B179" s="9" t="s">
         <v>2</v>
       </c>
@@ -6241,7 +6251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B180" s="10">
         <v>45556</v>
       </c>
@@ -6258,7 +6268,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -6268,7 +6278,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -6278,7 +6288,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -6288,7 +6298,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B184" s="7"/>
       <c r="C184" s="3"/>
       <c r="D184" s="4"/>
@@ -6298,7 +6308,7 @@
       <c r="I184" s="3"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B185" s="6"/>
       <c r="C185" s="11"/>
       <c r="D185" s="8">
@@ -6315,7 +6325,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B187" s="9" t="s">
         <v>2</v>
       </c>
@@ -6350,7 +6360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B188" s="10">
         <v>45558</v>
       </c>
@@ -6377,7 +6387,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -6398,7 +6408,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -6410,7 +6420,7 @@
       <c r="L190" s="13"/>
       <c r="M190" s="14"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -6425,7 +6435,7 @@
         <v>177.85</v>
       </c>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B192" s="7"/>
       <c r="C192" s="3"/>
       <c r="D192" s="4"/>
@@ -6435,7 +6445,7 @@
       <c r="I192" s="3"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193" s="6"/>
       <c r="C193" s="11"/>
       <c r="D193" s="8">
@@ -6452,7 +6462,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="9" t="s">
         <v>2</v>
       </c>
@@ -6481,7 +6491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="10">
         <v>45559</v>
       </c>
@@ -6497,7 +6507,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -6507,7 +6517,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -6517,7 +6527,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -6527,7 +6537,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200" s="7"/>
       <c r="C200" s="3"/>
       <c r="D200" s="4"/>
@@ -6537,7 +6547,7 @@
       <c r="I200" s="3"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B201" s="6"/>
       <c r="C201" s="11"/>
       <c r="D201" s="8">
@@ -6554,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" s="9" t="s">
         <v>2</v>
       </c>
@@ -6583,7 +6593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" s="10">
         <v>45560</v>
       </c>
@@ -6599,7 +6609,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -6609,7 +6619,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -6619,7 +6629,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -6629,7 +6639,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B208" s="7"/>
       <c r="C208" s="3"/>
       <c r="D208" s="4"/>
@@ -6639,7 +6649,7 @@
       <c r="I208" s="3"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B209" s="6"/>
       <c r="C209" s="11"/>
       <c r="D209" s="8">
@@ -6656,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B211" s="9" t="s">
         <v>2</v>
       </c>
@@ -6685,7 +6695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B212" s="10">
         <v>45561</v>
       </c>
@@ -6710,7 +6720,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="3" t="s">
         <v>103</v>
@@ -6729,7 +6739,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -6739,7 +6749,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -6749,7 +6759,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B216" s="7"/>
       <c r="C216" s="3"/>
       <c r="D216" s="4"/>
@@ -6763,7 +6773,7 @@
         <v>323.10000000000002</v>
       </c>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B217" s="6"/>
       <c r="C217" s="11"/>
       <c r="D217" s="8">
@@ -6800,9 +6810,9 @@
       <selection activeCell="L66" sqref="L66:M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -6831,7 +6841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45562</v>
       </c>
@@ -6851,7 +6861,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -6865,7 +6875,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -6879,7 +6889,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -6889,7 +6899,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -6899,7 +6909,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -6916,7 +6926,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -6945,7 +6955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>45563</v>
       </c>
@@ -6966,7 +6976,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -6985,7 +6995,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -6995,7 +7005,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -7005,7 +7015,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -7015,7 +7025,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -7032,7 +7042,7 @@
         <v>418.34</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -7061,7 +7071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>45564</v>
       </c>
@@ -7077,7 +7087,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -7087,7 +7097,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -7097,7 +7107,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -7107,7 +7117,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -7117,7 +7127,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -7134,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>45565</v>
       </c>
@@ -7179,7 +7189,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
         <v>108</v>
@@ -7193,7 +7203,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -7203,7 +7213,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -7213,7 +7223,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -7223,7 +7233,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -7240,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -7269,7 +7279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45566</v>
       </c>
@@ -7294,7 +7304,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
         <v>86</v>
@@ -7308,7 +7318,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -7318,7 +7328,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -7328,7 +7338,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -7338,7 +7348,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -7355,7 +7365,7 @@
         <v>355.4</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -7390,7 +7400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>45567</v>
       </c>
@@ -7417,7 +7427,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -7433,7 +7443,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -7445,7 +7455,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -7460,7 +7470,7 @@
         <v>54.059999999999995</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -7470,7 +7480,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -7487,7 +7497,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -7516,7 +7526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>45568</v>
       </c>
@@ -7536,7 +7546,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>64</v>
@@ -7550,7 +7560,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -7560,7 +7570,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -7570,7 +7580,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -7580,7 +7590,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -7597,7 +7607,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -7632,7 +7642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45569</v>
       </c>
@@ -7654,7 +7664,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -7670,7 +7680,7 @@
         <v>606.65</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -7682,7 +7692,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -7697,7 +7707,7 @@
         <v>687.25</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -7707,7 +7717,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -7724,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -7759,7 +7769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <v>45570</v>
       </c>
@@ -7785,7 +7795,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -7797,7 +7807,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -7809,7 +7819,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -7824,7 +7834,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -7834,7 +7844,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -7851,7 +7861,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="10">
         <v>45571</v>
       </c>
@@ -7897,7 +7907,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
@@ -7912,7 +7922,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -7922,7 +7932,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -7932,7 +7942,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -7942,7 +7952,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -7959,7 +7969,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -7988,7 +7998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <v>45572</v>
       </c>
@@ -8004,7 +8014,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="3"/>
       <c r="D84" s="4"/>
@@ -8014,7 +8024,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -8024,7 +8034,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -8034,7 +8044,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -8044,7 +8054,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -8061,7 +8071,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -8096,7 +8106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>45573</v>
       </c>
@@ -8127,7 +8137,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -8139,7 +8149,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -8151,7 +8161,7 @@
       <c r="L93" s="13"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -8166,7 +8176,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -8176,7 +8186,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -8193,7 +8203,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -8228,7 +8238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <v>45574</v>
       </c>
@@ -8250,7 +8260,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -8262,7 +8272,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -8274,7 +8284,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -8289,7 +8299,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -8299,7 +8309,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -8316,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -8345,7 +8355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45575</v>
       </c>
@@ -8370,7 +8380,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>118</v>
@@ -8384,7 +8394,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -8394,7 +8404,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -8404,7 +8414,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -8414,7 +8424,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -8431,7 +8441,7 @@
         <v>108.63</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -8460,7 +8470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="10">
         <v>45576</v>
       </c>
@@ -8485,7 +8495,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
@@ -8499,7 +8509,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -8509,7 +8519,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -8519,7 +8529,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -8529,7 +8539,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -8546,7 +8556,7 @@
         <v>158.65</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -8575,7 +8585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="10">
         <v>45577</v>
       </c>
@@ -8596,7 +8606,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
@@ -8606,7 +8616,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -8616,7 +8626,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -8626,7 +8636,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -8636,7 +8646,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -8653,7 +8663,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -8682,7 +8692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="10">
         <v>45579</v>
       </c>
@@ -8698,7 +8708,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
       <c r="C132" s="3" t="s">
         <v>14</v>
@@ -8712,7 +8722,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -8722,7 +8732,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -8732,7 +8742,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -8742,7 +8752,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -8759,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -8788,7 +8798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="10">
         <v>45580</v>
       </c>
@@ -8809,7 +8819,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
@@ -8819,7 +8829,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -8829,7 +8839,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -8839,7 +8849,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -8849,7 +8859,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -8866,7 +8876,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -8895,7 +8905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="10">
         <v>45581</v>
       </c>
@@ -8920,7 +8930,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
       <c r="C148" s="3" t="s">
         <v>15</v>
@@ -8934,7 +8944,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -8944,7 +8954,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -8954,7 +8964,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -8964,7 +8974,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -8981,7 +8991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -9010,7 +9020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>45582</v>
       </c>
@@ -9031,7 +9041,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
       <c r="C156" s="3" t="s">
         <v>15</v>
@@ -9045,7 +9055,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -9055,7 +9065,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -9065,7 +9075,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -9075,7 +9085,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -9092,7 +9102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -9127,7 +9137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="10">
         <v>45583</v>
       </c>
@@ -9145,7 +9155,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
@@ -9161,7 +9171,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -9173,7 +9183,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -9188,7 +9198,7 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -9198,7 +9208,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -9215,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -9244,7 +9254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="10">
         <v>45584</v>
       </c>
@@ -9264,7 +9274,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
@@ -9278,7 +9288,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
@@ -9288,7 +9298,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -9298,7 +9308,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -9308,7 +9318,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8">
@@ -9325,7 +9335,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -9360,7 +9370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B179" s="10">
         <v>45586</v>
       </c>
@@ -9382,7 +9392,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -9394,7 +9404,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -9406,7 +9416,7 @@
       <c r="L181" s="13"/>
       <c r="M181" s="14"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -9421,7 +9431,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -9431,7 +9441,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -9448,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -9483,7 +9493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B187" s="10">
         <v>45587</v>
       </c>
@@ -9510,7 +9520,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
       <c r="C188" s="3" t="s">
         <v>64</v>
@@ -9526,7 +9536,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -9538,7 +9548,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -9553,7 +9563,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -9563,7 +9573,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -9580,7 +9590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -9615,7 +9625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B195" s="10">
         <v>45588</v>
       </c>
@@ -9646,7 +9656,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
       <c r="C196" s="3" t="s">
         <v>129</v>
@@ -9662,7 +9672,7 @@
       <c r="L196" s="3"/>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="3" t="s">
         <v>130</v>
@@ -9679,7 +9689,7 @@
       <c r="L197" s="13"/>
       <c r="M197" s="14"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -9694,7 +9704,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -9704,7 +9714,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -9721,7 +9731,7 @@
         <v>995.61</v>
       </c>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -9750,7 +9760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B203" s="10">
         <v>45588</v>
       </c>
@@ -9766,7 +9776,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -9776,7 +9786,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -9786,7 +9796,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -9796,7 +9806,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -9806,7 +9816,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -9823,7 +9833,7 @@
         <v>117.45</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
@@ -9852,7 +9862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B211" s="10">
         <v>45589</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
       <c r="C212" s="3"/>
       <c r="D212" s="4"/>
@@ -9878,7 +9888,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -9888,7 +9898,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -9898,7 +9908,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -9908,7 +9918,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B216" s="6"/>
       <c r="C216" s="11"/>
       <c r="D216" s="8">
@@ -9925,7 +9935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
@@ -9954,7 +9964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B219" s="10">
         <v>45591</v>
       </c>
@@ -9971,7 +9981,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
       <c r="C220" s="3"/>
       <c r="D220" s="4"/>
@@ -9981,7 +9991,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -9991,7 +10001,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -10001,7 +10011,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -10011,7 +10021,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B224" s="6"/>
       <c r="C224" s="11"/>
       <c r="D224" s="8">
@@ -10028,7 +10038,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -10057,7 +10067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B227" s="10">
         <v>45592</v>
       </c>
@@ -10073,7 +10083,7 @@
       <c r="I227" s="3"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
       <c r="C228" s="3"/>
       <c r="D228" s="4"/>
@@ -10083,7 +10093,7 @@
       <c r="I228" s="3"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -10093,7 +10103,7 @@
       <c r="I229" s="3"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -10103,7 +10113,7 @@
       <c r="I230" s="3"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -10113,7 +10123,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B232" s="6"/>
       <c r="C232" s="11"/>
       <c r="D232" s="8">
@@ -10130,7 +10140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
@@ -10159,7 +10169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B235" s="10">
         <v>45593</v>
       </c>
@@ -10180,7 +10190,7 @@
       <c r="I235" s="3"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
       <c r="C236" s="3" t="s">
         <v>15</v>
@@ -10194,7 +10204,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
       <c r="C237" s="3"/>
       <c r="D237" s="4"/>
@@ -10204,7 +10214,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
       <c r="C238" s="3"/>
       <c r="D238" s="4"/>
@@ -10214,7 +10224,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
       <c r="C239" s="3"/>
       <c r="D239" s="4"/>
@@ -10224,7 +10234,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B240" s="6"/>
       <c r="C240" s="11"/>
       <c r="D240" s="8">
@@ -10254,9 +10264,9 @@
       <selection activeCell="L34" sqref="L34:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -10285,7 +10295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45593</v>
       </c>
@@ -10305,7 +10315,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -10319,7 +10329,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -10333,7 +10343,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -10347,7 +10357,7 @@
         <v>111.45</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -10361,7 +10371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -10378,7 +10388,7 @@
         <v>2966.45</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -10407,7 +10417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>45594</v>
       </c>
@@ -10423,7 +10433,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -10433,7 +10443,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -10443,7 +10453,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -10453,7 +10463,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -10463,7 +10473,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -10480,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -10509,7 +10519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>45595</v>
       </c>
@@ -10525,7 +10535,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>137</v>
@@ -10539,7 +10549,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -10549,7 +10559,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -10559,7 +10569,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -10569,7 +10579,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -10586,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -10615,7 +10625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>45596</v>
       </c>
@@ -10636,7 +10646,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -10646,7 +10656,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -10656,7 +10666,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -10666,7 +10676,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -10676,7 +10686,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -10693,7 +10703,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -10728,7 +10738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45597</v>
       </c>
@@ -10754,7 +10764,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -10766,7 +10776,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -10778,7 +10788,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -10793,7 +10803,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -10803,7 +10813,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -10820,7 +10830,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -10855,7 +10865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>45598</v>
       </c>
@@ -10877,7 +10887,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -10889,7 +10899,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -10901,7 +10911,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -10916,7 +10926,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -10926,7 +10936,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -10943,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -10972,7 +10982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>45599</v>
       </c>
@@ -10992,7 +11002,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="3" t="s">
         <v>15</v>
@@ -11006,7 +11016,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -11016,7 +11026,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -11026,7 +11036,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -11036,7 +11046,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -11053,7 +11063,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -11082,7 +11092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45600</v>
       </c>
@@ -11098,7 +11108,7 @@
         <v>439.7</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -11112,7 +11122,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -11122,7 +11132,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -11132,7 +11142,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -11142,7 +11152,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -11159,7 +11169,7 @@
         <v>1319.7</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -11188,7 +11198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <v>45601</v>
       </c>
@@ -11205,7 +11215,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -11220,7 +11230,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -11230,7 +11240,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -11240,7 +11250,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -11250,7 +11260,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -11267,7 +11277,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -11296,7 +11306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="10">
         <v>45602</v>
       </c>
@@ -11325,7 +11335,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="3" t="s">
         <v>144</v>
@@ -11339,7 +11349,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -11349,7 +11359,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -11359,7 +11369,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -11369,7 +11379,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -11386,7 +11396,7 @@
         <v>172.48</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -11415,7 +11425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <v>45603</v>
       </c>
@@ -11440,7 +11450,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -11458,7 +11468,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="3" t="s">
         <v>26</v>
@@ -11472,7 +11482,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -11482,7 +11492,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -11492,7 +11502,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -11509,7 +11519,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -11538,7 +11548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>45604</v>
       </c>
@@ -11555,7 +11565,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -11565,7 +11575,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -11575,7 +11585,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -11585,7 +11595,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -11595,7 +11605,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -11612,7 +11622,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -11641,7 +11651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <v>45605</v>
       </c>
@@ -11658,7 +11668,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -11673,7 +11683,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -11683,7 +11693,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -11693,7 +11703,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -11703,7 +11713,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -11720,7 +11730,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -11749,7 +11759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45606</v>
       </c>
@@ -11770,7 +11780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
@@ -11785,7 +11795,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -11795,7 +11805,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -11805,7 +11815,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -11815,7 +11825,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -11832,7 +11842,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -11861,7 +11871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="10">
         <v>45607</v>
       </c>
@@ -11882,7 +11892,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="3" t="s">
         <v>64</v>
@@ -11896,7 +11906,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -11906,7 +11916,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -11916,7 +11926,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -11926,7 +11936,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -11943,7 +11953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -11972,7 +11982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="10">
         <v>45608</v>
       </c>
@@ -11997,7 +12007,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
       <c r="C124" s="3" t="s">
         <v>15</v>
@@ -12011,7 +12021,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -12021,7 +12031,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -12031,7 +12041,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -12041,7 +12051,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -12058,7 +12068,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -12087,7 +12097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="10">
         <v>45609</v>
       </c>
@@ -12103,7 +12113,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
       <c r="C132" s="3" t="s">
         <v>15</v>
@@ -12117,7 +12127,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -12127,7 +12137,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -12137,7 +12147,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -12147,7 +12157,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -12164,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -12193,7 +12203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="10">
         <v>45610</v>
       </c>
@@ -12209,7 +12219,7 @@
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="3" t="s">
         <v>152</v>
@@ -12223,7 +12233,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
       <c r="C141" s="3" t="s">
         <v>153</v>
@@ -12237,7 +12247,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -12247,7 +12257,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -12257,7 +12267,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -12274,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -12303,7 +12313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="10">
         <v>45611</v>
       </c>
@@ -12319,7 +12329,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
@@ -12329,7 +12339,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -12339,7 +12349,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -12349,7 +12359,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -12359,7 +12369,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -12376,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -12411,7 +12421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>45612</v>
       </c>
@@ -12433,7 +12443,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
@@ -12445,7 +12455,7 @@
       <c r="L156" s="3"/>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -12457,7 +12467,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="14"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -12472,7 +12482,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -12482,7 +12492,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -12499,7 +12509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -12534,7 +12544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="10">
         <v>45613</v>
       </c>
@@ -12557,7 +12567,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
@@ -12569,7 +12579,7 @@
       <c r="L164" s="3"/>
       <c r="M164" s="4"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -12581,7 +12591,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="14"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -12596,7 +12606,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -12606,7 +12616,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -12623,7 +12633,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -12658,7 +12668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="10">
         <v>45614</v>
       </c>
@@ -12685,7 +12695,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
       <c r="C172" s="3" t="s">
         <v>15</v>
@@ -12705,7 +12715,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="3" t="s">
         <v>153</v>
@@ -12721,7 +12731,7 @@
       <c r="L173" s="13"/>
       <c r="M173" s="14"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -12736,7 +12746,7 @@
         <v>60.11</v>
       </c>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -12746,7 +12756,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8">
@@ -12763,7 +12773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -12792,7 +12802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B179" s="10">
         <v>45615</v>
       </c>
@@ -12812,7 +12822,7 @@
       <c r="I179" s="3"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -12822,7 +12832,7 @@
       <c r="I180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -12832,7 +12842,7 @@
       <c r="I181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -12842,7 +12852,7 @@
       <c r="I182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -12852,7 +12862,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -12869,7 +12879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -12904,7 +12914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B187" s="10">
         <v>45616</v>
       </c>
@@ -12926,7 +12936,7 @@
         <v>341.74</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
       <c r="C188" s="3"/>
       <c r="D188" s="4"/>
@@ -12938,7 +12948,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -12950,7 +12960,7 @@
       <c r="L189" s="13"/>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -12965,7 +12975,7 @@
         <v>341.74</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -12975,7 +12985,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -12992,7 +13002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -13021,7 +13031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B195" s="10">
         <v>45617</v>
       </c>
@@ -13046,7 +13056,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
       <c r="C196" s="3"/>
       <c r="D196" s="4"/>
@@ -13056,7 +13066,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -13066,7 +13076,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -13076,7 +13086,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -13086,7 +13096,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -13103,7 +13113,7 @@
         <v>104.9</v>
       </c>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -13138,7 +13148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B203" s="10">
         <v>45618</v>
       </c>
@@ -13165,7 +13175,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -13177,7 +13187,7 @@
       <c r="L204" s="3"/>
       <c r="M204" s="4"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -13189,7 +13199,7 @@
       <c r="L205" s="13"/>
       <c r="M205" s="14"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -13204,7 +13214,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -13214,7 +13224,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -13231,7 +13241,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
@@ -13260,7 +13270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B211" s="10">
         <v>45620</v>
       </c>
@@ -13276,7 +13286,7 @@
       <c r="I211" s="3"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
       <c r="C212" s="3"/>
       <c r="D212" s="4"/>
@@ -13286,7 +13296,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -13296,7 +13306,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -13306,7 +13316,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -13316,7 +13326,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B216" s="6"/>
       <c r="C216" s="11"/>
       <c r="D216" s="8">
@@ -13333,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
@@ -13362,7 +13372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B219" s="10">
         <v>45621</v>
       </c>
@@ -13378,7 +13388,7 @@
       <c r="I219" s="3"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
       <c r="C220" s="3" t="s">
         <v>100</v>
@@ -13392,7 +13402,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -13402,7 +13412,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -13412,7 +13422,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -13422,7 +13432,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B224" s="6"/>
       <c r="C224" s="11"/>
       <c r="D224" s="8">
@@ -13439,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -13474,7 +13484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B227" s="10">
         <v>45622</v>
       </c>
@@ -13501,7 +13511,7 @@
         <v>47.54</v>
       </c>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
       <c r="C228" s="3" t="s">
         <v>79</v>
@@ -13517,7 +13527,7 @@
       <c r="L228" s="3"/>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -13529,7 +13539,7 @@
       <c r="L229" s="13"/>
       <c r="M229" s="14"/>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -13544,7 +13554,7 @@
         <v>47.54</v>
       </c>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -13554,7 +13564,7 @@
       <c r="I231" s="3"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B232" s="6"/>
       <c r="C232" s="11"/>
       <c r="D232" s="8">
@@ -13571,7 +13581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B234" s="9" t="s">
         <v>2</v>
       </c>
@@ -13600,7 +13610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B235" s="10">
         <v>45623</v>
       </c>
@@ -13624,7 +13634,7 @@
         <v>74.06</v>
       </c>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
       <c r="C236" s="3"/>
       <c r="D236" s="4"/>
@@ -13634,7 +13644,7 @@
       <c r="I236" s="3"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
       <c r="C237" s="3"/>
       <c r="D237" s="4"/>
@@ -13644,7 +13654,7 @@
       <c r="I237" s="3"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
       <c r="C238" s="3"/>
       <c r="D238" s="4"/>
@@ -13654,7 +13664,7 @@
       <c r="I238" s="3"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
       <c r="C239" s="3"/>
       <c r="D239" s="4"/>
@@ -13664,7 +13674,7 @@
       <c r="I239" s="3"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B240" s="6"/>
       <c r="C240" s="11"/>
       <c r="D240" s="8">
@@ -13681,7 +13691,7 @@
         <v>84.06</v>
       </c>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B242" s="9" t="s">
         <v>2</v>
       </c>
@@ -13710,7 +13720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B243" s="10">
         <v>45624</v>
       </c>
@@ -13731,7 +13741,7 @@
       <c r="I243" s="3"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B244" s="7"/>
       <c r="C244" s="3" t="s">
         <v>160</v>
@@ -13750,7 +13760,7 @@
       <c r="I244" s="3"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B245" s="7"/>
       <c r="C245" s="3"/>
       <c r="D245" s="4"/>
@@ -13760,7 +13770,7 @@
       <c r="I245" s="3"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B246" s="7"/>
       <c r="C246" s="3"/>
       <c r="D246" s="4"/>
@@ -13770,7 +13780,7 @@
       <c r="I246" s="3"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B247" s="7"/>
       <c r="C247" s="3"/>
       <c r="D247" s="4"/>
@@ -13780,7 +13790,7 @@
       <c r="I247" s="3"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B248" s="6"/>
       <c r="C248" s="11"/>
       <c r="D248" s="8">
@@ -13810,9 +13820,9 @@
       <selection activeCell="R219" sqref="R219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -13841,7 +13851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45625</v>
       </c>
@@ -13865,7 +13875,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -13879,7 +13889,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -13893,7 +13903,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -13907,7 +13917,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -13917,7 +13927,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -13934,7 +13944,7 @@
         <v>3073.85</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
@@ -13969,7 +13979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>45626</v>
       </c>
@@ -13996,7 +14006,7 @@
         <v>18.54</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -14017,7 +14027,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
@@ -14033,7 +14043,7 @@
         <v>37.81</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -14048,7 +14058,7 @@
         <v>93.43</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -14058,7 +14068,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8">
@@ -14075,7 +14085,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -14110,7 +14120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>45628</v>
       </c>
@@ -14141,7 +14151,7 @@
         <v>193.26</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>165</v>
@@ -14161,7 +14171,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="3" t="s">
         <v>87</v>
@@ -14177,7 +14187,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -14192,7 +14202,7 @@
         <v>193.26</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -14202,7 +14212,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -14219,7 +14229,7 @@
         <v>255.71</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
@@ -14254,7 +14264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>45629</v>
       </c>
@@ -14280,7 +14290,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
@@ -14292,7 +14302,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -14304,7 +14314,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
@@ -14319,7 +14329,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -14329,7 +14339,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8">
@@ -14346,7 +14356,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
@@ -14375,7 +14385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>45630</v>
       </c>
@@ -14396,7 +14406,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
         <v>15</v>
@@ -14410,7 +14420,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="3" t="s">
         <v>15</v>
@@ -14424,7 +14434,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -14434,7 +14444,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -14444,7 +14454,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8">
@@ -14461,7 +14471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
@@ -14490,7 +14500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>45631</v>
       </c>
@@ -14510,7 +14520,7 @@
         <v>77.94</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="3" t="s">
         <v>169</v>
@@ -14524,7 +14534,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -14534,7 +14544,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -14544,7 +14554,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -14554,7 +14564,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8">
@@ -14571,7 +14581,7 @@
         <v>77.94</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
@@ -14600,7 +14610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="10">
         <v>45632</v>
       </c>
@@ -14616,7 +14626,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -14626,7 +14636,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -14636,7 +14646,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -14646,7 +14656,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -14656,7 +14666,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8">
@@ -14673,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>2</v>
       </c>
@@ -14708,7 +14718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
         <v>45633</v>
       </c>
@@ -14731,7 +14741,7 @@
         <v>130.12</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
@@ -14743,7 +14753,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -14755,7 +14765,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
@@ -14770,7 +14780,7 @@
         <v>130.12</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
@@ -14780,7 +14790,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="8">
@@ -14797,7 +14807,7 @@
         <v>42.22</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>2</v>
       </c>
@@ -14832,7 +14842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="10">
         <v>45634</v>
       </c>
@@ -14855,7 +14865,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4"/>
@@ -14871,7 +14881,7 @@
         <v>142.78</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
@@ -14883,7 +14893,7 @@
       <c r="L69" s="13"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -14898,7 +14908,7 @@
         <v>561.78</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4"/>
@@ -14908,7 +14918,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="8">
@@ -14925,7 +14935,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>2</v>
       </c>
@@ -14954,7 +14964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="10">
         <v>45635</v>
       </c>
@@ -14979,7 +14989,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
@@ -14989,7 +14999,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
@@ -14999,7 +15009,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4"/>
@@ -15009,7 +15019,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
@@ -15019,7 +15029,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="8">
@@ -15036,7 +15046,7 @@
         <v>108.63</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>2</v>
       </c>
@@ -15065,7 +15075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="10">
         <v>45636</v>
       </c>
@@ -15085,7 +15095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="3" t="s">
         <v>15</v>
@@ -15099,7 +15109,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
@@ -15109,7 +15119,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
@@ -15119,7 +15129,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="4"/>
@@ -15129,7 +15139,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="8">
@@ -15146,7 +15156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>2</v>
       </c>
@@ -15175,7 +15185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>45637</v>
       </c>
@@ -15196,7 +15206,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
@@ -15206,7 +15216,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4"/>
@@ -15216,7 +15226,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
@@ -15226,7 +15236,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4"/>
@@ -15236,7 +15246,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="8">
@@ -15253,7 +15263,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -15288,7 +15298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <v>45638</v>
       </c>
@@ -15306,7 +15316,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -15322,7 +15332,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -15334,7 +15344,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -15349,7 +15359,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -15359,7 +15369,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -15376,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -15405,7 +15415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45639</v>
       </c>
@@ -15426,7 +15436,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>15</v>
@@ -15440,7 +15450,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -15450,7 +15460,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -15460,7 +15470,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -15470,7 +15480,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -15487,7 +15497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>2</v>
       </c>
@@ -15516,7 +15526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="10">
         <v>45640</v>
       </c>
@@ -15533,7 +15543,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4"/>
@@ -15543,7 +15553,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="4"/>
@@ -15553,7 +15563,7 @@
       <c r="I117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="4"/>
@@ -15563,7 +15573,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4"/>
@@ -15573,7 +15583,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
       <c r="D120" s="8">
@@ -15590,7 +15600,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>2</v>
       </c>
@@ -15625,7 +15635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="10">
         <v>45641</v>
       </c>
@@ -15647,7 +15657,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4"/>
@@ -15663,7 +15673,7 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4"/>
@@ -15679,7 +15689,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4"/>
@@ -15694,7 +15704,7 @@
         <v>78.56</v>
       </c>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="4"/>
@@ -15704,7 +15714,7 @@
       <c r="I127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
       <c r="D128" s="8">
@@ -15721,7 +15731,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -15750,7 +15760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="10">
         <v>45642</v>
       </c>
@@ -15770,7 +15780,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
@@ -15784,7 +15794,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -15794,7 +15804,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -15804,7 +15814,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -15814,7 +15824,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -15831,7 +15841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -15860,7 +15870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="10">
         <v>45643</v>
       </c>
@@ -15880,7 +15890,7 @@
         <v>80.38</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="3"/>
       <c r="D140" s="4"/>
@@ -15890,7 +15900,7 @@
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -15900,7 +15910,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -15910,7 +15920,7 @@
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -15920,7 +15930,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -15937,7 +15947,7 @@
         <v>80.38</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -15966,7 +15976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="10">
         <v>45644</v>
       </c>
@@ -15982,7 +15992,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
@@ -15996,7 +16006,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -16006,7 +16016,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -16016,7 +16026,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -16026,7 +16036,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -16043,7 +16053,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -16072,7 +16082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>45645</v>
       </c>
@@ -16097,7 +16107,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
       <c r="C156" s="3" t="s">
         <v>96</v>
@@ -16111,7 +16121,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="3" t="s">
         <v>132</v>
@@ -16125,7 +16135,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="3" t="s">
         <v>182</v>
@@ -16139,7 +16149,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -16149,7 +16159,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -16166,7 +16176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -16195,7 +16205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="10">
         <v>45646</v>
       </c>
@@ -16216,7 +16226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="4"/>
@@ -16226,7 +16236,7 @@
       <c r="I164" s="3"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -16236,7 +16246,7 @@
       <c r="I165" s="3"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -16246,7 +16256,7 @@
       <c r="I166" s="3"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -16256,7 +16266,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -16273,7 +16283,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -16302,7 +16312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="10">
         <v>45647</v>
       </c>
@@ -16318,7 +16328,7 @@
       <c r="I171" s="3"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
@@ -16328,7 +16338,7 @@
       <c r="I172" s="3"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
@@ -16338,7 +16348,7 @@
       <c r="I173" s="3"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="4"/>
@@ -16348,7 +16358,7 @@
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4"/>
@@ -16358,7 +16368,7 @@
       <c r="I175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
       <c r="D176" s="8">
@@ -16375,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
@@ -16410,7 +16420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B179" s="10">
         <v>45648</v>
       </c>
@@ -16437,7 +16447,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="4"/>
@@ -16457,7 +16467,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="4"/>
@@ -16473,7 +16483,7 @@
         <v>157.47</v>
       </c>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
@@ -16488,7 +16498,7 @@
         <v>217.57999999999998</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="4"/>
@@ -16498,7 +16508,7 @@
       <c r="I183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
       <c r="D184" s="8">
@@ -16515,7 +16525,7 @@
         <v>153.82</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -16544,7 +16554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B187" s="10">
         <v>45649</v>
       </c>
@@ -16560,7 +16570,7 @@
       <c r="I187" s="3"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
       <c r="C188" s="3"/>
       <c r="D188" s="4"/>
@@ -16570,7 +16580,7 @@
       <c r="I188" s="3"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="4"/>
@@ -16580,7 +16590,7 @@
       <c r="I189" s="3"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="4"/>
@@ -16590,7 +16600,7 @@
       <c r="I190" s="3"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="4"/>
@@ -16600,7 +16610,7 @@
       <c r="I191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
       <c r="D192" s="8">
@@ -16617,7 +16627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -16646,7 +16656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="10">
         <v>45650</v>
       </c>
@@ -16667,7 +16677,7 @@
       <c r="I195" s="3"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
       <c r="C196" s="3"/>
       <c r="D196" s="4"/>
@@ -16682,7 +16692,7 @@
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -16692,7 +16702,7 @@
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -16702,7 +16712,7 @@
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -16712,7 +16722,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -16729,7 +16739,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -16758,7 +16768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" s="10">
         <v>45651</v>
       </c>
@@ -16770,7 +16780,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -16780,7 +16790,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -16790,7 +16800,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -16800,7 +16810,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -16810,7 +16820,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -16827,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210" s="9" t="s">
         <v>2</v>
       </c>
@@ -16856,7 +16866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B211" s="10">
         <v>45652</v>
       </c>
@@ -16876,7 +16886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
       <c r="C212" s="3" t="s">
         <v>189</v>
@@ -16890,7 +16900,7 @@
       <c r="I212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -16900,7 +16910,7 @@
       <c r="I213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -16910,7 +16920,7 @@
       <c r="I214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -16920,7 +16930,7 @@
       <c r="I215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B216" s="6"/>
       <c r="C216" s="11"/>
       <c r="D216" s="8">
@@ -16937,7 +16947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B218" s="9" t="s">
         <v>2</v>
       </c>
@@ -16966,7 +16976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B219" s="10">
         <v>45653</v>
       </c>
@@ -16986,7 +16996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
       <c r="C220" s="3"/>
       <c r="D220" s="4"/>
@@ -16996,7 +17006,7 @@
       <c r="I220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -17006,7 +17016,7 @@
       <c r="I221" s="3"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -17016,7 +17026,7 @@
       <c r="I222" s="3"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -17026,7 +17036,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B224" s="6"/>
       <c r="C224" s="11"/>
       <c r="D224" s="8">
@@ -17050,15 +17060,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BBEC7-45C4-47C0-9B30-DAF96A3FD381}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -17087,7 +17097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <v>45653</v>
       </c>
@@ -17108,7 +17118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -17122,7 +17132,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -17136,7 +17146,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -17150,7 +17160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -17160,7 +17170,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8">
@@ -17177,6 +17187,439 @@
         <v>2426</v>
       </c>
     </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>45660</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="4">
+        <v>41.9</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8">
+        <f>SUM(D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12">
+        <f>SUM(J11:J15,F11,H11)</f>
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>45662</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" s="4">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8">
+        <f>SUM(D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="12">
+        <f>SUM(J19:J23,F19,H19)</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
+        <v>45663</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8">
+        <f>SUM(D27)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="12">
+        <f>SUM(J27:J31,F27,H27)</f>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="10">
+        <v>45664</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8">
+        <f>SUM(D35)</f>
+        <v>14.5</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="12">
+        <f>SUM(J35:J39,F35,H35)</f>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C133AE-CF51-4B19-B3A6-5796F822767B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B7944-D4FD-4FAF-8185-1FE1765A20FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="196">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -618,6 +618,15 @@
   </si>
   <si>
     <t>Murni</t>
+  </si>
+  <si>
+    <t>立牌</t>
+  </si>
+  <si>
+    <t>YC</t>
+  </si>
+  <si>
+    <t>subway</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -816,7 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17060,10 +17068,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BBEC7-45C4-47C0-9B30-DAF96A3FD381}">
-  <dimension ref="B2:J40"/>
+  <dimension ref="B2:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17187,17 +17195,6 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>2</v>
@@ -17620,6 +17617,791 @@
         <v>100</v>
       </c>
     </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="10">
+        <v>45665</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8">
+        <f>SUM(D43)</f>
+        <v>13.8</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="12">
+        <f>SUM(J43:J47,F43,H43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="10">
+        <v>45666</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="4">
+        <v>60</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1230</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="7"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8">
+        <f>SUM(D51)</f>
+        <v>60</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="12">
+        <f>SUM(J51:J55,F51,H51)</f>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="10">
+        <v>45667</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="4">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
+      <c r="C60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="4">
+        <v>13</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="7"/>
+      <c r="C61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="4">
+        <v>19.05</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="7"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="8">
+        <f>SUM(D59)</f>
+        <v>16.2</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="12">
+        <f>SUM(J59:J63,F59,H59)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="10">
+        <v>45668</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68" s="7"/>
+      <c r="C68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="7"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="7"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="8">
+        <f>SUM(D67)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="12">
+        <f>SUM(J67:J71,F67,H67)</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="10">
+        <v>45669</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="4">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="7"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="7"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="7"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="7"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="8">
+        <f>SUM(D75)</f>
+        <v>14</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="12">
+        <f>SUM(J75:J79,F75,H75)</f>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="10">
+        <v>45670</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J83" s="4">
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="7"/>
+      <c r="C84" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="7"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="7"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="6"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="8">
+        <f>SUM(D83)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="12">
+        <f>SUM(J83:J87,F83,H83)</f>
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="10">
+        <v>45671</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="4">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" s="4">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H91" s="4">
+        <v>168.75</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="7"/>
+      <c r="C92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H92" s="4">
+        <v>100</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H93" s="4">
+        <v>400</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="7"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="7"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="6"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="8">
+        <f>SUM(D91)</f>
+        <v>10</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="12">
+        <f>SUM(J91:J95,F91,H91)</f>
+        <v>178.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2AD24-1911-4643-BA90-A1568A8EF73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B270D-0486-40E3-992C-00DE5DDDEBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="202">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -642,6 +643,9 @@
   </si>
   <si>
     <t>电池</t>
+  </si>
+  <si>
+    <t>游戲</t>
   </si>
 </sst>
 </file>
@@ -17083,10 +17087,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BBEC7-45C4-47C0-9B30-DAF96A3FD381}">
-  <dimension ref="B2:M136"/>
+  <dimension ref="B2:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="M162" sqref="M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19075,6 +19079,552 @@
         <v>0</v>
       </c>
     </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="10">
+        <v>45677</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139" s="4">
+        <v>10</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="7"/>
+      <c r="C140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="6"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="8">
+        <f>SUM(D139)</f>
+        <v>10</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="12">
+        <f>SUM(J139:J143,F139,H139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="10">
+        <v>45678</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="4">
+        <v>100</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H147" s="4">
+        <v>175</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="7"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H148" s="4">
+        <v>70</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="7"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="7"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="7"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="6"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="8">
+        <f>SUM(D147)</f>
+        <v>0</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="12">
+        <f>SUM(J147:J151,F147,H147)</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="10">
+        <v>45679</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="7"/>
+      <c r="C156" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" s="4">
+        <v>10</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="7"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="7"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="6"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="8">
+        <f>SUM(D155)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="12">
+        <f>SUM(J155:J159,F155,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="10">
+        <v>45680</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D163" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="7"/>
+      <c r="C164" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D164" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="F164" s="4"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="7"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="7"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="8">
+        <f>SUM(D163)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="12">
+        <f>SUM(J163:J167,F163,H163)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338E7DA0-FBD6-4320-A4E5-A453D7585C1C}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>45680</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8">
+        <f>SUM(D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12">
+        <f>SUM(J3:J7,F3,H3)</f>
+        <v>9.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B270D-0486-40E3-992C-00DE5DDDEBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C06164-21DE-401F-B1C7-C4644C2F84F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="208">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -646,6 +646,24 @@
   </si>
   <si>
     <t>游戲</t>
+  </si>
+  <si>
+    <t>媽媽</t>
+  </si>
+  <si>
+    <t>賽馬娘</t>
+  </si>
+  <si>
+    <t>頭髮</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>ZZZ一單</t>
+  </si>
+  <si>
+    <t>豬腸粉</t>
   </si>
 </sst>
 </file>
@@ -17089,8 +17107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817BBEC7-45C4-47C0-9B30-DAF96A3FD381}">
   <dimension ref="B2:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="M162" sqref="M162"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="M164" sqref="M164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18977,7 +18995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
         <v>2</v>
       </c>
@@ -19006,7 +19024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="10">
         <v>45676</v>
       </c>
@@ -19022,7 +19040,7 @@
       <c r="I131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
       <c r="C132" s="3"/>
       <c r="D132" s="4"/>
@@ -19032,7 +19050,7 @@
       <c r="I132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4"/>
@@ -19042,7 +19060,7 @@
       <c r="I133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="4"/>
@@ -19052,7 +19070,7 @@
       <c r="I134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="4"/>
@@ -19062,7 +19080,7 @@
       <c r="I135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
       <c r="D136" s="8">
@@ -19079,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
         <v>2</v>
       </c>
@@ -19107,8 +19125,14 @@
       <c r="J138" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="10">
         <v>45677</v>
       </c>
@@ -19123,8 +19147,14 @@
       <c r="H139" s="4"/>
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L139" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M139" s="4">
+        <v>886.97</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140" s="3" t="s">
         <v>15</v>
@@ -19137,8 +19167,14 @@
       <c r="H140" s="4"/>
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L140" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M140" s="4">
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
@@ -19147,8 +19183,10 @@
       <c r="H141" s="4"/>
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L141" s="13"/>
+      <c r="M141" s="14"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
@@ -19157,8 +19195,13 @@
       <c r="H142" s="4"/>
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L142" s="11"/>
+      <c r="M142" s="12">
+        <f>SUM(M139:M141)</f>
+        <v>975.72</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -19168,7 +19211,7 @@
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
       <c r="D144" s="8">
@@ -19185,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -19214,7 +19257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="10">
         <v>45678</v>
       </c>
@@ -19235,7 +19278,7 @@
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" s="3"/>
       <c r="D148" s="4"/>
@@ -19249,7 +19292,7 @@
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -19259,7 +19302,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -19269,7 +19312,7 @@
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -19279,7 +19322,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -19296,7 +19339,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -19324,8 +19367,14 @@
       <c r="J154" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="10">
         <v>45679</v>
       </c>
@@ -19340,8 +19389,14 @@
       <c r="H155" s="4"/>
       <c r="I155" s="3"/>
       <c r="J155" s="4"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L155" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M155" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="C156" s="3" t="s">
         <v>64</v>
@@ -19354,8 +19409,14 @@
       <c r="H156" s="4"/>
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L156" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M156" s="4">
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -19364,8 +19425,10 @@
       <c r="H157" s="4"/>
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L157" s="13"/>
+      <c r="M157" s="14"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -19374,8 +19437,13 @@
       <c r="H158" s="4"/>
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L158" s="11"/>
+      <c r="M158" s="12">
+        <f>SUM(M155:M157)</f>
+        <v>196.47</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -19385,7 +19453,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -19402,7 +19470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
@@ -19430,8 +19498,14 @@
       <c r="J162" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="10">
         <v>45680</v>
       </c>
@@ -19446,8 +19520,14 @@
       <c r="H163" s="4"/>
       <c r="I163" s="3"/>
       <c r="J163" s="4"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L163" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M163" s="4">
+        <v>354.72</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" s="3" t="s">
         <v>186</v>
@@ -19460,8 +19540,10 @@
       <c r="H164" s="4"/>
       <c r="I164" s="3"/>
       <c r="J164" s="4"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L164" s="3"/>
+      <c r="M164" s="4"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="4"/>
@@ -19470,8 +19552,10 @@
       <c r="H165" s="4"/>
       <c r="I165" s="3"/>
       <c r="J165" s="4"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L165" s="13"/>
+      <c r="M165" s="14"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4"/>
@@ -19480,8 +19564,13 @@
       <c r="H166" s="4"/>
       <c r="I166" s="3"/>
       <c r="J166" s="4"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L166" s="11"/>
+      <c r="M166" s="12">
+        <f>SUM(M163:M165)</f>
+        <v>354.72</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
@@ -19491,7 +19580,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
       <c r="D168" s="8">
@@ -19515,10 +19604,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338E7DA0-FBD6-4320-A4E5-A453D7585C1C}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19625,6 +19714,222 @@
         <v>9.5</v>
       </c>
     </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>45681</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8">
+        <f>SUM(D11)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12">
+        <f>SUM(J11:J15,F11,H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>45682</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4">
+        <v>714.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8">
+        <f>SUM(D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="12">
+        <f>SUM(J19:J23,F19,H19)</f>
+        <v>3014.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cocosProject\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C06164-21DE-401F-B1C7-C4644C2F84F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF6ABB-8E8A-42A9-A65A-2424E6293DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="215">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -665,6 +665,27 @@
   <si>
     <t>豬腸粉</t>
   </si>
+  <si>
+    <t>油費</t>
+  </si>
+  <si>
+    <t>禮包</t>
+  </si>
+  <si>
+    <t>賽駡娘</t>
+  </si>
+  <si>
+    <t>serivetax</t>
+  </si>
+  <si>
+    <t>電話費</t>
+  </si>
+  <si>
+    <t>YOUTUBE</t>
+  </si>
+  <si>
+    <t>icecream</t>
+  </si>
 </sst>
 </file>
 
@@ -17108,7 +17129,7 @@
   <dimension ref="B2:M168"/>
   <sheetViews>
     <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="M164" sqref="M164"/>
+      <selection activeCell="L154" sqref="L154:M158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19604,10 +19625,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338E7DA0-FBD6-4320-A4E5-A453D7585C1C}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19820,7 +19841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>2</v>
       </c>
@@ -19849,7 +19870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>45682</v>
       </c>
@@ -19865,7 +19886,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
@@ -19879,7 +19900,7 @@
         <v>714.6</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -19893,7 +19914,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -19903,7 +19924,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -19913,7 +19934,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8">
@@ -19930,6 +19951,1575 @@
         <v>3014.6</v>
       </c>
     </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>45683</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="L27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" s="4">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+      <c r="L28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" s="4">
+        <v>53.92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12">
+        <f>SUM(M27:M29)</f>
+        <v>71.790000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8">
+        <f>SUM(D27)</f>
+        <v>14</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="12">
+        <f>SUM(J27:J31,F27,H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>45684</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="4">
+        <v>23.75</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="4">
+        <v>147.36000000000001</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="4">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8">
+        <f>SUM(D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="12">
+        <f>SUM(J35:J39,F35,H35)</f>
+        <v>171.11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>45685</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="8">
+        <f>SUM(D43)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="12">
+        <f>SUM(J43:J47,F43,H43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>45686</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="4">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="4">
+        <v>15.55</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8">
+        <f>SUM(D51)</f>
+        <v>9</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="12">
+        <f>SUM(J51:J55,F51,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>45687</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="4">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+      <c r="L59" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M59" s="4">
+        <v>26.03</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+      <c r="L60" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M60" s="4">
+        <v>333.03</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+      <c r="L61" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M61" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="12">
+        <f>SUM(M59:M61)</f>
+        <v>396.05999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="8">
+        <f>SUM(D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="12">
+        <f>SUM(J59:J63,F59,H59)</f>
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
+        <v>45688</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="4">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="4">
+        <v>94.7</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J67" s="4">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="8">
+        <f>SUM(D67)</f>
+        <v>14</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="12">
+        <f>SUM(J67:J71,F67,H67)</f>
+        <v>265.2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="10">
+        <v>45689</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="4">
+        <v>19.52</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J75" s="4">
+        <v>90.22</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M75" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="14"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="12">
+        <f>SUM(M75:M77)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="8">
+        <f>SUM(D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="12">
+        <f>SUM(J75:J79,F75,H75)</f>
+        <v>109.74</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="10">
+        <v>45690</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="4"/>
+      <c r="L83" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M83" s="4">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4"/>
+      <c r="L84" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M84" s="4">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="14"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="12">
+        <f>SUM(M83:M85)</f>
+        <v>102.19999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="8">
+        <f>SUM(D83)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="12">
+        <f>SUM(J83:J87,F83,H83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="10">
+        <v>45691</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="8">
+        <f>SUM(D91)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="12">
+        <f>SUM(J91:J95,F91,H91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="10">
+        <v>45692</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="8">
+        <f>SUM(D99)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="12">
+        <f>SUM(J99:J103,F99,H99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="10">
+        <v>45693</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="4">
+        <v>100</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+      <c r="C108" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="6"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="8">
+        <f>SUM(D107)</f>
+        <v>13.4</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="12">
+        <f>SUM(J107:J111,F107,H107)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="10">
+        <v>45694</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="7"/>
+      <c r="C116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="7"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="8">
+        <f>SUM(D115)</f>
+        <v>10.5</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="12">
+        <f>SUM(J115:J119,F115,H115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="10">
+        <v>45695</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="7"/>
+      <c r="C124" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D124" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="7"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="8">
+        <f>SUM(D123)</f>
+        <v>6.7</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="12">
+        <f>SUM(J123:J127,F123,H123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="10">
+        <v>45696</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H131" s="4">
+        <v>640</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J131" s="4">
+        <v>38.520000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="7"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="7"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="7"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="8">
+        <f>SUM(D131)</f>
+        <v>0</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="12">
+        <f>SUM(J131:J135,F131,H131)</f>
+        <v>678.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/montly.xlsx
+++ b/montly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarSengYap\Documents\GitHub\NoteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DAFCBD-BE46-418C-926E-D1AC46CDF948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176EFA3-AA48-4A91-925F-0E8E29ADD869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{EAFCAE97-22D2-4788-93D2-EC6441D4C5A7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="224">
   <si>
     <t>Monthly Pay</t>
   </si>
@@ -701,6 +701,18 @@
   <si>
     <t>邊界游戲</t>
   </si>
+  <si>
+    <t>猪肠粉</t>
+  </si>
+  <si>
+    <t>非凡</t>
+  </si>
+  <si>
+    <t>鸭子</t>
+  </si>
+  <si>
+    <t>IPHONE</t>
+  </si>
 </sst>
 </file>
 
@@ -19640,10 +19652,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338E7DA0-FBD6-4320-A4E5-A453D7585C1C}">
-  <dimension ref="B2:M232"/>
+  <dimension ref="B2:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="S213" sqref="S213"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="Q246" sqref="Q246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20934,6 +20946,12 @@
       <c r="J90" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="L90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
@@ -20950,6 +20968,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="3"/>
       <c r="J91" s="4"/>
+      <c r="L91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M91" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
@@ -20960,6 +20984,8 @@
       <c r="H92" s="4"/>
       <c r="I92" s="3"/>
       <c r="J92" s="4"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="4"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
@@ -20970,6 +20996,8 @@
       <c r="H93" s="4"/>
       <c r="I93" s="3"/>
       <c r="J93" s="4"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="14"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
@@ -20980,6 +21008,11 @@
       <c r="H94" s="4"/>
       <c r="I94" s="3"/>
       <c r="J94" s="4"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="12">
+        <f>SUM(M91:M93)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
@@ -21008,7 +21041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -21036,8 +21069,14 @@
       <c r="J98" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <v>45692</v>
       </c>
@@ -21048,8 +21087,14 @@
       <c r="H99" s="4"/>
       <c r="I99" s="3"/>
       <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L99" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M99" s="4">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="4"/>
@@ -21058,8 +21103,10 @@
       <c r="H100" s="4"/>
       <c r="I100" s="3"/>
       <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4"/>
@@ -21068,8 +21115,10 @@
       <c r="H101" s="4"/>
       <c r="I101" s="3"/>
       <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L101" s="13"/>
+      <c r="M101" s="14"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="4"/>
@@ -21078,8 +21127,13 @@
       <c r="H102" s="4"/>
       <c r="I102" s="3"/>
       <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L102" s="11"/>
+      <c r="M102" s="12">
+        <f>SUM(M99:M101)</f>
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="4"/>
@@ -21089,7 +21143,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="8">
@@ -21106,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>2</v>
       </c>
@@ -21135,7 +21189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="10">
         <v>45693</v>
       </c>
@@ -21156,7 +21210,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
         <v>100</v>
@@ -21170,7 +21224,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4"/>
@@ -21180,7 +21234,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
@@ -21190,7 +21244,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
@@ -21200,7 +21254,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
       <c r="D112" s="8">
@@ -21642,7 +21696,7 @@
         <v>51.830000000000005</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -21670,8 +21724,14 @@
       <c r="J146" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="10">
         <v>45698</v>
       </c>
@@ -21691,8 +21751,14 @@
       <c r="H147" s="4"/>
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L147" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M147" s="4">
+        <v>112.08</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
       <c r="C148" s="3" t="s">
         <v>92</v>
@@ -21705,8 +21771,10 @@
       <c r="H148" s="4"/>
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L148" s="3"/>
+      <c r="M148" s="4"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="4"/>
@@ -21715,8 +21783,10 @@
       <c r="H149" s="4"/>
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L149" s="13"/>
+      <c r="M149" s="14"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
@@ -21725,8 +21795,13 @@
       <c r="H150" s="4"/>
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L150" s="11"/>
+      <c r="M150" s="12">
+        <f>SUM(M147:M149)</f>
+        <v>112.08</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
@@ -21736,7 +21811,7 @@
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
       <c r="D152" s="8">
@@ -21753,7 +21828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -21782,7 +21857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>45699</v>
       </c>
@@ -21794,7 +21869,7 @@
       <c r="I155" s="3"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
       <c r="C156" s="3"/>
       <c r="D156" s="4"/>
@@ -21804,7 +21879,7 @@
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="4"/>
@@ -21814,7 +21889,7 @@
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="4"/>
@@ -21824,7 +21899,7 @@
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
@@ -21834,7 +21909,7 @@
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
       <c r="D160" s="8">
@@ -22297,7 +22372,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>2</v>
       </c>
@@ -22325,8 +22400,14 @@
       <c r="J194" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B195" s="10">
         <v>45704</v>
       </c>
@@ -22345,8 +22426,14 @@
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="4"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L195" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M195" s="4">
+        <v>23.63</v>
+      </c>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
       <c r="C196" s="3"/>
       <c r="D196" s="4"/>
@@ -22355,8 +22442,10 @@
       <c r="H196" s="4"/>
       <c r="I196" s="3"/>
       <c r="J196" s="4"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L196" s="3"/>
+      <c r="M196" s="4"/>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -22365,8 +22454,10 @@
       <c r="H197" s="4"/>
       <c r="I197" s="3"/>
       <c r="J197" s="4"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L197" s="13"/>
+      <c r="M197" s="14"/>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -22375,8 +22466,13 @@
       <c r="H198" s="4"/>
       <c r="I198" s="3"/>
       <c r="J198" s="4"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L198" s="11"/>
+      <c r="M198" s="12">
+        <f>SUM(M195:M197)</f>
+        <v>23.63</v>
+      </c>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -22386,7 +22482,7 @@
       <c r="I199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B200" s="6"/>
       <c r="C200" s="11"/>
       <c r="D200" s="8">
@@ -22403,7 +22499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -22432,7 +22528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B203" s="10">
         <v>45705</v>
       </c>
@@ -22453,7 +22549,7 @@
       <c r="I203" s="3"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -22463,7 +22559,7 @@
       <c r="I204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -22473,7 +22569,7 @@
       <c r="I205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -22483,7 +22579,7 @@
       <c r="I206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -22493,7 +22589,7 @@
       <c r="I207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B208" s="6"/>
       <c r="C208" s="11"/>
       <c r="D208" s="8">
@@ -22755,18 +22851,35 @@
       <c r="B227" s="10">
         <v>45708</v>
       </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="4"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="4"/>
+      <c r="C227" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D227" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="4">
+        <v>50</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H227" s="4">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="I227" s="3"/>
       <c r="J227" s="4"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="4"/>
+      <c r="C228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="4">
+        <v>3.4</v>
+      </c>
       <c r="F228" s="4"/>
       <c r="G228" s="3"/>
       <c r="H228" s="4"/>
@@ -22775,8 +22888,12 @@
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="4"/>
+      <c r="C229" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D229" s="4">
+        <v>14.5</v>
+      </c>
       <c r="F229" s="4"/>
       <c r="G229" s="3"/>
       <c r="H229" s="4"/>
@@ -22808,7 +22925,7 @@
       <c r="C232" s="11"/>
       <c r="D232" s="8">
         <f>SUM(D227)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
@@ -22817,6 +22934,441 @@
       <c r="I232" s="8"/>
       <c r="J232" s="12">
         <f>SUM(J227:J231,F227,H227)</f>
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B234" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B235" s="10">
+        <v>45709</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D235" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="E235" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="4">
+        <v>50</v>
+      </c>
+      <c r="G235" s="3"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="4"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B236" s="7"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="4"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B237" s="7"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="4"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B238" s="7"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="4"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B239" s="7"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="4"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B240" s="6"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="8">
+        <f>SUM(D235)</f>
+        <v>50.4</v>
+      </c>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+      <c r="J240" s="12">
+        <f>SUM(J235:J239,F235,H235)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B242" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J242" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M242" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B243" s="10">
+        <v>45710</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D243" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="E243" t="s">
+        <v>26</v>
+      </c>
+      <c r="F243" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H243" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="I243" s="3"/>
+      <c r="J243" s="4"/>
+      <c r="L243" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M243" s="4">
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B244" s="7"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="4"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="4"/>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B245" s="7"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="4"/>
+      <c r="L245" s="13"/>
+      <c r="M245" s="14"/>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B246" s="7"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="4"/>
+      <c r="L246" s="11"/>
+      <c r="M246" s="12">
+        <f>SUM(M243:M245)</f>
+        <v>157.47</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B247" s="7"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="4"/>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B248" s="6"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="8">
+        <f>SUM(D243)</f>
+        <v>3.8</v>
+      </c>
+      <c r="E248" s="8"/>
+      <c r="F248" s="8"/>
+      <c r="G248" s="8"/>
+      <c r="H248" s="8"/>
+      <c r="I248" s="8"/>
+      <c r="J248" s="12">
+        <f>SUM(J243:J247,F243,H243)</f>
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B250" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B251" s="10">
+        <v>45711</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="4"/>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B252" s="7"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="4"/>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B253" s="7"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="4"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="4"/>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B254" s="7"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="4"/>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B255" s="7"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="4"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="4"/>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B256" s="6"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="8">
+        <f>SUM(D251)</f>
+        <v>0</v>
+      </c>
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="8"/>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
+      <c r="J256" s="12">
+        <f>SUM(J251:J255,F251,H251)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B258" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B259" s="10">
+        <v>45712</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="4"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="4"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="4"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B260" s="7"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="4"/>
+      <c r="F260" s="4"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="4"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="4"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B261" s="7"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="4"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="4"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="4"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B262" s="7"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="4"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="3"/>
+      <c r="H262" s="4"/>
+      <c r="I262" s="3"/>
+      <c r="J262" s="4"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B263" s="7"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="4"/>
+      <c r="F263" s="4"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="4"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="4"/>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B264" s="6"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="8">
+        <f>SUM(D259)</f>
+        <v>0</v>
+      </c>
+      <c r="E264" s="8"/>
+      <c r="F264" s="8"/>
+      <c r="G264" s="8"/>
+      <c r="H264" s="8"/>
+      <c r="I264" s="8"/>
+      <c r="J264" s="12">
+        <f>SUM(J259:J263,F259,H259)</f>
         <v>0</v>
       </c>
     </row>
